--- a/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7D7964-EC00-4B7D-B1C3-026CAFE988B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43B1A7-DB77-AE4A-AC0F-726E9C1ECDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -358,16 +358,10 @@
     <t xml:space="preserve">Database </t>
   </si>
   <si>
-    <t xml:space="preserve">Rental Checkout Customer Page </t>
-  </si>
-  <si>
     <t>Rental Check-in Employee Portal</t>
   </si>
   <si>
     <t xml:space="preserve">Admin Inventory Page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Tables </t>
   </si>
   <si>
     <t>Upload to XAMMP</t>
@@ -503,6 +497,18 @@
   </si>
   <si>
     <t>Begin using HTTP Only Cookies in sessions</t>
+  </si>
+  <si>
+    <t>Rental Checkout Customer Page to Display DB Info</t>
+  </si>
+  <si>
+    <t>Meet with Christina to Finalize Users Tables and upload to XAMMP</t>
+  </si>
+  <si>
+    <t>Product Tables with Data</t>
+  </si>
+  <si>
+    <t>Work with Olamide to get Add to cart button functioning on Rental page</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +883,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1431,6 +1449,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,14 +1527,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1463,63 +1540,13 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,24 +1867,25 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ104"/>
+  <dimension ref="A1:BZ107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM47" sqref="AM47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="9" max="78" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="78" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1937,40 +1965,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2019,7 +2047,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2099,43 +2127,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="144" t="s">
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2187,42 +2215,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="154" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="155">
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="159">
         <v>44846</v>
       </c>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2275,7 +2303,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>49</v>
@@ -2359,7 +2387,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>50</v>
@@ -2443,7 +2471,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2523,209 +2551,209 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="145" t="s">
+      <c r="H9" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
       <c r="X9" s="149"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="148"/>
-      <c r="AL9" s="148"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="150"/>
+      <c r="AJ9" s="150"/>
+      <c r="AK9" s="150"/>
+      <c r="AL9" s="150"/>
       <c r="AM9" s="149"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="148"/>
-      <c r="AP9" s="148"/>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="148"/>
-      <c r="AT9" s="148"/>
-      <c r="AU9" s="148"/>
-      <c r="AV9" s="148"/>
-      <c r="AW9" s="148"/>
-      <c r="AX9" s="148"/>
-      <c r="AY9" s="148"/>
-      <c r="AZ9" s="148"/>
-      <c r="BA9" s="148"/>
+      <c r="AN9" s="150"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
+      <c r="AQ9" s="150"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="150"/>
+      <c r="AT9" s="150"/>
+      <c r="AU9" s="150"/>
+      <c r="AV9" s="150"/>
+      <c r="AW9" s="150"/>
+      <c r="AX9" s="150"/>
+      <c r="AY9" s="150"/>
+      <c r="AZ9" s="150"/>
+      <c r="BA9" s="150"/>
       <c r="BB9" s="149"/>
-      <c r="BC9" s="148"/>
-      <c r="BD9" s="148"/>
-      <c r="BE9" s="148"/>
-      <c r="BF9" s="148"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="148"/>
-      <c r="BI9" s="148"/>
-      <c r="BJ9" s="148"/>
-      <c r="BK9" s="148"/>
-      <c r="BL9" s="148"/>
-      <c r="BM9" s="148"/>
-      <c r="BN9" s="148"/>
-      <c r="BO9" s="148"/>
-      <c r="BP9" s="148"/>
-      <c r="BQ9" s="148"/>
-      <c r="BR9" s="148"/>
-      <c r="BS9" s="148"/>
-      <c r="BT9" s="148"/>
-      <c r="BU9" s="148"/>
-      <c r="BV9" s="148"/>
-      <c r="BW9" s="148"/>
-      <c r="BX9" s="148"/>
-      <c r="BY9" s="148"/>
-      <c r="BZ9" s="153"/>
+      <c r="BC9" s="150"/>
+      <c r="BD9" s="150"/>
+      <c r="BE9" s="150"/>
+      <c r="BF9" s="150"/>
+      <c r="BG9" s="150"/>
+      <c r="BH9" s="150"/>
+      <c r="BI9" s="150"/>
+      <c r="BJ9" s="150"/>
+      <c r="BK9" s="150"/>
+      <c r="BL9" s="150"/>
+      <c r="BM9" s="150"/>
+      <c r="BN9" s="150"/>
+      <c r="BO9" s="150"/>
+      <c r="BP9" s="150"/>
+      <c r="BQ9" s="150"/>
+      <c r="BR9" s="150"/>
+      <c r="BS9" s="150"/>
+      <c r="BT9" s="150"/>
+      <c r="BU9" s="150"/>
+      <c r="BV9" s="150"/>
+      <c r="BW9" s="150"/>
+      <c r="BX9" s="150"/>
+      <c r="BY9" s="150"/>
+      <c r="BZ9" s="151"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="150" t="s">
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="150" t="s">
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI10" s="153"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="153"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="150" t="s">
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="154"/>
+      <c r="AR10" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI10" s="151"/>
-      <c r="AJ10" s="151"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="150" t="s">
+      <c r="AS10" s="153"/>
+      <c r="AT10" s="153"/>
+      <c r="AU10" s="153"/>
+      <c r="AV10" s="154"/>
+      <c r="AW10" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="151"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS10" s="151"/>
-      <c r="AT10" s="151"/>
-      <c r="AU10" s="151"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX10" s="151"/>
-      <c r="AY10" s="151"/>
-      <c r="AZ10" s="151"/>
-      <c r="BA10" s="152"/>
-      <c r="BB10" s="150" t="s">
+      <c r="AX10" s="153"/>
+      <c r="AY10" s="153"/>
+      <c r="AZ10" s="153"/>
+      <c r="BA10" s="154"/>
+      <c r="BB10" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="151"/>
-      <c r="BD10" s="151"/>
-      <c r="BE10" s="151"/>
-      <c r="BF10" s="152"/>
-      <c r="BG10" s="150" t="s">
+      <c r="BC10" s="153"/>
+      <c r="BD10" s="153"/>
+      <c r="BE10" s="153"/>
+      <c r="BF10" s="154"/>
+      <c r="BG10" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="151"/>
-      <c r="BI10" s="151"/>
-      <c r="BJ10" s="151"/>
-      <c r="BK10" s="152"/>
-      <c r="BL10" s="150" t="s">
+      <c r="BH10" s="153"/>
+      <c r="BI10" s="153"/>
+      <c r="BJ10" s="153"/>
+      <c r="BK10" s="154"/>
+      <c r="BL10" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="151"/>
-      <c r="BN10" s="151"/>
-      <c r="BO10" s="151"/>
-      <c r="BP10" s="152"/>
-      <c r="BQ10" s="150" t="s">
+      <c r="BM10" s="153"/>
+      <c r="BN10" s="153"/>
+      <c r="BO10" s="153"/>
+      <c r="BP10" s="154"/>
+      <c r="BQ10" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="151"/>
-      <c r="BS10" s="151"/>
-      <c r="BT10" s="151"/>
-      <c r="BU10" s="152"/>
-      <c r="BV10" s="150" t="s">
+      <c r="BR10" s="153"/>
+      <c r="BS10" s="153"/>
+      <c r="BT10" s="153"/>
+      <c r="BU10" s="154"/>
+      <c r="BV10" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="151"/>
-      <c r="BX10" s="151"/>
-      <c r="BY10" s="151"/>
-      <c r="BZ10" s="152"/>
+      <c r="BW10" s="153"/>
+      <c r="BX10" s="153"/>
+      <c r="BY10" s="153"/>
+      <c r="BZ10" s="154"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
@@ -2739,217 +2767,217 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="L11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="M11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="N11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="Q11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="R11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="S11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="V11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="W11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="V11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="X11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" s="30" t="s">
+      <c r="AA11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="AB11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AA11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AC11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AD11" s="30" t="s">
+      <c r="AF11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AE11" s="31" t="s">
+      <c r="AG11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AF11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AH11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="30" t="s">
+      <c r="AK11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="126" t="s">
+      <c r="AL11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AK11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AM11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AN11" s="30" t="s">
+      <c r="AP11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AO11" s="31" t="s">
+      <c r="AQ11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AP11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AR11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AS11" s="30" t="s">
+      <c r="AU11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AT11" s="31" t="s">
+      <c r="AV11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AU11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="AW11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AX11" s="30" t="s">
+      <c r="AZ11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AY11" s="31" t="s">
+      <c r="BA11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AZ11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="BB11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BC11" s="30" t="s">
+      <c r="BE11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BD11" s="31" t="s">
+      <c r="BF11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="BE11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="BG11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BH11" s="30" t="s">
+      <c r="BJ11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BI11" s="31" t="s">
+      <c r="BK11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="BJ11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="BL11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BM11" s="30" t="s">
+      <c r="BO11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BN11" s="31" t="s">
+      <c r="BP11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="BO11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BP11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="BQ11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BR11" s="30" t="s">
+      <c r="BT11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BS11" s="31" t="s">
+      <c r="BU11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="BT11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BU11" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="BV11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BW11" s="30" t="s">
+      <c r="BY11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BX11" s="31" t="s">
+      <c r="BZ11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="BY11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ11" s="29" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
@@ -2993,11 +3021,11 @@
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
@@ -3044,7 +3072,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -3088,11 +3116,11 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
@@ -3139,7 +3167,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
@@ -3183,11 +3211,11 @@
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
@@ -3234,7 +3262,7 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
@@ -3278,11 +3306,11 @@
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
@@ -3329,7 +3357,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
@@ -3373,11 +3401,11 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
@@ -3424,7 +3452,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
@@ -3468,11 +3496,11 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
@@ -3519,7 +3547,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
@@ -3563,11 +3591,11 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
@@ -3614,7 +3642,7 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
@@ -3658,11 +3686,11 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
@@ -3709,7 +3737,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3738,11 +3766,11 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
@@ -3789,7 +3817,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3818,11 +3846,11 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
@@ -3869,7 +3897,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
@@ -3953,7 +3981,7 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
@@ -4043,7 +4071,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
@@ -4134,7 +4162,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
@@ -4225,7 +4253,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
         <v>18</v>
@@ -4315,7 +4343,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
@@ -4406,7 +4434,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
@@ -4497,7 +4525,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
@@ -4587,7 +4615,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
@@ -4678,7 +4706,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
@@ -4769,7 +4797,7 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
@@ -4859,7 +4887,7 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
@@ -4949,7 +4977,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -5031,7 +5059,7 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
@@ -5115,7 +5143,7 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="80" t="s">
@@ -5197,93 +5225,93 @@
       <c r="BY36" s="82"/>
       <c r="BZ36" s="82"/>
     </row>
-    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="160"/>
-      <c r="Z37" s="160"/>
-      <c r="AA37" s="160"/>
-      <c r="AB37" s="160"/>
-      <c r="AC37" s="160"/>
-      <c r="AD37" s="160"/>
-      <c r="AE37" s="160"/>
-      <c r="AF37" s="160"/>
-      <c r="AG37" s="160"/>
-      <c r="AH37" s="160"/>
-      <c r="AI37" s="160"/>
-      <c r="AJ37" s="163"/>
-      <c r="AK37" s="160"/>
-      <c r="AL37" s="160"/>
-      <c r="AM37" s="160"/>
-      <c r="AN37" s="160"/>
-      <c r="AO37" s="160"/>
-      <c r="AP37" s="160"/>
-      <c r="AQ37" s="160"/>
-      <c r="AR37" s="160"/>
-      <c r="AS37" s="160"/>
-      <c r="AT37" s="160"/>
-      <c r="AU37" s="160"/>
-      <c r="AV37" s="160"/>
-      <c r="AW37" s="160"/>
-      <c r="AX37" s="160"/>
-      <c r="AY37" s="160"/>
-      <c r="AZ37" s="160"/>
-      <c r="BA37" s="160"/>
-      <c r="BB37" s="160"/>
-      <c r="BC37" s="160"/>
-      <c r="BD37" s="160"/>
-      <c r="BE37" s="160"/>
-      <c r="BF37" s="160"/>
-      <c r="BG37" s="160"/>
-      <c r="BH37" s="160"/>
-      <c r="BI37" s="160"/>
-      <c r="BJ37" s="160"/>
-      <c r="BK37" s="160"/>
-      <c r="BL37" s="160"/>
-      <c r="BM37" s="160"/>
-      <c r="BN37" s="160"/>
-      <c r="BO37" s="160"/>
-      <c r="BP37" s="160"/>
-      <c r="BQ37" s="160"/>
-      <c r="BR37" s="160"/>
-      <c r="BS37" s="160"/>
-      <c r="BT37" s="160"/>
-      <c r="BU37" s="160"/>
-      <c r="BV37" s="160"/>
-      <c r="BW37" s="160"/>
-      <c r="BX37" s="160"/>
-      <c r="BY37" s="160"/>
-      <c r="BZ37" s="160"/>
+    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="138"/>
+      <c r="V37" s="138"/>
+      <c r="W37" s="138"/>
+      <c r="X37" s="138"/>
+      <c r="Y37" s="138"/>
+      <c r="Z37" s="138"/>
+      <c r="AA37" s="138"/>
+      <c r="AB37" s="138"/>
+      <c r="AC37" s="138"/>
+      <c r="AD37" s="138"/>
+      <c r="AE37" s="138"/>
+      <c r="AF37" s="138"/>
+      <c r="AG37" s="138"/>
+      <c r="AH37" s="138"/>
+      <c r="AI37" s="138"/>
+      <c r="AJ37" s="141"/>
+      <c r="AK37" s="138"/>
+      <c r="AL37" s="138"/>
+      <c r="AM37" s="138"/>
+      <c r="AN37" s="138"/>
+      <c r="AO37" s="138"/>
+      <c r="AP37" s="138"/>
+      <c r="AQ37" s="138"/>
+      <c r="AR37" s="138"/>
+      <c r="AS37" s="138"/>
+      <c r="AT37" s="138"/>
+      <c r="AU37" s="138"/>
+      <c r="AV37" s="138"/>
+      <c r="AW37" s="138"/>
+      <c r="AX37" s="138"/>
+      <c r="AY37" s="138"/>
+      <c r="AZ37" s="138"/>
+      <c r="BA37" s="138"/>
+      <c r="BB37" s="138"/>
+      <c r="BC37" s="138"/>
+      <c r="BD37" s="138"/>
+      <c r="BE37" s="138"/>
+      <c r="BF37" s="138"/>
+      <c r="BG37" s="138"/>
+      <c r="BH37" s="138"/>
+      <c r="BI37" s="138"/>
+      <c r="BJ37" s="138"/>
+      <c r="BK37" s="138"/>
+      <c r="BL37" s="138"/>
+      <c r="BM37" s="138"/>
+      <c r="BN37" s="138"/>
+      <c r="BO37" s="138"/>
+      <c r="BP37" s="138"/>
+      <c r="BQ37" s="138"/>
+      <c r="BR37" s="138"/>
+      <c r="BS37" s="138"/>
+      <c r="BT37" s="138"/>
+      <c r="BU37" s="138"/>
+      <c r="BV37" s="138"/>
+      <c r="BW37" s="138"/>
+      <c r="BX37" s="138"/>
+      <c r="BY37" s="138"/>
+      <c r="BZ37" s="138"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="85"/>
       <c r="C38" s="120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -5361,11 +5389,11 @@
       <c r="BY38" s="88"/>
       <c r="BZ38" s="88"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="85"/>
       <c r="C39" s="120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -5399,9 +5427,9 @@
       <c r="AG39" s="88"/>
       <c r="AH39" s="88"/>
       <c r="AI39" s="88"/>
-      <c r="AJ39" s="170"/>
-      <c r="AK39" s="170"/>
-      <c r="AL39" s="170"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="148"/>
+      <c r="AL39" s="148"/>
       <c r="AM39" s="88"/>
       <c r="AN39" s="88"/>
       <c r="AO39" s="121"/>
@@ -5409,7 +5437,7 @@
       <c r="AQ39" s="121"/>
       <c r="AR39" s="122"/>
       <c r="AS39" s="122"/>
-      <c r="AT39" s="169"/>
+      <c r="AT39" s="147"/>
       <c r="AU39" s="88"/>
       <c r="AV39" s="88"/>
       <c r="AW39" s="88"/>
@@ -5443,11 +5471,11 @@
       <c r="BY39" s="88"/>
       <c r="BZ39" s="88"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="85"/>
       <c r="C40" s="120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
@@ -5481,9 +5509,9 @@
       <c r="AG40" s="88"/>
       <c r="AH40" s="88"/>
       <c r="AI40" s="88"/>
-      <c r="AJ40" s="170"/>
-      <c r="AK40" s="170"/>
-      <c r="AL40" s="170"/>
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="148"/>
+      <c r="AL40" s="148"/>
       <c r="AM40" s="88"/>
       <c r="AN40" s="88"/>
       <c r="AO40" s="121"/>
@@ -5525,11 +5553,11 @@
       <c r="BY40" s="88"/>
       <c r="BZ40" s="88"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="85"/>
       <c r="C41" s="120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
@@ -5563,9 +5591,9 @@
       <c r="AG41" s="88"/>
       <c r="AH41" s="88"/>
       <c r="AI41" s="88"/>
-      <c r="AJ41" s="170"/>
-      <c r="AK41" s="170"/>
-      <c r="AL41" s="170"/>
+      <c r="AJ41" s="148"/>
+      <c r="AK41" s="148"/>
+      <c r="AL41" s="148"/>
       <c r="AM41" s="88"/>
       <c r="AN41" s="88"/>
       <c r="AO41" s="121"/>
@@ -5607,11 +5635,11 @@
       <c r="BY41" s="88"/>
       <c r="BZ41" s="88"/>
     </row>
-    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="85"/>
       <c r="C42" s="120" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -5645,9 +5673,9 @@
       <c r="AG42" s="88"/>
       <c r="AH42" s="88"/>
       <c r="AI42" s="88"/>
-      <c r="AJ42" s="170"/>
-      <c r="AK42" s="170"/>
-      <c r="AL42" s="170"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="148"/>
+      <c r="AL42" s="148"/>
       <c r="AM42" s="88"/>
       <c r="AN42" s="88"/>
       <c r="AO42" s="88"/>
@@ -5689,7 +5717,7 @@
       <c r="BY42" s="88"/>
       <c r="BZ42" s="88"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="85"/>
       <c r="C43" s="120"/>
@@ -5725,9 +5753,9 @@
       <c r="AG43" s="88"/>
       <c r="AH43" s="88"/>
       <c r="AI43" s="88"/>
-      <c r="AJ43" s="170"/>
-      <c r="AK43" s="170"/>
-      <c r="AL43" s="170"/>
+      <c r="AJ43" s="148"/>
+      <c r="AK43" s="148"/>
+      <c r="AL43" s="148"/>
       <c r="AM43" s="88"/>
       <c r="AN43" s="88"/>
       <c r="AO43" s="88"/>
@@ -5769,93 +5797,93 @@
       <c r="BY43" s="88"/>
       <c r="BZ43" s="88"/>
     </row>
-    <row r="44" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="165" t="s">
+    <row r="44" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="134"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="163"/>
-      <c r="S44" s="163"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="163"/>
-      <c r="X44" s="163"/>
-      <c r="Y44" s="163"/>
-      <c r="Z44" s="163"/>
-      <c r="AA44" s="163"/>
-      <c r="AB44" s="163"/>
-      <c r="AC44" s="163"/>
-      <c r="AD44" s="163"/>
-      <c r="AE44" s="163"/>
-      <c r="AF44" s="163"/>
-      <c r="AG44" s="163"/>
-      <c r="AH44" s="163"/>
-      <c r="AI44" s="163"/>
-      <c r="AJ44" s="163"/>
-      <c r="AK44" s="163"/>
-      <c r="AL44" s="163"/>
-      <c r="AM44" s="163"/>
-      <c r="AN44" s="163"/>
-      <c r="AO44" s="163"/>
-      <c r="AP44" s="163"/>
-      <c r="AQ44" s="163"/>
-      <c r="AR44" s="163"/>
-      <c r="AS44" s="163"/>
-      <c r="AT44" s="163"/>
-      <c r="AU44" s="163"/>
-      <c r="AV44" s="163"/>
-      <c r="AW44" s="163"/>
-      <c r="AX44" s="163"/>
-      <c r="AY44" s="163"/>
-      <c r="AZ44" s="163"/>
-      <c r="BA44" s="163"/>
-      <c r="BB44" s="163"/>
-      <c r="BC44" s="163"/>
-      <c r="BD44" s="163"/>
-      <c r="BE44" s="163"/>
-      <c r="BF44" s="163"/>
-      <c r="BG44" s="163"/>
-      <c r="BH44" s="163"/>
-      <c r="BI44" s="163"/>
-      <c r="BJ44" s="163"/>
-      <c r="BK44" s="163"/>
-      <c r="BL44" s="163"/>
-      <c r="BM44" s="163"/>
-      <c r="BN44" s="163"/>
-      <c r="BO44" s="163"/>
-      <c r="BP44" s="163"/>
-      <c r="BQ44" s="163"/>
-      <c r="BR44" s="163"/>
-      <c r="BS44" s="163"/>
-      <c r="BT44" s="163"/>
-      <c r="BU44" s="163"/>
-      <c r="BV44" s="163"/>
-      <c r="BW44" s="163"/>
-      <c r="BX44" s="163"/>
-      <c r="BY44" s="163"/>
-      <c r="BZ44" s="163"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="141"/>
+      <c r="N44" s="141"/>
+      <c r="O44" s="141"/>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="141"/>
+      <c r="R44" s="141"/>
+      <c r="S44" s="141"/>
+      <c r="T44" s="141"/>
+      <c r="U44" s="141"/>
+      <c r="V44" s="141"/>
+      <c r="W44" s="141"/>
+      <c r="X44" s="141"/>
+      <c r="Y44" s="141"/>
+      <c r="Z44" s="141"/>
+      <c r="AA44" s="141"/>
+      <c r="AB44" s="141"/>
+      <c r="AC44" s="141"/>
+      <c r="AD44" s="141"/>
+      <c r="AE44" s="141"/>
+      <c r="AF44" s="141"/>
+      <c r="AG44" s="141"/>
+      <c r="AH44" s="141"/>
+      <c r="AI44" s="141"/>
+      <c r="AJ44" s="141"/>
+      <c r="AK44" s="141"/>
+      <c r="AL44" s="141"/>
+      <c r="AM44" s="141"/>
+      <c r="AN44" s="141"/>
+      <c r="AO44" s="141"/>
+      <c r="AP44" s="141"/>
+      <c r="AQ44" s="141"/>
+      <c r="AR44" s="141"/>
+      <c r="AS44" s="141"/>
+      <c r="AT44" s="141"/>
+      <c r="AU44" s="141"/>
+      <c r="AV44" s="141"/>
+      <c r="AW44" s="141"/>
+      <c r="AX44" s="141"/>
+      <c r="AY44" s="141"/>
+      <c r="AZ44" s="141"/>
+      <c r="BA44" s="141"/>
+      <c r="BB44" s="141"/>
+      <c r="BC44" s="141"/>
+      <c r="BD44" s="141"/>
+      <c r="BE44" s="141"/>
+      <c r="BF44" s="141"/>
+      <c r="BG44" s="141"/>
+      <c r="BH44" s="141"/>
+      <c r="BI44" s="141"/>
+      <c r="BJ44" s="141"/>
+      <c r="BK44" s="141"/>
+      <c r="BL44" s="141"/>
+      <c r="BM44" s="141"/>
+      <c r="BN44" s="141"/>
+      <c r="BO44" s="141"/>
+      <c r="BP44" s="141"/>
+      <c r="BQ44" s="141"/>
+      <c r="BR44" s="141"/>
+      <c r="BS44" s="141"/>
+      <c r="BT44" s="141"/>
+      <c r="BU44" s="141"/>
+      <c r="BV44" s="141"/>
+      <c r="BW44" s="141"/>
+      <c r="BX44" s="141"/>
+      <c r="BY44" s="141"/>
+      <c r="BZ44" s="141"/>
     </row>
-    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="85"/>
       <c r="C45" s="120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
@@ -5933,11 +5961,11 @@
       <c r="BY45" s="88"/>
       <c r="BZ45" s="88"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="85"/>
       <c r="C46" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -6015,11 +6043,11 @@
       <c r="BY46" s="88"/>
       <c r="BZ46" s="88"/>
     </row>
-    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="85"/>
       <c r="C47" s="120" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -6097,11 +6125,11 @@
       <c r="BY47" s="88"/>
       <c r="BZ47" s="88"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="85"/>
       <c r="C48" s="120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -6139,7 +6167,7 @@
       <c r="AK48" s="88"/>
       <c r="AL48" s="88"/>
       <c r="AM48" s="88"/>
-      <c r="AN48" s="170"/>
+      <c r="AN48" s="148"/>
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
       <c r="AQ48" s="121"/>
@@ -6179,7 +6207,7 @@
       <c r="BY48" s="88"/>
       <c r="BZ48" s="88"/>
     </row>
-    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="85"/>
       <c r="C49" s="86"/>
@@ -6259,7 +6287,7 @@
       <c r="BY49" s="88"/>
       <c r="BZ49" s="88"/>
     </row>
-    <row r="50" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="72"/>
       <c r="B50" s="73"/>
       <c r="C50" s="76" t="s">
@@ -6341,11 +6369,11 @@
       <c r="BY50" s="67"/>
       <c r="BZ50" s="67"/>
     </row>
-    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32"/>
       <c r="B51" s="53"/>
       <c r="C51" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="35"/>
@@ -6423,11 +6451,11 @@
       <c r="BY51" s="38"/>
       <c r="BZ51" s="38"/>
     </row>
-    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32"/>
       <c r="B52" s="53"/>
       <c r="C52" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D52" s="54"/>
       <c r="E52" s="35"/>
@@ -6505,11 +6533,11 @@
       <c r="BY52" s="38"/>
       <c r="BZ52" s="38"/>
     </row>
-    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
       <c r="B53" s="53"/>
       <c r="C53" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" s="54"/>
       <c r="E53" s="35"/>
@@ -6587,7 +6615,7 @@
       <c r="BY53" s="38"/>
       <c r="BZ53" s="38"/>
     </row>
-    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="53"/>
       <c r="C54" s="56" t="s">
@@ -6669,7 +6697,7 @@
       <c r="BY54" s="38"/>
       <c r="BZ54" s="38"/>
     </row>
-    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
@@ -6751,7 +6779,7 @@
       <c r="BY55" s="38"/>
       <c r="BZ55" s="38"/>
     </row>
-    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
@@ -6833,11 +6861,11 @@
       <c r="BY56" s="38"/>
       <c r="BZ56" s="38"/>
     </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
@@ -6915,11 +6943,11 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
@@ -6997,7 +7025,7 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
@@ -7079,7 +7107,7 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
@@ -7161,7 +7189,7 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
@@ -7243,7 +7271,7 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
@@ -7325,7 +7353,7 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56"/>
@@ -7405,7 +7433,7 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="B64" s="59"/>
       <c r="C64" s="60" t="s">
@@ -7487,7 +7515,7 @@
       <c r="BY64" s="67"/>
       <c r="BZ64" s="67"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
@@ -7569,7 +7597,7 @@
       <c r="BY65" s="38"/>
       <c r="BZ65" s="38"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
@@ -7651,7 +7679,7 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56" t="s">
@@ -7733,7 +7761,7 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56" t="s">
@@ -7815,7 +7843,7 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
@@ -7897,11 +7925,11 @@
       <c r="BY69" s="38"/>
       <c r="BZ69" s="38"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
@@ -7979,7 +8007,7 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
       <c r="C71" s="56"/>
@@ -8059,7 +8087,7 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
       <c r="B72" s="53"/>
       <c r="C72" s="56"/>
@@ -8139,7 +8167,7 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56"/>
@@ -8219,7 +8247,7 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="72"/>
       <c r="B74" s="59"/>
       <c r="C74" s="60" t="s">
@@ -8301,7 +8329,7 @@
       <c r="BY74" s="67"/>
       <c r="BZ74" s="67"/>
     </row>
-    <row r="75" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A75" s="91"/>
       <c r="B75" s="92"/>
       <c r="C75" s="93" t="s">
@@ -8383,11 +8411,11 @@
       <c r="BY75" s="100"/>
       <c r="BZ75" s="100"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D76" s="54"/>
       <c r="E76" s="35"/>
@@ -8465,11 +8493,11 @@
       <c r="BY76" s="38"/>
       <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
       <c r="C77" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="54"/>
       <c r="E77" s="35"/>
@@ -8501,11 +8529,11 @@
       <c r="AE77" s="38"/>
       <c r="AF77" s="38"/>
       <c r="AG77" s="38"/>
-      <c r="AH77" s="39"/>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="39"/>
-      <c r="AL77" s="39"/>
+      <c r="AH77" s="171"/>
+      <c r="AI77" s="171"/>
+      <c r="AJ77" s="171"/>
+      <c r="AK77" s="171"/>
+      <c r="AL77" s="171"/>
       <c r="AM77" s="38"/>
       <c r="AN77" s="38"/>
       <c r="AO77" s="38"/>
@@ -8547,11 +8575,11 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="35"/>
@@ -8583,11 +8611,11 @@
       <c r="AE78" s="38"/>
       <c r="AF78" s="38"/>
       <c r="AG78" s="38"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="39"/>
-      <c r="AL78" s="39"/>
+      <c r="AH78" s="171"/>
+      <c r="AI78" s="171"/>
+      <c r="AJ78" s="171"/>
+      <c r="AK78" s="171"/>
+      <c r="AL78" s="171"/>
       <c r="AM78" s="38"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
@@ -8629,11 +8657,11 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:78" ht="16.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
       <c r="B79" s="53"/>
       <c r="C79" s="56" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="35"/>
@@ -8665,9 +8693,9 @@
       <c r="AE79" s="38"/>
       <c r="AF79" s="38"/>
       <c r="AG79" s="38"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="38"/>
+      <c r="AH79" s="171"/>
+      <c r="AI79" s="171"/>
+      <c r="AJ79" s="171"/>
       <c r="AK79" s="123"/>
       <c r="AL79" s="123"/>
       <c r="AM79" s="58"/>
@@ -8711,11 +8739,11 @@
       <c r="BY79" s="38"/>
       <c r="BZ79" s="38"/>
     </row>
-    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
       <c r="C80" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="54"/>
       <c r="E80" s="35"/>
@@ -8747,9 +8775,9 @@
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="38"/>
-      <c r="AH80" s="39"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="38"/>
+      <c r="AH80" s="171"/>
+      <c r="AI80" s="171"/>
+      <c r="AJ80" s="171"/>
       <c r="AK80" s="123"/>
       <c r="AL80" s="123"/>
       <c r="AM80" s="58"/>
@@ -8793,11 +8821,11 @@
       <c r="BY80" s="38"/>
       <c r="BZ80" s="38"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="35"/>
@@ -8829,9 +8857,9 @@
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
       <c r="AG81" s="38"/>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="38"/>
+      <c r="AH81" s="171"/>
+      <c r="AI81" s="171"/>
+      <c r="AJ81" s="171"/>
       <c r="AK81" s="123"/>
       <c r="AL81" s="123"/>
       <c r="AM81" s="58"/>
@@ -8875,10 +8903,12 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="53"/>
-      <c r="C82" s="56"/>
+      <c r="C82" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="D82" s="54"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
@@ -8904,22 +8934,22 @@
       <c r="Z82" s="38"/>
       <c r="AA82" s="38"/>
       <c r="AB82" s="38"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="38"/>
-      <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
-      <c r="AK82" s="38"/>
-      <c r="AL82" s="38"/>
-      <c r="AM82" s="38"/>
+      <c r="AC82" s="38"/>
+      <c r="AD82" s="38"/>
+      <c r="AE82" s="38"/>
+      <c r="AF82" s="38"/>
+      <c r="AG82" s="38"/>
+      <c r="AH82" s="171"/>
+      <c r="AI82" s="171"/>
+      <c r="AJ82" s="171"/>
+      <c r="AK82" s="171"/>
+      <c r="AL82" s="171"/>
+      <c r="AM82" s="171"/>
       <c r="AN82" s="38"/>
-      <c r="AO82" s="38"/>
-      <c r="AP82" s="38"/>
-      <c r="AQ82" s="38"/>
-      <c r="AR82" s="40"/>
+      <c r="AO82" s="124"/>
+      <c r="AP82" s="124"/>
+      <c r="AQ82" s="124"/>
+      <c r="AR82" s="172"/>
       <c r="AS82" s="40"/>
       <c r="AT82" s="40"/>
       <c r="AU82" s="40"/>
@@ -8955,94 +8985,92 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="98"/>
-      <c r="J83" s="99"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="M83" s="100"/>
-      <c r="N83" s="101"/>
-      <c r="O83" s="101"/>
-      <c r="P83" s="101"/>
-      <c r="Q83" s="101"/>
-      <c r="R83" s="101"/>
-      <c r="S83" s="100"/>
-      <c r="T83" s="100"/>
-      <c r="U83" s="100"/>
-      <c r="V83" s="100"/>
-      <c r="W83" s="100"/>
-      <c r="X83" s="100"/>
-      <c r="Y83" s="100"/>
-      <c r="Z83" s="100"/>
-      <c r="AA83" s="100"/>
-      <c r="AB83" s="100"/>
-      <c r="AC83" s="102"/>
-      <c r="AD83" s="102"/>
-      <c r="AE83" s="102"/>
-      <c r="AF83" s="102"/>
-      <c r="AG83" s="102"/>
-      <c r="AH83" s="100"/>
-      <c r="AI83" s="100"/>
-      <c r="AJ83" s="100"/>
-      <c r="AK83" s="100"/>
-      <c r="AL83" s="100"/>
-      <c r="AM83" s="100"/>
-      <c r="AN83" s="100"/>
-      <c r="AO83" s="100"/>
-      <c r="AP83" s="100"/>
-      <c r="AQ83" s="100"/>
-      <c r="AR83" s="103"/>
-      <c r="AS83" s="103"/>
-      <c r="AT83" s="103"/>
-      <c r="AU83" s="103"/>
-      <c r="AV83" s="103"/>
-      <c r="AW83" s="100"/>
-      <c r="AX83" s="100"/>
-      <c r="AY83" s="100"/>
-      <c r="AZ83" s="100"/>
-      <c r="BA83" s="100"/>
-      <c r="BB83" s="100"/>
-      <c r="BC83" s="100"/>
-      <c r="BD83" s="100"/>
-      <c r="BE83" s="100"/>
-      <c r="BF83" s="100"/>
-      <c r="BG83" s="104"/>
-      <c r="BH83" s="104"/>
-      <c r="BI83" s="104"/>
-      <c r="BJ83" s="104"/>
-      <c r="BK83" s="104"/>
-      <c r="BL83" s="100"/>
-      <c r="BM83" s="100"/>
-      <c r="BN83" s="100"/>
-      <c r="BO83" s="100"/>
-      <c r="BP83" s="100"/>
-      <c r="BQ83" s="100"/>
-      <c r="BR83" s="100"/>
-      <c r="BS83" s="100"/>
-      <c r="BT83" s="100"/>
-      <c r="BU83" s="100"/>
-      <c r="BV83" s="100"/>
-      <c r="BW83" s="100"/>
-      <c r="BX83" s="100"/>
-      <c r="BY83" s="100"/>
-      <c r="BZ83" s="100"/>
+    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="32"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="171"/>
+      <c r="AI83" s="171"/>
+      <c r="AJ83" s="171"/>
+      <c r="AK83" s="171"/>
+      <c r="AL83" s="171"/>
+      <c r="AM83" s="171"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="124"/>
+      <c r="AP83" s="124"/>
+      <c r="AQ83" s="124"/>
+      <c r="AR83" s="172"/>
+      <c r="AS83" s="40"/>
+      <c r="AT83" s="40"/>
+      <c r="AU83" s="40"/>
+      <c r="AV83" s="40"/>
+      <c r="AW83" s="38"/>
+      <c r="AX83" s="38"/>
+      <c r="AY83" s="38"/>
+      <c r="AZ83" s="38"/>
+      <c r="BA83" s="38"/>
+      <c r="BB83" s="38"/>
+      <c r="BC83" s="38"/>
+      <c r="BD83" s="38"/>
+      <c r="BE83" s="38"/>
+      <c r="BF83" s="38"/>
+      <c r="BG83" s="41"/>
+      <c r="BH83" s="41"/>
+      <c r="BI83" s="41"/>
+      <c r="BJ83" s="41"/>
+      <c r="BK83" s="41"/>
+      <c r="BL83" s="38"/>
+      <c r="BM83" s="38"/>
+      <c r="BN83" s="38"/>
+      <c r="BO83" s="38"/>
+      <c r="BP83" s="38"/>
+      <c r="BQ83" s="38"/>
+      <c r="BR83" s="38"/>
+      <c r="BS83" s="38"/>
+      <c r="BT83" s="38"/>
+      <c r="BU83" s="38"/>
+      <c r="BV83" s="38"/>
+      <c r="BW83" s="38"/>
+      <c r="BX83" s="38"/>
+      <c r="BY83" s="38"/>
+      <c r="BZ83" s="38"/>
     </row>
-    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="56" t="s">
-        <v>97</v>
-      </c>
+      <c r="C84" s="56"/>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -9053,11 +9081,11 @@
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>
       <c r="U84" s="38"/>
@@ -9073,21 +9101,21 @@
       <c r="AE84" s="38"/>
       <c r="AF84" s="38"/>
       <c r="AG84" s="38"/>
-      <c r="AH84" s="38"/>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38"/>
-      <c r="AM84" s="38"/>
+      <c r="AH84" s="171"/>
+      <c r="AI84" s="171"/>
+      <c r="AJ84" s="171"/>
+      <c r="AK84" s="171"/>
+      <c r="AL84" s="171"/>
+      <c r="AM84" s="171"/>
       <c r="AN84" s="38"/>
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
       <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="38"/>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
+      <c r="AR84" s="40"/>
+      <c r="AS84" s="40"/>
+      <c r="AT84" s="40"/>
+      <c r="AU84" s="40"/>
+      <c r="AV84" s="40"/>
       <c r="AW84" s="38"/>
       <c r="AX84" s="38"/>
       <c r="AY84" s="38"/>
@@ -9098,11 +9126,11 @@
       <c r="BD84" s="38"/>
       <c r="BE84" s="38"/>
       <c r="BF84" s="38"/>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="38"/>
-      <c r="BK84" s="38"/>
+      <c r="BG84" s="41"/>
+      <c r="BH84" s="41"/>
+      <c r="BI84" s="41"/>
+      <c r="BJ84" s="41"/>
+      <c r="BK84" s="41"/>
       <c r="BL84" s="38"/>
       <c r="BM84" s="38"/>
       <c r="BN84" s="38"/>
@@ -9119,12 +9147,10 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
-      <c r="C85" s="56" t="s">
-        <v>98</v>
-      </c>
+      <c r="C85" s="56"/>
       <c r="D85" s="54"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
@@ -9135,11 +9161,11 @@
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
       <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="44"/>
       <c r="S85" s="38"/>
       <c r="T85" s="38"/>
       <c r="U85" s="38"/>
@@ -9150,11 +9176,11 @@
       <c r="Z85" s="38"/>
       <c r="AA85" s="38"/>
       <c r="AB85" s="38"/>
-      <c r="AC85" s="38"/>
-      <c r="AD85" s="38"/>
-      <c r="AE85" s="38"/>
-      <c r="AF85" s="38"/>
-      <c r="AG85" s="38"/>
+      <c r="AC85" s="39"/>
+      <c r="AD85" s="39"/>
+      <c r="AE85" s="39"/>
+      <c r="AF85" s="39"/>
+      <c r="AG85" s="39"/>
       <c r="AH85" s="38"/>
       <c r="AI85" s="38"/>
       <c r="AJ85" s="38"/>
@@ -9165,11 +9191,11 @@
       <c r="AO85" s="38"/>
       <c r="AP85" s="38"/>
       <c r="AQ85" s="38"/>
-      <c r="AR85" s="38"/>
-      <c r="AS85" s="38"/>
-      <c r="AT85" s="38"/>
-      <c r="AU85" s="38"/>
-      <c r="AV85" s="38"/>
+      <c r="AR85" s="40"/>
+      <c r="AS85" s="40"/>
+      <c r="AT85" s="40"/>
+      <c r="AU85" s="40"/>
+      <c r="AV85" s="40"/>
       <c r="AW85" s="38"/>
       <c r="AX85" s="38"/>
       <c r="AY85" s="38"/>
@@ -9180,11 +9206,11 @@
       <c r="BD85" s="38"/>
       <c r="BE85" s="38"/>
       <c r="BF85" s="38"/>
-      <c r="BG85" s="38"/>
-      <c r="BH85" s="38"/>
-      <c r="BI85" s="38"/>
-      <c r="BJ85" s="38"/>
-      <c r="BK85" s="38"/>
+      <c r="BG85" s="41"/>
+      <c r="BH85" s="41"/>
+      <c r="BI85" s="41"/>
+      <c r="BJ85" s="41"/>
+      <c r="BK85" s="41"/>
       <c r="BL85" s="38"/>
       <c r="BM85" s="38"/>
       <c r="BN85" s="38"/>
@@ -9201,173 +9227,175 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
-      <c r="AA86" s="38"/>
-      <c r="AB86" s="38"/>
-      <c r="AC86" s="38"/>
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="38"/>
-      <c r="AF86" s="38"/>
-      <c r="AG86" s="38"/>
-      <c r="AH86" s="38"/>
-      <c r="AI86" s="38"/>
-      <c r="AJ86" s="38"/>
-      <c r="AK86" s="38"/>
-      <c r="AL86" s="38"/>
-      <c r="AM86" s="38"/>
-      <c r="AN86" s="38"/>
-      <c r="AO86" s="38"/>
-      <c r="AP86" s="38"/>
-      <c r="AQ86" s="38"/>
-      <c r="AR86" s="38"/>
-      <c r="AS86" s="38"/>
-      <c r="AT86" s="38"/>
-      <c r="AU86" s="38"/>
-      <c r="AV86" s="38"/>
-      <c r="AW86" s="38"/>
-      <c r="AX86" s="38"/>
-      <c r="AY86" s="38"/>
-      <c r="AZ86" s="38"/>
-      <c r="BA86" s="38"/>
-      <c r="BB86" s="38"/>
-      <c r="BC86" s="38"/>
-      <c r="BD86" s="38"/>
-      <c r="BE86" s="38"/>
-      <c r="BF86" s="38"/>
-      <c r="BG86" s="38"/>
-      <c r="BH86" s="38"/>
-      <c r="BI86" s="38"/>
-      <c r="BJ86" s="38"/>
-      <c r="BK86" s="38"/>
-      <c r="BL86" s="38"/>
-      <c r="BM86" s="38"/>
-      <c r="BN86" s="38"/>
-      <c r="BO86" s="38"/>
-      <c r="BP86" s="38"/>
-      <c r="BQ86" s="38"/>
-      <c r="BR86" s="38"/>
-      <c r="BS86" s="38"/>
-      <c r="BT86" s="38"/>
-      <c r="BU86" s="38"/>
-      <c r="BV86" s="38"/>
-      <c r="BW86" s="38"/>
-      <c r="BX86" s="38"/>
-      <c r="BY86" s="38"/>
-      <c r="BZ86" s="38"/>
+    <row r="86" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="91"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="94"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="99"/>
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="100"/>
+      <c r="N86" s="101"/>
+      <c r="O86" s="101"/>
+      <c r="P86" s="101"/>
+      <c r="Q86" s="101"/>
+      <c r="R86" s="101"/>
+      <c r="S86" s="100"/>
+      <c r="T86" s="100"/>
+      <c r="U86" s="100"/>
+      <c r="V86" s="100"/>
+      <c r="W86" s="100"/>
+      <c r="X86" s="100"/>
+      <c r="Y86" s="100"/>
+      <c r="Z86" s="100"/>
+      <c r="AA86" s="100"/>
+      <c r="AB86" s="100"/>
+      <c r="AC86" s="102"/>
+      <c r="AD86" s="102"/>
+      <c r="AE86" s="102"/>
+      <c r="AF86" s="102"/>
+      <c r="AG86" s="102"/>
+      <c r="AH86" s="100"/>
+      <c r="AI86" s="100"/>
+      <c r="AJ86" s="100"/>
+      <c r="AK86" s="100"/>
+      <c r="AL86" s="100"/>
+      <c r="AM86" s="100"/>
+      <c r="AN86" s="100"/>
+      <c r="AO86" s="100"/>
+      <c r="AP86" s="100"/>
+      <c r="AQ86" s="100"/>
+      <c r="AR86" s="103"/>
+      <c r="AS86" s="103"/>
+      <c r="AT86" s="103"/>
+      <c r="AU86" s="103"/>
+      <c r="AV86" s="103"/>
+      <c r="AW86" s="100"/>
+      <c r="AX86" s="100"/>
+      <c r="AY86" s="100"/>
+      <c r="AZ86" s="100"/>
+      <c r="BA86" s="100"/>
+      <c r="BB86" s="100"/>
+      <c r="BC86" s="100"/>
+      <c r="BD86" s="100"/>
+      <c r="BE86" s="100"/>
+      <c r="BF86" s="100"/>
+      <c r="BG86" s="104"/>
+      <c r="BH86" s="104"/>
+      <c r="BI86" s="104"/>
+      <c r="BJ86" s="104"/>
+      <c r="BK86" s="104"/>
+      <c r="BL86" s="100"/>
+      <c r="BM86" s="100"/>
+      <c r="BN86" s="100"/>
+      <c r="BO86" s="100"/>
+      <c r="BP86" s="100"/>
+      <c r="BQ86" s="100"/>
+      <c r="BR86" s="100"/>
+      <c r="BS86" s="100"/>
+      <c r="BT86" s="100"/>
+      <c r="BU86" s="100"/>
+      <c r="BV86" s="100"/>
+      <c r="BW86" s="100"/>
+      <c r="BX86" s="100"/>
+      <c r="BY86" s="100"/>
+      <c r="BZ86" s="100"/>
     </row>
-    <row r="87" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="67"/>
-      <c r="V87" s="67"/>
-      <c r="W87" s="67"/>
-      <c r="X87" s="67"/>
-      <c r="Y87" s="67"/>
-      <c r="Z87" s="67"/>
-      <c r="AA87" s="67"/>
-      <c r="AB87" s="67"/>
-      <c r="AC87" s="69"/>
-      <c r="AD87" s="69"/>
-      <c r="AE87" s="69"/>
-      <c r="AF87" s="69"/>
-      <c r="AG87" s="69"/>
-      <c r="AH87" s="67"/>
-      <c r="AI87" s="67"/>
-      <c r="AJ87" s="67"/>
-      <c r="AK87" s="67"/>
-      <c r="AL87" s="67"/>
-      <c r="AM87" s="67"/>
-      <c r="AN87" s="67"/>
-      <c r="AO87" s="67"/>
-      <c r="AP87" s="67"/>
-      <c r="AQ87" s="67"/>
-      <c r="AR87" s="70"/>
-      <c r="AS87" s="70"/>
-      <c r="AT87" s="70"/>
-      <c r="AU87" s="70"/>
-      <c r="AV87" s="70"/>
-      <c r="AW87" s="67"/>
-      <c r="AX87" s="67"/>
-      <c r="AY87" s="67"/>
-      <c r="AZ87" s="67"/>
-      <c r="BA87" s="67"/>
-      <c r="BB87" s="67"/>
-      <c r="BC87" s="67"/>
-      <c r="BD87" s="67"/>
-      <c r="BE87" s="67"/>
-      <c r="BF87" s="67"/>
-      <c r="BG87" s="71"/>
-      <c r="BH87" s="71"/>
-      <c r="BI87" s="71"/>
-      <c r="BJ87" s="71"/>
-      <c r="BK87" s="71"/>
-      <c r="BL87" s="67"/>
-      <c r="BM87" s="67"/>
-      <c r="BN87" s="67"/>
-      <c r="BO87" s="67"/>
-      <c r="BP87" s="67"/>
-      <c r="BQ87" s="67"/>
-      <c r="BR87" s="67"/>
-      <c r="BS87" s="67"/>
-      <c r="BT87" s="67"/>
-      <c r="BU87" s="67"/>
-      <c r="BV87" s="67"/>
-      <c r="BW87" s="67"/>
-      <c r="BX87" s="67"/>
-      <c r="BY87" s="67"/>
-      <c r="BZ87" s="67"/>
+    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="32"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="38"/>
+      <c r="AA87" s="38"/>
+      <c r="AB87" s="38"/>
+      <c r="AC87" s="38"/>
+      <c r="AD87" s="38"/>
+      <c r="AE87" s="38"/>
+      <c r="AF87" s="38"/>
+      <c r="AG87" s="38"/>
+      <c r="AH87" s="38"/>
+      <c r="AI87" s="124"/>
+      <c r="AJ87" s="124"/>
+      <c r="AK87" s="124"/>
+      <c r="AL87" s="124"/>
+      <c r="AM87" s="58"/>
+      <c r="AN87" s="38"/>
+      <c r="AO87" s="38"/>
+      <c r="AP87" s="38"/>
+      <c r="AQ87" s="38"/>
+      <c r="AR87" s="38"/>
+      <c r="AS87" s="38"/>
+      <c r="AT87" s="38"/>
+      <c r="AU87" s="38"/>
+      <c r="AV87" s="38"/>
+      <c r="AW87" s="38"/>
+      <c r="AX87" s="38"/>
+      <c r="AY87" s="38"/>
+      <c r="AZ87" s="38"/>
+      <c r="BA87" s="38"/>
+      <c r="BB87" s="38"/>
+      <c r="BC87" s="38"/>
+      <c r="BD87" s="38"/>
+      <c r="BE87" s="38"/>
+      <c r="BF87" s="38"/>
+      <c r="BG87" s="38"/>
+      <c r="BH87" s="38"/>
+      <c r="BI87" s="38"/>
+      <c r="BJ87" s="38"/>
+      <c r="BK87" s="38"/>
+      <c r="BL87" s="38"/>
+      <c r="BM87" s="38"/>
+      <c r="BN87" s="38"/>
+      <c r="BO87" s="38"/>
+      <c r="BP87" s="38"/>
+      <c r="BQ87" s="38"/>
+      <c r="BR87" s="38"/>
+      <c r="BS87" s="38"/>
+      <c r="BT87" s="38"/>
+      <c r="BU87" s="38"/>
+      <c r="BV87" s="38"/>
+      <c r="BW87" s="38"/>
+      <c r="BX87" s="38"/>
+      <c r="BY87" s="38"/>
+      <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
       <c r="C88" s="56" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="35"/>
@@ -9379,11 +9407,11 @@
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
       <c r="S88" s="38"/>
       <c r="T88" s="38"/>
       <c r="U88" s="38"/>
@@ -9394,26 +9422,26 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="38"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="124"/>
-      <c r="AI88" s="124"/>
-      <c r="AJ88" s="124"/>
-      <c r="AK88" s="124"/>
-      <c r="AL88" s="124"/>
-      <c r="AM88" s="58"/>
+      <c r="AC88" s="38"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="38"/>
       <c r="AN88" s="38"/>
       <c r="AO88" s="38"/>
       <c r="AP88" s="38"/>
       <c r="AQ88" s="38"/>
-      <c r="AR88" s="40"/>
-      <c r="AS88" s="40"/>
-      <c r="AT88" s="40"/>
-      <c r="AU88" s="40"/>
-      <c r="AV88" s="40"/>
+      <c r="AR88" s="38"/>
+      <c r="AS88" s="38"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
       <c r="AW88" s="38"/>
       <c r="AX88" s="38"/>
       <c r="AY88" s="38"/>
@@ -9424,11 +9452,11 @@
       <c r="BD88" s="38"/>
       <c r="BE88" s="38"/>
       <c r="BF88" s="38"/>
-      <c r="BG88" s="41"/>
-      <c r="BH88" s="41"/>
-      <c r="BI88" s="41"/>
-      <c r="BJ88" s="41"/>
-      <c r="BK88" s="41"/>
+      <c r="BG88" s="38"/>
+      <c r="BH88" s="38"/>
+      <c r="BI88" s="38"/>
+      <c r="BJ88" s="38"/>
+      <c r="BK88" s="38"/>
       <c r="BL88" s="38"/>
       <c r="BM88" s="38"/>
       <c r="BN88" s="38"/>
@@ -9445,12 +9473,10 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="56" t="s">
-        <v>85</v>
-      </c>
+      <c r="C89" s="56"/>
       <c r="D89" s="54"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
@@ -9461,11 +9487,11 @@
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
       <c r="S89" s="38"/>
       <c r="T89" s="38"/>
       <c r="U89" s="38"/>
@@ -9476,26 +9502,26 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
       <c r="AB89" s="38"/>
-      <c r="AC89" s="39"/>
-      <c r="AD89" s="39"/>
-      <c r="AE89" s="39"/>
-      <c r="AF89" s="39"/>
-      <c r="AG89" s="39"/>
-      <c r="AH89" s="124"/>
-      <c r="AI89" s="124"/>
-      <c r="AJ89" s="124"/>
-      <c r="AK89" s="124"/>
-      <c r="AL89" s="124"/>
-      <c r="AM89" s="58"/>
+      <c r="AC89" s="38"/>
+      <c r="AD89" s="38"/>
+      <c r="AE89" s="38"/>
+      <c r="AF89" s="38"/>
+      <c r="AG89" s="38"/>
+      <c r="AH89" s="38"/>
+      <c r="AI89" s="38"/>
+      <c r="AJ89" s="38"/>
+      <c r="AK89" s="38"/>
+      <c r="AL89" s="38"/>
+      <c r="AM89" s="38"/>
       <c r="AN89" s="38"/>
       <c r="AO89" s="38"/>
       <c r="AP89" s="38"/>
       <c r="AQ89" s="38"/>
-      <c r="AR89" s="40"/>
-      <c r="AS89" s="40"/>
-      <c r="AT89" s="40"/>
-      <c r="AU89" s="40"/>
-      <c r="AV89" s="40"/>
+      <c r="AR89" s="38"/>
+      <c r="AS89" s="38"/>
+      <c r="AT89" s="38"/>
+      <c r="AU89" s="38"/>
+      <c r="AV89" s="38"/>
       <c r="AW89" s="38"/>
       <c r="AX89" s="38"/>
       <c r="AY89" s="38"/>
@@ -9506,11 +9532,11 @@
       <c r="BD89" s="38"/>
       <c r="BE89" s="38"/>
       <c r="BF89" s="38"/>
-      <c r="BG89" s="41"/>
-      <c r="BH89" s="41"/>
-      <c r="BI89" s="41"/>
-      <c r="BJ89" s="41"/>
-      <c r="BK89" s="41"/>
+      <c r="BG89" s="38"/>
+      <c r="BH89" s="38"/>
+      <c r="BI89" s="38"/>
+      <c r="BJ89" s="38"/>
+      <c r="BK89" s="38"/>
       <c r="BL89" s="38"/>
       <c r="BM89" s="38"/>
       <c r="BN89" s="38"/>
@@ -9527,90 +9553,94 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
-      <c r="AA90" s="38"/>
-      <c r="AB90" s="38"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
-      <c r="AH90" s="38"/>
-      <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="38"/>
-      <c r="AL90" s="38"/>
-      <c r="AM90" s="38"/>
-      <c r="AN90" s="38"/>
-      <c r="AO90" s="38"/>
-      <c r="AP90" s="38"/>
-      <c r="AQ90" s="38"/>
-      <c r="AR90" s="40"/>
-      <c r="AS90" s="40"/>
-      <c r="AT90" s="40"/>
-      <c r="AU90" s="40"/>
-      <c r="AV90" s="40"/>
-      <c r="AW90" s="38"/>
-      <c r="AX90" s="38"/>
-      <c r="AY90" s="38"/>
-      <c r="AZ90" s="38"/>
-      <c r="BA90" s="38"/>
-      <c r="BB90" s="38"/>
-      <c r="BC90" s="38"/>
-      <c r="BD90" s="38"/>
-      <c r="BE90" s="38"/>
-      <c r="BF90" s="38"/>
-      <c r="BG90" s="41"/>
-      <c r="BH90" s="41"/>
-      <c r="BI90" s="41"/>
-      <c r="BJ90" s="41"/>
-      <c r="BK90" s="41"/>
-      <c r="BL90" s="38"/>
-      <c r="BM90" s="38"/>
-      <c r="BN90" s="38"/>
-      <c r="BO90" s="38"/>
-      <c r="BP90" s="38"/>
-      <c r="BQ90" s="38"/>
-      <c r="BR90" s="38"/>
-      <c r="BS90" s="38"/>
-      <c r="BT90" s="38"/>
-      <c r="BU90" s="38"/>
-      <c r="BV90" s="38"/>
-      <c r="BW90" s="38"/>
-      <c r="BX90" s="38"/>
-      <c r="BY90" s="38"/>
-      <c r="BZ90" s="38"/>
+    <row r="90" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="72"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="68"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
+      <c r="Y90" s="67"/>
+      <c r="Z90" s="67"/>
+      <c r="AA90" s="67"/>
+      <c r="AB90" s="67"/>
+      <c r="AC90" s="69"/>
+      <c r="AD90" s="69"/>
+      <c r="AE90" s="69"/>
+      <c r="AF90" s="69"/>
+      <c r="AG90" s="69"/>
+      <c r="AH90" s="67"/>
+      <c r="AI90" s="67"/>
+      <c r="AJ90" s="67"/>
+      <c r="AK90" s="67"/>
+      <c r="AL90" s="67"/>
+      <c r="AM90" s="67"/>
+      <c r="AN90" s="67"/>
+      <c r="AO90" s="67"/>
+      <c r="AP90" s="67"/>
+      <c r="AQ90" s="67"/>
+      <c r="AR90" s="70"/>
+      <c r="AS90" s="70"/>
+      <c r="AT90" s="70"/>
+      <c r="AU90" s="70"/>
+      <c r="AV90" s="70"/>
+      <c r="AW90" s="67"/>
+      <c r="AX90" s="67"/>
+      <c r="AY90" s="67"/>
+      <c r="AZ90" s="67"/>
+      <c r="BA90" s="67"/>
+      <c r="BB90" s="67"/>
+      <c r="BC90" s="67"/>
+      <c r="BD90" s="67"/>
+      <c r="BE90" s="67"/>
+      <c r="BF90" s="67"/>
+      <c r="BG90" s="71"/>
+      <c r="BH90" s="71"/>
+      <c r="BI90" s="71"/>
+      <c r="BJ90" s="71"/>
+      <c r="BK90" s="71"/>
+      <c r="BL90" s="67"/>
+      <c r="BM90" s="67"/>
+      <c r="BN90" s="67"/>
+      <c r="BO90" s="67"/>
+      <c r="BP90" s="67"/>
+      <c r="BQ90" s="67"/>
+      <c r="BR90" s="67"/>
+      <c r="BS90" s="67"/>
+      <c r="BT90" s="67"/>
+      <c r="BU90" s="67"/>
+      <c r="BV90" s="67"/>
+      <c r="BW90" s="67"/>
+      <c r="BX90" s="67"/>
+      <c r="BY90" s="67"/>
+      <c r="BZ90" s="67"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
-      <c r="C91" s="56"/>
+      <c r="C91" s="56" t="s">
+        <v>84</v>
+      </c>
       <c r="D91" s="54"/>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
@@ -9641,12 +9671,12 @@
       <c r="AE91" s="39"/>
       <c r="AF91" s="39"/>
       <c r="AG91" s="39"/>
-      <c r="AH91" s="38"/>
-      <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="38"/>
-      <c r="AL91" s="38"/>
-      <c r="AM91" s="38"/>
+      <c r="AH91" s="124"/>
+      <c r="AI91" s="124"/>
+      <c r="AJ91" s="124"/>
+      <c r="AK91" s="124"/>
+      <c r="AL91" s="124"/>
+      <c r="AM91" s="58"/>
       <c r="AN91" s="38"/>
       <c r="AO91" s="38"/>
       <c r="AP91" s="38"/>
@@ -9687,10 +9717,12 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
-      <c r="C92" s="56"/>
+      <c r="C92" s="56" t="s">
+        <v>85</v>
+      </c>
       <c r="D92" s="54"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
@@ -9721,12 +9753,12 @@
       <c r="AE92" s="39"/>
       <c r="AF92" s="39"/>
       <c r="AG92" s="39"/>
-      <c r="AH92" s="38"/>
-      <c r="AI92" s="38"/>
-      <c r="AJ92" s="38"/>
-      <c r="AK92" s="38"/>
-      <c r="AL92" s="38"/>
-      <c r="AM92" s="38"/>
+      <c r="AH92" s="124"/>
+      <c r="AI92" s="124"/>
+      <c r="AJ92" s="124"/>
+      <c r="AK92" s="124"/>
+      <c r="AL92" s="124"/>
+      <c r="AM92" s="58"/>
       <c r="AN92" s="38"/>
       <c r="AO92" s="38"/>
       <c r="AP92" s="38"/>
@@ -9767,7 +9799,7 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56"/>
@@ -9847,10 +9879,10 @@
       <c r="BY93" s="38"/>
       <c r="BZ93" s="38"/>
     </row>
-    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="57"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="54"/>
       <c r="E94" s="35"/>
       <c r="F94" s="35"/>
@@ -9927,112 +9959,95 @@
       <c r="BY94" s="38"/>
       <c r="BZ94" s="38"/>
     </row>
-    <row r="95" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="26">
-        <v>4</v>
-      </c>
-      <c r="C95" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
-      <c r="AE95" s="29"/>
-      <c r="AF95" s="29"/>
-      <c r="AG95" s="29"/>
-      <c r="AH95" s="29"/>
-      <c r="AI95" s="29"/>
-      <c r="AJ95" s="29"/>
-      <c r="AK95" s="29"/>
-      <c r="AL95" s="29"/>
-      <c r="AM95" s="29"/>
-      <c r="AN95" s="29"/>
-      <c r="AO95" s="29"/>
-      <c r="AP95" s="29"/>
-      <c r="AQ95" s="29"/>
-      <c r="AR95" s="29"/>
-      <c r="AS95" s="29"/>
-      <c r="AT95" s="29"/>
-      <c r="AU95" s="29"/>
-      <c r="AV95" s="29"/>
-      <c r="AW95" s="29"/>
-      <c r="AX95" s="29"/>
-      <c r="AY95" s="29"/>
-      <c r="AZ95" s="29"/>
-      <c r="BA95" s="29"/>
-      <c r="BB95" s="29"/>
-      <c r="BC95" s="29"/>
-      <c r="BD95" s="29"/>
-      <c r="BE95" s="29"/>
-      <c r="BF95" s="29"/>
-      <c r="BG95" s="29"/>
-      <c r="BH95" s="29"/>
-      <c r="BI95" s="29"/>
-      <c r="BJ95" s="29"/>
-      <c r="BK95" s="29"/>
-      <c r="BL95" s="29"/>
-      <c r="BM95" s="29"/>
-      <c r="BN95" s="29"/>
-      <c r="BO95" s="29"/>
-      <c r="BP95" s="29"/>
-      <c r="BQ95" s="29"/>
-      <c r="BR95" s="29"/>
-      <c r="BS95" s="29"/>
-      <c r="BT95" s="29"/>
-      <c r="BU95" s="29"/>
-      <c r="BV95" s="29"/>
-      <c r="BW95" s="29"/>
-      <c r="BX95" s="29"/>
-      <c r="BY95" s="29"/>
-      <c r="BZ95" s="29"/>
+    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="32"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
+      <c r="AN95" s="38"/>
+      <c r="AO95" s="38"/>
+      <c r="AP95" s="38"/>
+      <c r="AQ95" s="38"/>
+      <c r="AR95" s="40"/>
+      <c r="AS95" s="40"/>
+      <c r="AT95" s="40"/>
+      <c r="AU95" s="40"/>
+      <c r="AV95" s="40"/>
+      <c r="AW95" s="38"/>
+      <c r="AX95" s="38"/>
+      <c r="AY95" s="38"/>
+      <c r="AZ95" s="38"/>
+      <c r="BA95" s="38"/>
+      <c r="BB95" s="38"/>
+      <c r="BC95" s="38"/>
+      <c r="BD95" s="38"/>
+      <c r="BE95" s="38"/>
+      <c r="BF95" s="38"/>
+      <c r="BG95" s="41"/>
+      <c r="BH95" s="41"/>
+      <c r="BI95" s="41"/>
+      <c r="BJ95" s="41"/>
+      <c r="BK95" s="41"/>
+      <c r="BL95" s="38"/>
+      <c r="BM95" s="38"/>
+      <c r="BN95" s="38"/>
+      <c r="BO95" s="38"/>
+      <c r="BP95" s="38"/>
+      <c r="BQ95" s="38"/>
+      <c r="BR95" s="38"/>
+      <c r="BS95" s="38"/>
+      <c r="BT95" s="38"/>
+      <c r="BU95" s="38"/>
+      <c r="BV95" s="38"/>
+      <c r="BW95" s="38"/>
+      <c r="BX95" s="38"/>
+      <c r="BY95" s="38"/>
+      <c r="BZ95" s="38"/>
     </row>
-    <row r="96" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" s="36" t="e">
-        <f>DAYS360(E96,F96)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H96" s="37">
-        <v>1</v>
-      </c>
+    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="32"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
       <c r="I96" s="42"/>
       <c r="J96" s="43"/>
       <c r="K96" s="38"/>
@@ -10104,28 +10119,15 @@
       <c r="BY96" s="38"/>
       <c r="BZ96" s="38"/>
     </row>
-    <row r="97" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G97" s="36">
-        <v>0</v>
-      </c>
-      <c r="H97" s="37">
-        <v>1</v>
-      </c>
+    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="32"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
       <c r="I97" s="42"/>
       <c r="J97" s="43"/>
       <c r="K97" s="38"/>
@@ -10197,121 +10199,110 @@
       <c r="BY97" s="38"/>
       <c r="BZ97" s="38"/>
     </row>
-    <row r="98" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="34" t="s">
+    <row r="98" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="26">
+        <v>4</v>
+      </c>
+      <c r="C98" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
+      <c r="AE98" s="29"/>
+      <c r="AF98" s="29"/>
+      <c r="AG98" s="29"/>
+      <c r="AH98" s="29"/>
+      <c r="AI98" s="29"/>
+      <c r="AJ98" s="29"/>
+      <c r="AK98" s="29"/>
+      <c r="AL98" s="29"/>
+      <c r="AM98" s="29"/>
+      <c r="AN98" s="29"/>
+      <c r="AO98" s="29"/>
+      <c r="AP98" s="29"/>
+      <c r="AQ98" s="29"/>
+      <c r="AR98" s="29"/>
+      <c r="AS98" s="29"/>
+      <c r="AT98" s="29"/>
+      <c r="AU98" s="29"/>
+      <c r="AV98" s="29"/>
+      <c r="AW98" s="29"/>
+      <c r="AX98" s="29"/>
+      <c r="AY98" s="29"/>
+      <c r="AZ98" s="29"/>
+      <c r="BA98" s="29"/>
+      <c r="BB98" s="29"/>
+      <c r="BC98" s="29"/>
+      <c r="BD98" s="29"/>
+      <c r="BE98" s="29"/>
+      <c r="BF98" s="29"/>
+      <c r="BG98" s="29"/>
+      <c r="BH98" s="29"/>
+      <c r="BI98" s="29"/>
+      <c r="BJ98" s="29"/>
+      <c r="BK98" s="29"/>
+      <c r="BL98" s="29"/>
+      <c r="BM98" s="29"/>
+      <c r="BN98" s="29"/>
+      <c r="BO98" s="29"/>
+      <c r="BP98" s="29"/>
+      <c r="BQ98" s="29"/>
+      <c r="BR98" s="29"/>
+      <c r="BS98" s="29"/>
+      <c r="BT98" s="29"/>
+      <c r="BU98" s="29"/>
+      <c r="BV98" s="29"/>
+      <c r="BW98" s="29"/>
+      <c r="BX98" s="29"/>
+      <c r="BY98" s="29"/>
+      <c r="BZ98" s="29"/>
+    </row>
+    <row r="99" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F98" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G98" s="36">
-        <f t="shared" ref="G98:G102" si="4">DAYS360(E98,F98)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="37">
-        <v>1</v>
-      </c>
-      <c r="I98" s="42"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="38"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="38"/>
-      <c r="X98" s="38"/>
-      <c r="Y98" s="38"/>
-      <c r="Z98" s="38"/>
-      <c r="AA98" s="38"/>
-      <c r="AB98" s="38"/>
-      <c r="AC98" s="39"/>
-      <c r="AD98" s="39"/>
-      <c r="AE98" s="39"/>
-      <c r="AF98" s="39"/>
-      <c r="AG98" s="39"/>
-      <c r="AH98" s="38"/>
-      <c r="AI98" s="38"/>
-      <c r="AJ98" s="38"/>
-      <c r="AK98" s="38"/>
-      <c r="AL98" s="38"/>
-      <c r="AM98" s="38"/>
-      <c r="AN98" s="38"/>
-      <c r="AO98" s="38"/>
-      <c r="AP98" s="38"/>
-      <c r="AQ98" s="38"/>
-      <c r="AR98" s="40"/>
-      <c r="AS98" s="40"/>
-      <c r="AT98" s="40"/>
-      <c r="AU98" s="40"/>
-      <c r="AV98" s="40"/>
-      <c r="AW98" s="38"/>
-      <c r="AX98" s="38"/>
-      <c r="AY98" s="38"/>
-      <c r="AZ98" s="38"/>
-      <c r="BA98" s="38"/>
-      <c r="BB98" s="38"/>
-      <c r="BC98" s="38"/>
-      <c r="BD98" s="38"/>
-      <c r="BE98" s="38"/>
-      <c r="BF98" s="38"/>
-      <c r="BG98" s="41"/>
-      <c r="BH98" s="41"/>
-      <c r="BI98" s="41"/>
-      <c r="BJ98" s="41"/>
-      <c r="BK98" s="41"/>
-      <c r="BL98" s="38"/>
-      <c r="BM98" s="38"/>
-      <c r="BN98" s="38"/>
-      <c r="BO98" s="38"/>
-      <c r="BP98" s="38"/>
-      <c r="BQ98" s="38"/>
-      <c r="BR98" s="38"/>
-      <c r="BS98" s="38"/>
-      <c r="BT98" s="38"/>
-      <c r="BU98" s="38"/>
-      <c r="BV98" s="38"/>
-      <c r="BW98" s="38"/>
-      <c r="BX98" s="38"/>
-      <c r="BY98" s="38"/>
-      <c r="BZ98" s="38"/>
-    </row>
-    <row r="99" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F99" s="35">
-        <v>44829</v>
-      </c>
-      <c r="G99" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="52">
+      <c r="E99" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="36" t="e">
+        <f>DAYS360(E99,F99)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H99" s="37">
         <v>1</v>
       </c>
       <c r="I99" s="42"/>
@@ -10385,24 +10376,23 @@
       <c r="BY99" s="38"/>
       <c r="BZ99" s="38"/>
     </row>
-    <row r="100" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="33" t="s">
-        <v>53</v>
+    <row r="100" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="33">
+        <v>4.2</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="35">
-        <v>44830</v>
-      </c>
-      <c r="F100" s="35">
-        <v>44830</v>
+      <c r="E100" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="G100" s="36">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100" s="37">
@@ -10479,24 +10469,24 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D101" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E101" s="35">
-        <v>44837</v>
+        <v>44823</v>
       </c>
       <c r="F101" s="35">
-        <v>44837</v>
+        <v>44823</v>
       </c>
       <c r="G101" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G101:G105" si="4">DAYS360(E101,F101)</f>
         <v>0</v>
       </c>
       <c r="H101" s="37">
@@ -10573,25 +10563,27 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="33"/>
+    <row r="102" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="C102" s="47" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E102" s="35">
-        <v>44844</v>
+        <v>44829</v>
       </c>
       <c r="F102" s="35">
-        <v>44844</v>
+        <v>44829</v>
       </c>
       <c r="G102" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="37">
+      <c r="H102" s="52">
         <v>1</v>
       </c>
       <c r="I102" s="42"/>
@@ -10665,24 +10657,24 @@
       <c r="BY102" s="38"/>
       <c r="BZ102" s="38"/>
     </row>
-    <row r="103" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="106" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="D103" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="F103" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="G103" s="36">
-        <f t="shared" ref="G103" si="5">DAYS360(E103,F103)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H103" s="37">
@@ -10759,87 +10751,387 @@
       <c r="BY103" s="38"/>
       <c r="BZ103" s="38"/>
     </row>
-    <row r="104" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="107"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="110"/>
-      <c r="F104" s="110"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="112"/>
-      <c r="I104" s="113"/>
-      <c r="J104" s="114"/>
-      <c r="K104" s="115"/>
-      <c r="L104" s="115"/>
-      <c r="M104" s="115"/>
-      <c r="N104" s="116"/>
-      <c r="O104" s="116"/>
-      <c r="P104" s="116"/>
-      <c r="Q104" s="116"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="115"/>
-      <c r="T104" s="115"/>
-      <c r="U104" s="115"/>
-      <c r="V104" s="115"/>
-      <c r="W104" s="115"/>
-      <c r="X104" s="115"/>
-      <c r="Y104" s="115"/>
-      <c r="Z104" s="115"/>
-      <c r="AA104" s="115"/>
-      <c r="AB104" s="115"/>
-      <c r="AC104" s="117"/>
-      <c r="AD104" s="117"/>
-      <c r="AE104" s="117"/>
-      <c r="AF104" s="117"/>
-      <c r="AG104" s="117"/>
-      <c r="AH104" s="115"/>
-      <c r="AI104" s="115"/>
-      <c r="AJ104" s="115"/>
-      <c r="AK104" s="115"/>
-      <c r="AL104" s="115"/>
-      <c r="AM104" s="115"/>
-      <c r="AN104" s="115"/>
-      <c r="AO104" s="115"/>
-      <c r="AP104" s="115"/>
-      <c r="AQ104" s="115"/>
-      <c r="AR104" s="118"/>
-      <c r="AS104" s="118"/>
-      <c r="AT104" s="118"/>
-      <c r="AU104" s="118"/>
-      <c r="AV104" s="118"/>
-      <c r="AW104" s="115"/>
-      <c r="AX104" s="115"/>
-      <c r="AY104" s="115"/>
-      <c r="AZ104" s="115"/>
-      <c r="BA104" s="115"/>
-      <c r="BB104" s="115"/>
-      <c r="BC104" s="115"/>
-      <c r="BD104" s="115"/>
-      <c r="BE104" s="115"/>
-      <c r="BF104" s="115"/>
-      <c r="BG104" s="119"/>
-      <c r="BH104" s="119"/>
-      <c r="BI104" s="119"/>
-      <c r="BJ104" s="119"/>
-      <c r="BK104" s="119"/>
-      <c r="BL104" s="115"/>
-      <c r="BM104" s="115"/>
-      <c r="BN104" s="115"/>
-      <c r="BO104" s="115"/>
-      <c r="BP104" s="115"/>
-      <c r="BQ104" s="115"/>
-      <c r="BR104" s="115"/>
-      <c r="BS104" s="115"/>
-      <c r="BT104" s="115"/>
-      <c r="BU104" s="115"/>
-      <c r="BV104" s="115"/>
-      <c r="BW104" s="115"/>
-      <c r="BX104" s="115"/>
-      <c r="BY104" s="115"/>
-      <c r="BZ104" s="115"/>
+    <row r="104" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F104" s="35">
+        <v>44837</v>
+      </c>
+      <c r="G104" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="37">
+        <v>1</v>
+      </c>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="38"/>
+      <c r="T104" s="38"/>
+      <c r="U104" s="38"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="38"/>
+      <c r="X104" s="38"/>
+      <c r="Y104" s="38"/>
+      <c r="Z104" s="38"/>
+      <c r="AA104" s="38"/>
+      <c r="AB104" s="38"/>
+      <c r="AC104" s="39"/>
+      <c r="AD104" s="39"/>
+      <c r="AE104" s="39"/>
+      <c r="AF104" s="39"/>
+      <c r="AG104" s="39"/>
+      <c r="AH104" s="38"/>
+      <c r="AI104" s="38"/>
+      <c r="AJ104" s="38"/>
+      <c r="AK104" s="38"/>
+      <c r="AL104" s="38"/>
+      <c r="AM104" s="38"/>
+      <c r="AN104" s="38"/>
+      <c r="AO104" s="38"/>
+      <c r="AP104" s="38"/>
+      <c r="AQ104" s="38"/>
+      <c r="AR104" s="40"/>
+      <c r="AS104" s="40"/>
+      <c r="AT104" s="40"/>
+      <c r="AU104" s="40"/>
+      <c r="AV104" s="40"/>
+      <c r="AW104" s="38"/>
+      <c r="AX104" s="38"/>
+      <c r="AY104" s="38"/>
+      <c r="AZ104" s="38"/>
+      <c r="BA104" s="38"/>
+      <c r="BB104" s="38"/>
+      <c r="BC104" s="38"/>
+      <c r="BD104" s="38"/>
+      <c r="BE104" s="38"/>
+      <c r="BF104" s="38"/>
+      <c r="BG104" s="41"/>
+      <c r="BH104" s="41"/>
+      <c r="BI104" s="41"/>
+      <c r="BJ104" s="41"/>
+      <c r="BK104" s="41"/>
+      <c r="BL104" s="38"/>
+      <c r="BM104" s="38"/>
+      <c r="BN104" s="38"/>
+      <c r="BO104" s="38"/>
+      <c r="BP104" s="38"/>
+      <c r="BQ104" s="38"/>
+      <c r="BR104" s="38"/>
+      <c r="BS104" s="38"/>
+      <c r="BT104" s="38"/>
+      <c r="BU104" s="38"/>
+      <c r="BV104" s="38"/>
+      <c r="BW104" s="38"/>
+      <c r="BX104" s="38"/>
+      <c r="BY104" s="38"/>
+      <c r="BZ104" s="38"/>
+    </row>
+    <row r="105" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="33"/>
+      <c r="C105" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F105" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G105" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="37">
+        <v>1</v>
+      </c>
+      <c r="I105" s="42"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="44"/>
+      <c r="O105" s="44"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="44"/>
+      <c r="R105" s="44"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="38"/>
+      <c r="AA105" s="38"/>
+      <c r="AB105" s="38"/>
+      <c r="AC105" s="39"/>
+      <c r="AD105" s="39"/>
+      <c r="AE105" s="39"/>
+      <c r="AF105" s="39"/>
+      <c r="AG105" s="39"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="38"/>
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="38"/>
+      <c r="AL105" s="38"/>
+      <c r="AM105" s="38"/>
+      <c r="AN105" s="38"/>
+      <c r="AO105" s="38"/>
+      <c r="AP105" s="38"/>
+      <c r="AQ105" s="38"/>
+      <c r="AR105" s="40"/>
+      <c r="AS105" s="40"/>
+      <c r="AT105" s="40"/>
+      <c r="AU105" s="40"/>
+      <c r="AV105" s="40"/>
+      <c r="AW105" s="38"/>
+      <c r="AX105" s="38"/>
+      <c r="AY105" s="38"/>
+      <c r="AZ105" s="38"/>
+      <c r="BA105" s="38"/>
+      <c r="BB105" s="38"/>
+      <c r="BC105" s="38"/>
+      <c r="BD105" s="38"/>
+      <c r="BE105" s="38"/>
+      <c r="BF105" s="38"/>
+      <c r="BG105" s="41"/>
+      <c r="BH105" s="41"/>
+      <c r="BI105" s="41"/>
+      <c r="BJ105" s="41"/>
+      <c r="BK105" s="41"/>
+      <c r="BL105" s="38"/>
+      <c r="BM105" s="38"/>
+      <c r="BN105" s="38"/>
+      <c r="BO105" s="38"/>
+      <c r="BP105" s="38"/>
+      <c r="BQ105" s="38"/>
+      <c r="BR105" s="38"/>
+      <c r="BS105" s="38"/>
+      <c r="BT105" s="38"/>
+      <c r="BU105" s="38"/>
+      <c r="BV105" s="38"/>
+      <c r="BW105" s="38"/>
+      <c r="BX105" s="38"/>
+      <c r="BY105" s="38"/>
+      <c r="BZ105" s="38"/>
+    </row>
+    <row r="106" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F106" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G106" s="36">
+        <f t="shared" ref="G106" si="5">DAYS360(E106,F106)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="37">
+        <v>1</v>
+      </c>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
+      <c r="AA106" s="38"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="39"/>
+      <c r="AE106" s="39"/>
+      <c r="AF106" s="39"/>
+      <c r="AG106" s="39"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="38"/>
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="38"/>
+      <c r="AL106" s="38"/>
+      <c r="AM106" s="38"/>
+      <c r="AN106" s="38"/>
+      <c r="AO106" s="38"/>
+      <c r="AP106" s="38"/>
+      <c r="AQ106" s="38"/>
+      <c r="AR106" s="40"/>
+      <c r="AS106" s="40"/>
+      <c r="AT106" s="40"/>
+      <c r="AU106" s="40"/>
+      <c r="AV106" s="40"/>
+      <c r="AW106" s="38"/>
+      <c r="AX106" s="38"/>
+      <c r="AY106" s="38"/>
+      <c r="AZ106" s="38"/>
+      <c r="BA106" s="38"/>
+      <c r="BB106" s="38"/>
+      <c r="BC106" s="38"/>
+      <c r="BD106" s="38"/>
+      <c r="BE106" s="38"/>
+      <c r="BF106" s="38"/>
+      <c r="BG106" s="41"/>
+      <c r="BH106" s="41"/>
+      <c r="BI106" s="41"/>
+      <c r="BJ106" s="41"/>
+      <c r="BK106" s="41"/>
+      <c r="BL106" s="38"/>
+      <c r="BM106" s="38"/>
+      <c r="BN106" s="38"/>
+      <c r="BO106" s="38"/>
+      <c r="BP106" s="38"/>
+      <c r="BQ106" s="38"/>
+      <c r="BR106" s="38"/>
+      <c r="BS106" s="38"/>
+      <c r="BT106" s="38"/>
+      <c r="BU106" s="38"/>
+      <c r="BV106" s="38"/>
+      <c r="BW106" s="38"/>
+      <c r="BX106" s="38"/>
+      <c r="BY106" s="38"/>
+      <c r="BZ106" s="38"/>
+    </row>
+    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="107"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="109"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="113"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="115"/>
+      <c r="L107" s="115"/>
+      <c r="M107" s="115"/>
+      <c r="N107" s="116"/>
+      <c r="O107" s="116"/>
+      <c r="P107" s="116"/>
+      <c r="Q107" s="116"/>
+      <c r="R107" s="116"/>
+      <c r="S107" s="115"/>
+      <c r="T107" s="115"/>
+      <c r="U107" s="115"/>
+      <c r="V107" s="115"/>
+      <c r="W107" s="115"/>
+      <c r="X107" s="115"/>
+      <c r="Y107" s="115"/>
+      <c r="Z107" s="115"/>
+      <c r="AA107" s="115"/>
+      <c r="AB107" s="115"/>
+      <c r="AC107" s="117"/>
+      <c r="AD107" s="117"/>
+      <c r="AE107" s="117"/>
+      <c r="AF107" s="117"/>
+      <c r="AG107" s="117"/>
+      <c r="AH107" s="115"/>
+      <c r="AI107" s="115"/>
+      <c r="AJ107" s="115"/>
+      <c r="AK107" s="115"/>
+      <c r="AL107" s="115"/>
+      <c r="AM107" s="115"/>
+      <c r="AN107" s="115"/>
+      <c r="AO107" s="115"/>
+      <c r="AP107" s="115"/>
+      <c r="AQ107" s="115"/>
+      <c r="AR107" s="118"/>
+      <c r="AS107" s="118"/>
+      <c r="AT107" s="118"/>
+      <c r="AU107" s="118"/>
+      <c r="AV107" s="118"/>
+      <c r="AW107" s="115"/>
+      <c r="AX107" s="115"/>
+      <c r="AY107" s="115"/>
+      <c r="AZ107" s="115"/>
+      <c r="BA107" s="115"/>
+      <c r="BB107" s="115"/>
+      <c r="BC107" s="115"/>
+      <c r="BD107" s="115"/>
+      <c r="BE107" s="115"/>
+      <c r="BF107" s="115"/>
+      <c r="BG107" s="119"/>
+      <c r="BH107" s="119"/>
+      <c r="BI107" s="119"/>
+      <c r="BJ107" s="119"/>
+      <c r="BK107" s="119"/>
+      <c r="BL107" s="115"/>
+      <c r="BM107" s="115"/>
+      <c r="BN107" s="115"/>
+      <c r="BO107" s="115"/>
+      <c r="BP107" s="115"/>
+      <c r="BQ107" s="115"/>
+      <c r="BR107" s="115"/>
+      <c r="BS107" s="115"/>
+      <c r="BT107" s="115"/>
+      <c r="BU107" s="115"/>
+      <c r="BV107" s="115"/>
+      <c r="BW107" s="115"/>
+      <c r="BX107" s="115"/>
+      <c r="BY107" s="115"/>
+      <c r="BZ107" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -10856,29 +11148,9 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H104">
+  <conditionalFormatting sqref="H12:H21 H23:H107">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10888,7 +11160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H104">
+  <conditionalFormatting sqref="H12:H21 H23:H107">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10904,12 +11176,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -11138,6 +11404,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11148,23 +11420,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11183,6 +11438,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>

--- a/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43B1A7-DB77-AE4A-AC0F-726E9C1ECDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18DDD13-0691-2B49-BCAC-92875E8746C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -510,6 +510,12 @@
   <si>
     <t>Work with Olamide to get Add to cart button functioning on Rental page</t>
   </si>
+  <si>
+    <t>Finish shopping cart form page</t>
+  </si>
+  <si>
+    <t>work with Beesane to get Add to cart button functioning on retail page</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -732,6 +738,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1078,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1492,26 +1504,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,9 +1527,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1540,13 +1545,23 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1869,8 +1884,8 @@
   </sheetPr>
   <dimension ref="A1:BZ107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB91" sqref="AB91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1967,38 +1982,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2127,43 +2142,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="167" t="s">
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2217,40 +2232,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="159">
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="173">
         <v>44846</v>
       </c>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2553,205 +2568,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="H9" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="170"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="149"/>
-      <c r="AN9" s="150"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="150"/>
-      <c r="AT9" s="150"/>
-      <c r="AU9" s="150"/>
-      <c r="AV9" s="150"/>
-      <c r="AW9" s="150"/>
-      <c r="AX9" s="150"/>
-      <c r="AY9" s="150"/>
-      <c r="AZ9" s="150"/>
-      <c r="BA9" s="150"/>
-      <c r="BB9" s="149"/>
-      <c r="BC9" s="150"/>
-      <c r="BD9" s="150"/>
-      <c r="BE9" s="150"/>
-      <c r="BF9" s="150"/>
-      <c r="BG9" s="150"/>
-      <c r="BH9" s="150"/>
-      <c r="BI9" s="150"/>
-      <c r="BJ9" s="150"/>
-      <c r="BK9" s="150"/>
-      <c r="BL9" s="150"/>
-      <c r="BM9" s="150"/>
-      <c r="BN9" s="150"/>
-      <c r="BO9" s="150"/>
-      <c r="BP9" s="150"/>
-      <c r="BQ9" s="150"/>
-      <c r="BR9" s="150"/>
-      <c r="BS9" s="150"/>
-      <c r="BT9" s="150"/>
-      <c r="BU9" s="150"/>
-      <c r="BV9" s="150"/>
-      <c r="BW9" s="150"/>
-      <c r="BX9" s="150"/>
-      <c r="BY9" s="150"/>
-      <c r="BZ9" s="151"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
+      <c r="AJ9" s="166"/>
+      <c r="AK9" s="166"/>
+      <c r="AL9" s="166"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="166"/>
+      <c r="AO9" s="166"/>
+      <c r="AP9" s="166"/>
+      <c r="AQ9" s="166"/>
+      <c r="AR9" s="166"/>
+      <c r="AS9" s="166"/>
+      <c r="AT9" s="166"/>
+      <c r="AU9" s="166"/>
+      <c r="AV9" s="166"/>
+      <c r="AW9" s="166"/>
+      <c r="AX9" s="166"/>
+      <c r="AY9" s="166"/>
+      <c r="AZ9" s="166"/>
+      <c r="BA9" s="166"/>
+      <c r="BB9" s="167"/>
+      <c r="BC9" s="166"/>
+      <c r="BD9" s="166"/>
+      <c r="BE9" s="166"/>
+      <c r="BF9" s="166"/>
+      <c r="BG9" s="166"/>
+      <c r="BH9" s="166"/>
+      <c r="BI9" s="166"/>
+      <c r="BJ9" s="166"/>
+      <c r="BK9" s="166"/>
+      <c r="BL9" s="166"/>
+      <c r="BM9" s="166"/>
+      <c r="BN9" s="166"/>
+      <c r="BO9" s="166"/>
+      <c r="BP9" s="166"/>
+      <c r="BQ9" s="166"/>
+      <c r="BR9" s="166"/>
+      <c r="BS9" s="166"/>
+      <c r="BT9" s="166"/>
+      <c r="BU9" s="166"/>
+      <c r="BV9" s="166"/>
+      <c r="BW9" s="166"/>
+      <c r="BX9" s="166"/>
+      <c r="BY9" s="166"/>
+      <c r="BZ9" s="171"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="152" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152" t="s">
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="152" t="s">
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="152" t="s">
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="152" t="s">
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="152" t="s">
+      <c r="AD10" s="169"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="152" t="s">
+      <c r="AI10" s="169"/>
+      <c r="AJ10" s="169"/>
+      <c r="AK10" s="169"/>
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
-      <c r="AQ10" s="154"/>
-      <c r="AR10" s="152" t="s">
+      <c r="AN10" s="169"/>
+      <c r="AO10" s="169"/>
+      <c r="AP10" s="169"/>
+      <c r="AQ10" s="170"/>
+      <c r="AR10" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="AS10" s="153"/>
-      <c r="AT10" s="153"/>
-      <c r="AU10" s="153"/>
-      <c r="AV10" s="154"/>
-      <c r="AW10" s="152" t="s">
+      <c r="AS10" s="169"/>
+      <c r="AT10" s="169"/>
+      <c r="AU10" s="169"/>
+      <c r="AV10" s="170"/>
+      <c r="AW10" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="154"/>
-      <c r="BB10" s="152" t="s">
+      <c r="AX10" s="169"/>
+      <c r="AY10" s="169"/>
+      <c r="AZ10" s="169"/>
+      <c r="BA10" s="170"/>
+      <c r="BB10" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="153"/>
-      <c r="BD10" s="153"/>
-      <c r="BE10" s="153"/>
-      <c r="BF10" s="154"/>
-      <c r="BG10" s="152" t="s">
+      <c r="BC10" s="169"/>
+      <c r="BD10" s="169"/>
+      <c r="BE10" s="169"/>
+      <c r="BF10" s="170"/>
+      <c r="BG10" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="153"/>
-      <c r="BI10" s="153"/>
-      <c r="BJ10" s="153"/>
-      <c r="BK10" s="154"/>
-      <c r="BL10" s="152" t="s">
+      <c r="BH10" s="169"/>
+      <c r="BI10" s="169"/>
+      <c r="BJ10" s="169"/>
+      <c r="BK10" s="170"/>
+      <c r="BL10" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="153"/>
-      <c r="BN10" s="153"/>
-      <c r="BO10" s="153"/>
-      <c r="BP10" s="154"/>
-      <c r="BQ10" s="152" t="s">
+      <c r="BM10" s="169"/>
+      <c r="BN10" s="169"/>
+      <c r="BO10" s="169"/>
+      <c r="BP10" s="170"/>
+      <c r="BQ10" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="153"/>
-      <c r="BS10" s="153"/>
-      <c r="BT10" s="153"/>
-      <c r="BU10" s="154"/>
-      <c r="BV10" s="152" t="s">
+      <c r="BR10" s="169"/>
+      <c r="BS10" s="169"/>
+      <c r="BT10" s="169"/>
+      <c r="BU10" s="170"/>
+      <c r="BV10" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="153"/>
-      <c r="BX10" s="153"/>
-      <c r="BY10" s="153"/>
-      <c r="BZ10" s="154"/>
+      <c r="BW10" s="169"/>
+      <c r="BX10" s="169"/>
+      <c r="BY10" s="169"/>
+      <c r="BZ10" s="170"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
@@ -3021,11 +3036,11 @@
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
@@ -3116,11 +3131,11 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
@@ -3211,11 +3226,11 @@
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="173"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
@@ -3306,11 +3321,11 @@
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
@@ -3401,11 +3416,11 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
@@ -3496,11 +3511,11 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
@@ -3591,11 +3606,11 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
@@ -3686,11 +3701,11 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
@@ -3766,11 +3781,11 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
@@ -3846,11 +3861,11 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="38"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
@@ -8529,11 +8544,11 @@
       <c r="AE77" s="38"/>
       <c r="AF77" s="38"/>
       <c r="AG77" s="38"/>
-      <c r="AH77" s="171"/>
-      <c r="AI77" s="171"/>
-      <c r="AJ77" s="171"/>
-      <c r="AK77" s="171"/>
-      <c r="AL77" s="171"/>
+      <c r="AH77" s="149"/>
+      <c r="AI77" s="149"/>
+      <c r="AJ77" s="149"/>
+      <c r="AK77" s="149"/>
+      <c r="AL77" s="149"/>
       <c r="AM77" s="38"/>
       <c r="AN77" s="38"/>
       <c r="AO77" s="38"/>
@@ -8611,11 +8626,11 @@
       <c r="AE78" s="38"/>
       <c r="AF78" s="38"/>
       <c r="AG78" s="38"/>
-      <c r="AH78" s="171"/>
-      <c r="AI78" s="171"/>
-      <c r="AJ78" s="171"/>
-      <c r="AK78" s="171"/>
-      <c r="AL78" s="171"/>
+      <c r="AH78" s="149"/>
+      <c r="AI78" s="149"/>
+      <c r="AJ78" s="149"/>
+      <c r="AK78" s="149"/>
+      <c r="AL78" s="149"/>
       <c r="AM78" s="38"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
@@ -8693,9 +8708,9 @@
       <c r="AE79" s="38"/>
       <c r="AF79" s="38"/>
       <c r="AG79" s="38"/>
-      <c r="AH79" s="171"/>
-      <c r="AI79" s="171"/>
-      <c r="AJ79" s="171"/>
+      <c r="AH79" s="149"/>
+      <c r="AI79" s="149"/>
+      <c r="AJ79" s="149"/>
       <c r="AK79" s="123"/>
       <c r="AL79" s="123"/>
       <c r="AM79" s="58"/>
@@ -8775,9 +8790,9 @@
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="38"/>
-      <c r="AH80" s="171"/>
-      <c r="AI80" s="171"/>
-      <c r="AJ80" s="171"/>
+      <c r="AH80" s="149"/>
+      <c r="AI80" s="149"/>
+      <c r="AJ80" s="149"/>
       <c r="AK80" s="123"/>
       <c r="AL80" s="123"/>
       <c r="AM80" s="58"/>
@@ -8857,9 +8872,9 @@
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
       <c r="AG81" s="38"/>
-      <c r="AH81" s="171"/>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
+      <c r="AH81" s="149"/>
+      <c r="AI81" s="149"/>
+      <c r="AJ81" s="149"/>
       <c r="AK81" s="123"/>
       <c r="AL81" s="123"/>
       <c r="AM81" s="58"/>
@@ -8939,17 +8954,17 @@
       <c r="AE82" s="38"/>
       <c r="AF82" s="38"/>
       <c r="AG82" s="38"/>
-      <c r="AH82" s="171"/>
-      <c r="AI82" s="171"/>
-      <c r="AJ82" s="171"/>
-      <c r="AK82" s="171"/>
-      <c r="AL82" s="171"/>
-      <c r="AM82" s="171"/>
+      <c r="AH82" s="149"/>
+      <c r="AI82" s="149"/>
+      <c r="AJ82" s="149"/>
+      <c r="AK82" s="149"/>
+      <c r="AL82" s="149"/>
+      <c r="AM82" s="149"/>
       <c r="AN82" s="38"/>
       <c r="AO82" s="124"/>
       <c r="AP82" s="124"/>
       <c r="AQ82" s="124"/>
-      <c r="AR82" s="172"/>
+      <c r="AR82" s="150"/>
       <c r="AS82" s="40"/>
       <c r="AT82" s="40"/>
       <c r="AU82" s="40"/>
@@ -9021,17 +9036,17 @@
       <c r="AE83" s="38"/>
       <c r="AF83" s="38"/>
       <c r="AG83" s="38"/>
-      <c r="AH83" s="171"/>
-      <c r="AI83" s="171"/>
-      <c r="AJ83" s="171"/>
-      <c r="AK83" s="171"/>
-      <c r="AL83" s="171"/>
-      <c r="AM83" s="171"/>
+      <c r="AH83" s="149"/>
+      <c r="AI83" s="149"/>
+      <c r="AJ83" s="149"/>
+      <c r="AK83" s="149"/>
+      <c r="AL83" s="149"/>
+      <c r="AM83" s="149"/>
       <c r="AN83" s="38"/>
       <c r="AO83" s="124"/>
       <c r="AP83" s="124"/>
       <c r="AQ83" s="124"/>
-      <c r="AR83" s="172"/>
+      <c r="AR83" s="150"/>
       <c r="AS83" s="40"/>
       <c r="AT83" s="40"/>
       <c r="AU83" s="40"/>
@@ -9101,12 +9116,12 @@
       <c r="AE84" s="38"/>
       <c r="AF84" s="38"/>
       <c r="AG84" s="38"/>
-      <c r="AH84" s="171"/>
-      <c r="AI84" s="171"/>
-      <c r="AJ84" s="171"/>
-      <c r="AK84" s="171"/>
-      <c r="AL84" s="171"/>
-      <c r="AM84" s="171"/>
+      <c r="AH84" s="149"/>
+      <c r="AI84" s="149"/>
+      <c r="AJ84" s="149"/>
+      <c r="AK84" s="149"/>
+      <c r="AL84" s="149"/>
+      <c r="AM84" s="149"/>
       <c r="AN84" s="38"/>
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
@@ -9802,7 +9817,9 @@
     <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
-      <c r="C93" s="56"/>
+      <c r="C93" s="56" t="s">
+        <v>131</v>
+      </c>
       <c r="D93" s="54"/>
       <c r="E93" s="35"/>
       <c r="F93" s="35"/>
@@ -9840,10 +9857,10 @@
       <c r="AL93" s="38"/>
       <c r="AM93" s="38"/>
       <c r="AN93" s="38"/>
-      <c r="AO93" s="38"/>
-      <c r="AP93" s="38"/>
-      <c r="AQ93" s="38"/>
-      <c r="AR93" s="40"/>
+      <c r="AO93" s="174"/>
+      <c r="AP93" s="174"/>
+      <c r="AQ93" s="174"/>
+      <c r="AR93" s="150"/>
       <c r="AS93" s="40"/>
       <c r="AT93" s="40"/>
       <c r="AU93" s="40"/>
@@ -9882,7 +9899,9 @@
     <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="56"/>
+      <c r="C94" s="56" t="s">
+        <v>132</v>
+      </c>
       <c r="D94" s="54"/>
       <c r="E94" s="35"/>
       <c r="F94" s="35"/>
@@ -9920,15 +9939,15 @@
       <c r="AL94" s="38"/>
       <c r="AM94" s="38"/>
       <c r="AN94" s="38"/>
-      <c r="AO94" s="38"/>
-      <c r="AP94" s="38"/>
-      <c r="AQ94" s="38"/>
-      <c r="AR94" s="40"/>
-      <c r="AS94" s="40"/>
-      <c r="AT94" s="40"/>
-      <c r="AU94" s="40"/>
-      <c r="AV94" s="40"/>
-      <c r="AW94" s="38"/>
+      <c r="AO94" s="174"/>
+      <c r="AP94" s="174"/>
+      <c r="AQ94" s="174"/>
+      <c r="AR94" s="174"/>
+      <c r="AS94" s="174"/>
+      <c r="AT94" s="174"/>
+      <c r="AU94" s="174"/>
+      <c r="AV94" s="174"/>
+      <c r="AW94" s="58"/>
       <c r="AX94" s="38"/>
       <c r="AY94" s="38"/>
       <c r="AZ94" s="38"/>
@@ -11112,26 +11131,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -11148,6 +11147,26 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H12:H21 H23:H107">
@@ -11176,6 +11195,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -11404,12 +11429,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11420,6 +11439,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11438,23 +11474,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>

--- a/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18DDD13-0691-2B49-BCAC-92875E8746C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E837574-0313-4FE6-A77F-A6DD8AB66044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>work with Beesane to get Add to cart button functioning on retail page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stylize forms </t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,6 +910,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1090,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1501,17 +1510,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,14 +1554,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1545,23 +1567,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,23 +1890,23 @@
   </sheetPr>
   <dimension ref="A1:BZ107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB91" sqref="AB91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="78" width="3.5" customWidth="1"/>
+    <col min="9" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1980,40 +1986,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2062,7 +2068,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2142,43 +2148,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="162" t="s">
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2230,42 +2236,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="172" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="173">
-        <v>44846</v>
-      </c>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="161">
+        <v>44858</v>
+      </c>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2318,7 +2324,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>49</v>
@@ -2402,7 +2408,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>50</v>
@@ -2486,7 +2492,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2566,209 +2572,209 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="163" t="s">
+      <c r="H9" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="166"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="166"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="166"/>
-      <c r="AL9" s="166"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="166"/>
-      <c r="AP9" s="166"/>
-      <c r="AQ9" s="166"/>
-      <c r="AR9" s="166"/>
-      <c r="AS9" s="166"/>
-      <c r="AT9" s="166"/>
-      <c r="AU9" s="166"/>
-      <c r="AV9" s="166"/>
-      <c r="AW9" s="166"/>
-      <c r="AX9" s="166"/>
-      <c r="AY9" s="166"/>
-      <c r="AZ9" s="166"/>
-      <c r="BA9" s="166"/>
-      <c r="BB9" s="167"/>
-      <c r="BC9" s="166"/>
-      <c r="BD9" s="166"/>
-      <c r="BE9" s="166"/>
-      <c r="BF9" s="166"/>
-      <c r="BG9" s="166"/>
-      <c r="BH9" s="166"/>
-      <c r="BI9" s="166"/>
-      <c r="BJ9" s="166"/>
-      <c r="BK9" s="166"/>
-      <c r="BL9" s="166"/>
-      <c r="BM9" s="166"/>
-      <c r="BN9" s="166"/>
-      <c r="BO9" s="166"/>
-      <c r="BP9" s="166"/>
-      <c r="BQ9" s="166"/>
-      <c r="BR9" s="166"/>
-      <c r="BS9" s="166"/>
-      <c r="BT9" s="166"/>
-      <c r="BU9" s="166"/>
-      <c r="BV9" s="166"/>
-      <c r="BW9" s="166"/>
-      <c r="BX9" s="166"/>
-      <c r="BY9" s="166"/>
-      <c r="BZ9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
+      <c r="AX9" s="152"/>
+      <c r="AY9" s="152"/>
+      <c r="AZ9" s="152"/>
+      <c r="BA9" s="152"/>
+      <c r="BB9" s="151"/>
+      <c r="BC9" s="152"/>
+      <c r="BD9" s="152"/>
+      <c r="BE9" s="152"/>
+      <c r="BF9" s="152"/>
+      <c r="BG9" s="152"/>
+      <c r="BH9" s="152"/>
+      <c r="BI9" s="152"/>
+      <c r="BJ9" s="152"/>
+      <c r="BK9" s="152"/>
+      <c r="BL9" s="152"/>
+      <c r="BM9" s="152"/>
+      <c r="BN9" s="152"/>
+      <c r="BO9" s="152"/>
+      <c r="BP9" s="152"/>
+      <c r="BQ9" s="152"/>
+      <c r="BR9" s="152"/>
+      <c r="BS9" s="152"/>
+      <c r="BT9" s="152"/>
+      <c r="BU9" s="152"/>
+      <c r="BV9" s="152"/>
+      <c r="BW9" s="152"/>
+      <c r="BX9" s="152"/>
+      <c r="BY9" s="152"/>
+      <c r="BZ9" s="153"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="168" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="168" t="s">
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="168" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="169"/>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="168" t="s">
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="169"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="168" t="s">
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="AD10" s="169"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="168" t="s">
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="155"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="AI10" s="169"/>
-      <c r="AJ10" s="169"/>
-      <c r="AK10" s="169"/>
-      <c r="AL10" s="170"/>
-      <c r="AM10" s="168" t="s">
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="155"/>
+      <c r="AK10" s="155"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="AN10" s="169"/>
-      <c r="AO10" s="169"/>
-      <c r="AP10" s="169"/>
-      <c r="AQ10" s="170"/>
-      <c r="AR10" s="168" t="s">
+      <c r="AN10" s="155"/>
+      <c r="AO10" s="155"/>
+      <c r="AP10" s="155"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="AS10" s="169"/>
-      <c r="AT10" s="169"/>
-      <c r="AU10" s="169"/>
-      <c r="AV10" s="170"/>
-      <c r="AW10" s="168" t="s">
+      <c r="AS10" s="155"/>
+      <c r="AT10" s="155"/>
+      <c r="AU10" s="155"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="169"/>
-      <c r="AY10" s="169"/>
-      <c r="AZ10" s="169"/>
-      <c r="BA10" s="170"/>
-      <c r="BB10" s="168" t="s">
+      <c r="AX10" s="155"/>
+      <c r="AY10" s="155"/>
+      <c r="AZ10" s="155"/>
+      <c r="BA10" s="156"/>
+      <c r="BB10" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="169"/>
-      <c r="BD10" s="169"/>
-      <c r="BE10" s="169"/>
-      <c r="BF10" s="170"/>
-      <c r="BG10" s="168" t="s">
+      <c r="BC10" s="155"/>
+      <c r="BD10" s="155"/>
+      <c r="BE10" s="155"/>
+      <c r="BF10" s="156"/>
+      <c r="BG10" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="169"/>
-      <c r="BI10" s="169"/>
-      <c r="BJ10" s="169"/>
-      <c r="BK10" s="170"/>
-      <c r="BL10" s="168" t="s">
+      <c r="BH10" s="155"/>
+      <c r="BI10" s="155"/>
+      <c r="BJ10" s="155"/>
+      <c r="BK10" s="156"/>
+      <c r="BL10" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="169"/>
-      <c r="BN10" s="169"/>
-      <c r="BO10" s="169"/>
-      <c r="BP10" s="170"/>
-      <c r="BQ10" s="168" t="s">
+      <c r="BM10" s="155"/>
+      <c r="BN10" s="155"/>
+      <c r="BO10" s="155"/>
+      <c r="BP10" s="156"/>
+      <c r="BQ10" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="169"/>
-      <c r="BS10" s="169"/>
-      <c r="BT10" s="169"/>
-      <c r="BU10" s="170"/>
-      <c r="BV10" s="168" t="s">
+      <c r="BR10" s="155"/>
+      <c r="BS10" s="155"/>
+      <c r="BT10" s="155"/>
+      <c r="BU10" s="156"/>
+      <c r="BV10" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="169"/>
-      <c r="BX10" s="169"/>
-      <c r="BY10" s="169"/>
-      <c r="BZ10" s="170"/>
+      <c r="BW10" s="155"/>
+      <c r="BX10" s="155"/>
+      <c r="BY10" s="155"/>
+      <c r="BZ10" s="156"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
@@ -2992,7 +2998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
@@ -3036,11 +3042,11 @@
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
@@ -3087,7 +3093,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -3131,11 +3137,11 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
@@ -3182,7 +3188,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
@@ -3226,11 +3232,11 @@
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
@@ -3277,7 +3283,7 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
@@ -3321,11 +3327,11 @@
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
@@ -3372,7 +3378,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
@@ -3416,11 +3422,11 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
@@ -3467,7 +3473,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
@@ -3511,11 +3517,11 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
@@ -3562,7 +3568,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
@@ -3606,11 +3612,11 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
@@ -3657,7 +3663,7 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
@@ -3701,11 +3707,11 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
@@ -3752,7 +3758,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3781,11 +3787,11 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
@@ -3832,7 +3838,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3861,11 +3867,11 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="38"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
@@ -3912,7 +3918,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
@@ -3996,7 +4002,7 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
@@ -4086,7 +4092,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
@@ -4177,7 +4183,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
@@ -4268,7 +4274,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
         <v>18</v>
@@ -4358,7 +4364,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
@@ -4449,7 +4455,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
@@ -4540,7 +4546,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
@@ -4630,7 +4636,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
@@ -4721,7 +4727,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
@@ -4812,7 +4818,7 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
@@ -4902,7 +4908,7 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
@@ -4992,7 +4998,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -5074,7 +5080,7 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
@@ -5158,7 +5164,7 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="80" t="s">
@@ -5240,7 +5246,7 @@
       <c r="BY36" s="82"/>
       <c r="BZ36" s="82"/>
     </row>
-    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="134"/>
       <c r="B37" s="135"/>
       <c r="C37" s="136" t="s">
@@ -5322,7 +5328,7 @@
       <c r="BY37" s="138"/>
       <c r="BZ37" s="138"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="85"/>
       <c r="C38" s="120" t="s">
@@ -5404,7 +5410,7 @@
       <c r="BY38" s="88"/>
       <c r="BZ38" s="88"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="85"/>
       <c r="C39" s="120" t="s">
@@ -5442,9 +5448,9 @@
       <c r="AG39" s="88"/>
       <c r="AH39" s="88"/>
       <c r="AI39" s="88"/>
-      <c r="AJ39" s="148"/>
-      <c r="AK39" s="148"/>
-      <c r="AL39" s="148"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
       <c r="AM39" s="88"/>
       <c r="AN39" s="88"/>
       <c r="AO39" s="121"/>
@@ -5486,7 +5492,7 @@
       <c r="BY39" s="88"/>
       <c r="BZ39" s="88"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="85"/>
       <c r="C40" s="120" t="s">
@@ -5524,9 +5530,9 @@
       <c r="AG40" s="88"/>
       <c r="AH40" s="88"/>
       <c r="AI40" s="88"/>
-      <c r="AJ40" s="148"/>
-      <c r="AK40" s="148"/>
-      <c r="AL40" s="148"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
       <c r="AM40" s="88"/>
       <c r="AN40" s="88"/>
       <c r="AO40" s="121"/>
@@ -5568,7 +5574,7 @@
       <c r="BY40" s="88"/>
       <c r="BZ40" s="88"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="85"/>
       <c r="C41" s="120" t="s">
@@ -5606,9 +5612,9 @@
       <c r="AG41" s="88"/>
       <c r="AH41" s="88"/>
       <c r="AI41" s="88"/>
-      <c r="AJ41" s="148"/>
-      <c r="AK41" s="148"/>
-      <c r="AL41" s="148"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
       <c r="AM41" s="88"/>
       <c r="AN41" s="88"/>
       <c r="AO41" s="121"/>
@@ -5650,7 +5656,7 @@
       <c r="BY41" s="88"/>
       <c r="BZ41" s="88"/>
     </row>
-    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="85"/>
       <c r="C42" s="120" t="s">
@@ -5688,9 +5694,9 @@
       <c r="AG42" s="88"/>
       <c r="AH42" s="88"/>
       <c r="AI42" s="88"/>
-      <c r="AJ42" s="148"/>
-      <c r="AK42" s="148"/>
-      <c r="AL42" s="148"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="88"/>
       <c r="AM42" s="88"/>
       <c r="AN42" s="88"/>
       <c r="AO42" s="88"/>
@@ -5732,7 +5738,7 @@
       <c r="BY42" s="88"/>
       <c r="BZ42" s="88"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="85"/>
       <c r="C43" s="120"/>
@@ -5768,9 +5774,9 @@
       <c r="AG43" s="88"/>
       <c r="AH43" s="88"/>
       <c r="AI43" s="88"/>
-      <c r="AJ43" s="148"/>
-      <c r="AK43" s="148"/>
-      <c r="AL43" s="148"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
       <c r="AM43" s="88"/>
       <c r="AN43" s="88"/>
       <c r="AO43" s="88"/>
@@ -5812,7 +5818,7 @@
       <c r="BY43" s="88"/>
       <c r="BZ43" s="88"/>
     </row>
-    <row r="44" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="134"/>
       <c r="B44" s="142"/>
       <c r="C44" s="143" t="s">
@@ -5894,7 +5900,7 @@
       <c r="BY44" s="141"/>
       <c r="BZ44" s="141"/>
     </row>
-    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="85"/>
       <c r="C45" s="120" t="s">
@@ -5976,7 +5982,7 @@
       <c r="BY45" s="88"/>
       <c r="BZ45" s="88"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="85"/>
       <c r="C46" s="120" t="s">
@@ -6058,7 +6064,7 @@
       <c r="BY46" s="88"/>
       <c r="BZ46" s="88"/>
     </row>
-    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="85"/>
       <c r="C47" s="120" t="s">
@@ -6140,7 +6146,7 @@
       <c r="BY47" s="88"/>
       <c r="BZ47" s="88"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="85"/>
       <c r="C48" s="120" t="s">
@@ -6182,7 +6188,7 @@
       <c r="AK48" s="88"/>
       <c r="AL48" s="88"/>
       <c r="AM48" s="88"/>
-      <c r="AN48" s="148"/>
+      <c r="AN48" s="88"/>
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
       <c r="AQ48" s="121"/>
@@ -6222,7 +6228,7 @@
       <c r="BY48" s="88"/>
       <c r="BZ48" s="88"/>
     </row>
-    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="85"/>
       <c r="C49" s="86"/>
@@ -6302,7 +6308,7 @@
       <c r="BY49" s="88"/>
       <c r="BZ49" s="88"/>
     </row>
-    <row r="50" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="73"/>
       <c r="C50" s="76" t="s">
@@ -6384,7 +6390,7 @@
       <c r="BY50" s="67"/>
       <c r="BZ50" s="67"/>
     </row>
-    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="53"/>
       <c r="C51" s="56" t="s">
@@ -6466,7 +6472,7 @@
       <c r="BY51" s="38"/>
       <c r="BZ51" s="38"/>
     </row>
-    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="53"/>
       <c r="C52" s="56" t="s">
@@ -6548,7 +6554,7 @@
       <c r="BY52" s="38"/>
       <c r="BZ52" s="38"/>
     </row>
-    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="53"/>
       <c r="C53" s="56" t="s">
@@ -6630,7 +6636,7 @@
       <c r="BY53" s="38"/>
       <c r="BZ53" s="38"/>
     </row>
-    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="53"/>
       <c r="C54" s="56" t="s">
@@ -6712,7 +6718,7 @@
       <c r="BY54" s="38"/>
       <c r="BZ54" s="38"/>
     </row>
-    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
@@ -6794,7 +6800,7 @@
       <c r="BY55" s="38"/>
       <c r="BZ55" s="38"/>
     </row>
-    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
@@ -6876,7 +6882,7 @@
       <c r="BY56" s="38"/>
       <c r="BZ56" s="38"/>
     </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
@@ -6958,7 +6964,7 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
@@ -7040,7 +7046,7 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
@@ -7122,7 +7128,7 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
@@ -7204,7 +7210,7 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
@@ -7286,7 +7292,7 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
@@ -7368,7 +7374,7 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56"/>
@@ -7448,7 +7454,7 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="59"/>
       <c r="C64" s="60" t="s">
@@ -7530,7 +7536,7 @@
       <c r="BY64" s="67"/>
       <c r="BZ64" s="67"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
@@ -7612,7 +7618,7 @@
       <c r="BY65" s="38"/>
       <c r="BZ65" s="38"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
@@ -7694,7 +7700,7 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56" t="s">
@@ -7776,7 +7782,7 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56" t="s">
@@ -7858,7 +7864,7 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
@@ -7940,7 +7946,7 @@
       <c r="BY69" s="38"/>
       <c r="BZ69" s="38"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56" t="s">
@@ -8022,10 +8028,12 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
-      <c r="C71" s="56"/>
+      <c r="C71" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -8065,9 +8073,9 @@
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
-      <c r="AQ71" s="38"/>
-      <c r="AR71" s="40"/>
-      <c r="AS71" s="40"/>
+      <c r="AQ71" s="124"/>
+      <c r="AR71" s="173"/>
+      <c r="AS71" s="148"/>
       <c r="AT71" s="40"/>
       <c r="AU71" s="40"/>
       <c r="AV71" s="40"/>
@@ -8102,7 +8110,7 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="53"/>
       <c r="C72" s="56"/>
@@ -8182,7 +8190,7 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56"/>
@@ -8262,7 +8270,7 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="59"/>
       <c r="C74" s="60" t="s">
@@ -8344,7 +8352,7 @@
       <c r="BY74" s="67"/>
       <c r="BZ74" s="67"/>
     </row>
-    <row r="75" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="B75" s="92"/>
       <c r="C75" s="93" t="s">
@@ -8426,7 +8434,7 @@
       <c r="BY75" s="100"/>
       <c r="BZ75" s="100"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
@@ -8508,7 +8516,7 @@
       <c r="BY76" s="38"/>
       <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
       <c r="C77" s="56" t="s">
@@ -8544,11 +8552,11 @@
       <c r="AE77" s="38"/>
       <c r="AF77" s="38"/>
       <c r="AG77" s="38"/>
-      <c r="AH77" s="149"/>
-      <c r="AI77" s="149"/>
-      <c r="AJ77" s="149"/>
-      <c r="AK77" s="149"/>
-      <c r="AL77" s="149"/>
+      <c r="AH77" s="38"/>
+      <c r="AI77" s="38"/>
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="38"/>
+      <c r="AL77" s="38"/>
       <c r="AM77" s="38"/>
       <c r="AN77" s="38"/>
       <c r="AO77" s="38"/>
@@ -8590,7 +8598,7 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56" t="s">
@@ -8626,11 +8634,11 @@
       <c r="AE78" s="38"/>
       <c r="AF78" s="38"/>
       <c r="AG78" s="38"/>
-      <c r="AH78" s="149"/>
-      <c r="AI78" s="149"/>
-      <c r="AJ78" s="149"/>
-      <c r="AK78" s="149"/>
-      <c r="AL78" s="149"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="38"/>
+      <c r="AL78" s="38"/>
       <c r="AM78" s="38"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
@@ -8672,7 +8680,7 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" ht="16.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="53"/>
       <c r="C79" s="56" t="s">
@@ -8708,9 +8716,9 @@
       <c r="AE79" s="38"/>
       <c r="AF79" s="38"/>
       <c r="AG79" s="38"/>
-      <c r="AH79" s="149"/>
-      <c r="AI79" s="149"/>
-      <c r="AJ79" s="149"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="38"/>
       <c r="AK79" s="123"/>
       <c r="AL79" s="123"/>
       <c r="AM79" s="58"/>
@@ -8754,7 +8762,7 @@
       <c r="BY79" s="38"/>
       <c r="BZ79" s="38"/>
     </row>
-    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
       <c r="C80" s="56" t="s">
@@ -8790,9 +8798,9 @@
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="38"/>
-      <c r="AH80" s="149"/>
-      <c r="AI80" s="149"/>
-      <c r="AJ80" s="149"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="38"/>
       <c r="AK80" s="123"/>
       <c r="AL80" s="123"/>
       <c r="AM80" s="58"/>
@@ -8836,7 +8844,7 @@
       <c r="BY80" s="38"/>
       <c r="BZ80" s="38"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56" t="s">
@@ -8872,9 +8880,9 @@
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
       <c r="AG81" s="38"/>
-      <c r="AH81" s="149"/>
-      <c r="AI81" s="149"/>
-      <c r="AJ81" s="149"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="38"/>
+      <c r="AJ81" s="38"/>
       <c r="AK81" s="123"/>
       <c r="AL81" s="123"/>
       <c r="AM81" s="58"/>
@@ -8918,7 +8926,7 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="53"/>
       <c r="C82" s="56" t="s">
@@ -8954,17 +8962,17 @@
       <c r="AE82" s="38"/>
       <c r="AF82" s="38"/>
       <c r="AG82" s="38"/>
-      <c r="AH82" s="149"/>
-      <c r="AI82" s="149"/>
-      <c r="AJ82" s="149"/>
-      <c r="AK82" s="149"/>
-      <c r="AL82" s="149"/>
-      <c r="AM82" s="149"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="38"/>
+      <c r="AL82" s="38"/>
+      <c r="AM82" s="38"/>
       <c r="AN82" s="38"/>
       <c r="AO82" s="124"/>
       <c r="AP82" s="124"/>
       <c r="AQ82" s="124"/>
-      <c r="AR82" s="150"/>
+      <c r="AR82" s="148"/>
       <c r="AS82" s="40"/>
       <c r="AT82" s="40"/>
       <c r="AU82" s="40"/>
@@ -9000,7 +9008,7 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
       <c r="C83" s="56" t="s">
@@ -9036,17 +9044,17 @@
       <c r="AE83" s="38"/>
       <c r="AF83" s="38"/>
       <c r="AG83" s="38"/>
-      <c r="AH83" s="149"/>
-      <c r="AI83" s="149"/>
-      <c r="AJ83" s="149"/>
-      <c r="AK83" s="149"/>
-      <c r="AL83" s="149"/>
-      <c r="AM83" s="149"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
       <c r="AN83" s="38"/>
       <c r="AO83" s="124"/>
       <c r="AP83" s="124"/>
       <c r="AQ83" s="124"/>
-      <c r="AR83" s="150"/>
+      <c r="AR83" s="148"/>
       <c r="AS83" s="40"/>
       <c r="AT83" s="40"/>
       <c r="AU83" s="40"/>
@@ -9082,7 +9090,7 @@
       <c r="BY83" s="38"/>
       <c r="BZ83" s="38"/>
     </row>
-    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
       <c r="C84" s="56"/>
@@ -9116,12 +9124,12 @@
       <c r="AE84" s="38"/>
       <c r="AF84" s="38"/>
       <c r="AG84" s="38"/>
-      <c r="AH84" s="149"/>
-      <c r="AI84" s="149"/>
-      <c r="AJ84" s="149"/>
-      <c r="AK84" s="149"/>
-      <c r="AL84" s="149"/>
-      <c r="AM84" s="149"/>
+      <c r="AH84" s="38"/>
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="38"/>
+      <c r="AL84" s="38"/>
+      <c r="AM84" s="38"/>
       <c r="AN84" s="38"/>
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
@@ -9162,7 +9170,7 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
       <c r="C85" s="56"/>
@@ -9242,7 +9250,7 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="91"/>
       <c r="B86" s="92"/>
       <c r="C86" s="93" t="s">
@@ -9324,7 +9332,7 @@
       <c r="BY86" s="100"/>
       <c r="BZ86" s="100"/>
     </row>
-    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="53"/>
       <c r="C87" s="56" t="s">
@@ -9406,7 +9414,7 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
       <c r="C88" s="56" t="s">
@@ -9488,7 +9496,7 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
       <c r="C89" s="56"/>
@@ -9568,7 +9576,7 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="72"/>
       <c r="B90" s="59"/>
       <c r="C90" s="77" t="s">
@@ -9650,7 +9658,7 @@
       <c r="BY90" s="67"/>
       <c r="BZ90" s="67"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
@@ -9732,7 +9740,7 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
       <c r="C92" s="56" t="s">
@@ -9814,7 +9822,7 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56" t="s">
@@ -9857,10 +9865,10 @@
       <c r="AL93" s="38"/>
       <c r="AM93" s="38"/>
       <c r="AN93" s="38"/>
-      <c r="AO93" s="174"/>
-      <c r="AP93" s="174"/>
-      <c r="AQ93" s="174"/>
-      <c r="AR93" s="150"/>
+      <c r="AO93" s="150"/>
+      <c r="AP93" s="150"/>
+      <c r="AQ93" s="150"/>
+      <c r="AR93" s="148"/>
       <c r="AS93" s="40"/>
       <c r="AT93" s="40"/>
       <c r="AU93" s="40"/>
@@ -9896,7 +9904,7 @@
       <c r="BY93" s="38"/>
       <c r="BZ93" s="38"/>
     </row>
-    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="53"/>
       <c r="C94" s="56" t="s">
@@ -9939,14 +9947,14 @@
       <c r="AL94" s="38"/>
       <c r="AM94" s="38"/>
       <c r="AN94" s="38"/>
-      <c r="AO94" s="174"/>
-      <c r="AP94" s="174"/>
-      <c r="AQ94" s="174"/>
-      <c r="AR94" s="174"/>
-      <c r="AS94" s="174"/>
-      <c r="AT94" s="174"/>
-      <c r="AU94" s="174"/>
-      <c r="AV94" s="174"/>
+      <c r="AO94" s="150"/>
+      <c r="AP94" s="150"/>
+      <c r="AQ94" s="150"/>
+      <c r="AR94" s="150"/>
+      <c r="AS94" s="150"/>
+      <c r="AT94" s="150"/>
+      <c r="AU94" s="150"/>
+      <c r="AV94" s="150"/>
       <c r="AW94" s="58"/>
       <c r="AX94" s="38"/>
       <c r="AY94" s="38"/>
@@ -9978,7 +9986,7 @@
       <c r="BY94" s="38"/>
       <c r="BZ94" s="38"/>
     </row>
-    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="53"/>
       <c r="C95" s="56"/>
@@ -10058,7 +10066,7 @@
       <c r="BY95" s="38"/>
       <c r="BZ95" s="38"/>
     </row>
-    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
       <c r="C96" s="56"/>
@@ -10138,7 +10146,7 @@
       <c r="BY96" s="38"/>
       <c r="BZ96" s="38"/>
     </row>
-    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="53"/>
       <c r="C97" s="57"/>
@@ -10218,7 +10226,7 @@
       <c r="BY97" s="38"/>
       <c r="BZ97" s="38"/>
     </row>
-    <row r="98" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="26">
         <v>4</v>
       </c>
@@ -10301,7 +10309,7 @@
       <c r="BY98" s="29"/>
       <c r="BZ98" s="29"/>
     </row>
-    <row r="99" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33">
         <v>4.0999999999999996</v>
       </c>
@@ -10395,7 +10403,7 @@
       <c r="BY99" s="38"/>
       <c r="BZ99" s="38"/>
     </row>
-    <row r="100" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="33">
         <v>4.2</v>
       </c>
@@ -10488,7 +10496,7 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="33" t="s">
         <v>52</v>
       </c>
@@ -10582,7 +10590,7 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="33" t="s">
         <v>54</v>
       </c>
@@ -10676,7 +10684,7 @@
       <c r="BY102" s="38"/>
       <c r="BZ102" s="38"/>
     </row>
-    <row r="103" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
         <v>53</v>
       </c>
@@ -10770,7 +10778,7 @@
       <c r="BY103" s="38"/>
       <c r="BZ103" s="38"/>
     </row>
-    <row r="104" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="33" t="s">
         <v>67</v>
       </c>
@@ -10864,7 +10872,7 @@
       <c r="BY104" s="38"/>
       <c r="BZ104" s="38"/>
     </row>
-    <row r="105" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="33"/>
       <c r="C105" s="47" t="s">
         <v>70</v>
@@ -10956,7 +10964,7 @@
       <c r="BY105" s="38"/>
       <c r="BZ105" s="38"/>
     </row>
-    <row r="106" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
         <v>67</v>
       </c>
@@ -11050,7 +11058,7 @@
       <c r="BY106" s="38"/>
       <c r="BZ106" s="38"/>
     </row>
-    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="107"/>
       <c r="C107" s="108"/>
       <c r="D107" s="109"/>
@@ -11131,6 +11139,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -11147,26 +11175,6 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H12:H21 H23:H107">
@@ -11195,9 +11203,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11430,27 +11441,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11475,9 +11474,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E837574-0313-4FE6-A77F-A6DD8AB66044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC707C1-7DD2-47DC-B159-18DCB8FFC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>W5 10/6/2022</t>
-  </si>
-  <si>
-    <t>W7 10/17/2022</t>
   </si>
   <si>
     <t>W8 10/27/2022</t>
@@ -518,6 +515,27 @@
   </si>
   <si>
     <t xml:space="preserve">stylize forms </t>
+  </si>
+  <si>
+    <t>W7 10/24/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Class Method Functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin services </t>
+  </si>
+  <si>
+    <t>Upload Photos pack to XAMPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get photos to appear from DB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add User Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopping cart backend </t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1519,6 +1537,10 @@
     <xf numFmtId="0" fontId="39" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,7 +1589,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1888,10 +1910,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ107"/>
+  <dimension ref="A1:BZ112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1925,8 @@
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="78" width="3.44140625" customWidth="1"/>
+    <col min="9" max="33" width="3.44140625" hidden="1" customWidth="1"/>
+    <col min="34" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,38 +2011,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2148,43 +2171,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="168" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="169" t="s">
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="162"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2236,42 +2259,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="161">
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="163">
         <v>44858</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="162"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2574,205 +2597,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="162" t="s">
+      <c r="E9" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="170" t="s">
+      <c r="H9" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
-      <c r="AQ9" s="152"/>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="152"/>
-      <c r="AT9" s="152"/>
-      <c r="AU9" s="152"/>
-      <c r="AV9" s="152"/>
-      <c r="AW9" s="152"/>
-      <c r="AX9" s="152"/>
-      <c r="AY9" s="152"/>
-      <c r="AZ9" s="152"/>
-      <c r="BA9" s="152"/>
-      <c r="BB9" s="151"/>
-      <c r="BC9" s="152"/>
-      <c r="BD9" s="152"/>
-      <c r="BE9" s="152"/>
-      <c r="BF9" s="152"/>
-      <c r="BG9" s="152"/>
-      <c r="BH9" s="152"/>
-      <c r="BI9" s="152"/>
-      <c r="BJ9" s="152"/>
-      <c r="BK9" s="152"/>
-      <c r="BL9" s="152"/>
-      <c r="BM9" s="152"/>
-      <c r="BN9" s="152"/>
-      <c r="BO9" s="152"/>
-      <c r="BP9" s="152"/>
-      <c r="BQ9" s="152"/>
-      <c r="BR9" s="152"/>
-      <c r="BS9" s="152"/>
-      <c r="BT9" s="152"/>
-      <c r="BU9" s="152"/>
-      <c r="BV9" s="152"/>
-      <c r="BW9" s="152"/>
-      <c r="BX9" s="152"/>
-      <c r="BY9" s="152"/>
-      <c r="BZ9" s="153"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="154"/>
+      <c r="AO9" s="154"/>
+      <c r="AP9" s="154"/>
+      <c r="AQ9" s="154"/>
+      <c r="AR9" s="154"/>
+      <c r="AS9" s="154"/>
+      <c r="AT9" s="154"/>
+      <c r="AU9" s="154"/>
+      <c r="AV9" s="154"/>
+      <c r="AW9" s="154"/>
+      <c r="AX9" s="154"/>
+      <c r="AY9" s="154"/>
+      <c r="AZ9" s="154"/>
+      <c r="BA9" s="154"/>
+      <c r="BB9" s="153"/>
+      <c r="BC9" s="154"/>
+      <c r="BD9" s="154"/>
+      <c r="BE9" s="154"/>
+      <c r="BF9" s="154"/>
+      <c r="BG9" s="154"/>
+      <c r="BH9" s="154"/>
+      <c r="BI9" s="154"/>
+      <c r="BJ9" s="154"/>
+      <c r="BK9" s="154"/>
+      <c r="BL9" s="154"/>
+      <c r="BM9" s="154"/>
+      <c r="BN9" s="154"/>
+      <c r="BO9" s="154"/>
+      <c r="BP9" s="154"/>
+      <c r="BQ9" s="154"/>
+      <c r="BR9" s="154"/>
+      <c r="BS9" s="154"/>
+      <c r="BT9" s="154"/>
+      <c r="BU9" s="154"/>
+      <c r="BV9" s="154"/>
+      <c r="BW9" s="154"/>
+      <c r="BX9" s="154"/>
+      <c r="BY9" s="154"/>
+      <c r="BZ9" s="155"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="154" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="154" t="s">
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="154" t="s">
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="154" t="s">
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="154" t="s">
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="154" t="s">
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="156"/>
-      <c r="AM10" s="154" t="s">
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN10" s="157"/>
+      <c r="AO10" s="157"/>
+      <c r="AP10" s="157"/>
+      <c r="AQ10" s="158"/>
+      <c r="AR10" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="AN10" s="155"/>
-      <c r="AO10" s="155"/>
-      <c r="AP10" s="155"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="154" t="s">
+      <c r="AS10" s="157"/>
+      <c r="AT10" s="157"/>
+      <c r="AU10" s="157"/>
+      <c r="AV10" s="158"/>
+      <c r="AW10" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="AS10" s="155"/>
-      <c r="AT10" s="155"/>
-      <c r="AU10" s="155"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX10" s="155"/>
-      <c r="AY10" s="155"/>
-      <c r="AZ10" s="155"/>
-      <c r="BA10" s="156"/>
-      <c r="BB10" s="154" t="s">
+      <c r="AX10" s="157"/>
+      <c r="AY10" s="157"/>
+      <c r="AZ10" s="157"/>
+      <c r="BA10" s="158"/>
+      <c r="BB10" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="155"/>
-      <c r="BD10" s="155"/>
-      <c r="BE10" s="155"/>
-      <c r="BF10" s="156"/>
-      <c r="BG10" s="154" t="s">
+      <c r="BC10" s="157"/>
+      <c r="BD10" s="157"/>
+      <c r="BE10" s="157"/>
+      <c r="BF10" s="158"/>
+      <c r="BG10" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="155"/>
-      <c r="BI10" s="155"/>
-      <c r="BJ10" s="155"/>
-      <c r="BK10" s="156"/>
-      <c r="BL10" s="154" t="s">
+      <c r="BH10" s="157"/>
+      <c r="BI10" s="157"/>
+      <c r="BJ10" s="157"/>
+      <c r="BK10" s="158"/>
+      <c r="BL10" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="BM10" s="155"/>
-      <c r="BN10" s="155"/>
-      <c r="BO10" s="155"/>
-      <c r="BP10" s="156"/>
-      <c r="BQ10" s="154" t="s">
+      <c r="BM10" s="157"/>
+      <c r="BN10" s="157"/>
+      <c r="BO10" s="157"/>
+      <c r="BP10" s="158"/>
+      <c r="BQ10" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="BR10" s="155"/>
-      <c r="BS10" s="155"/>
-      <c r="BT10" s="155"/>
-      <c r="BU10" s="156"/>
-      <c r="BV10" s="154" t="s">
+      <c r="BR10" s="157"/>
+      <c r="BS10" s="157"/>
+      <c r="BT10" s="157"/>
+      <c r="BU10" s="158"/>
+      <c r="BV10" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="BW10" s="155"/>
-      <c r="BX10" s="155"/>
-      <c r="BY10" s="155"/>
-      <c r="BZ10" s="156"/>
+      <c r="BW10" s="157"/>
+      <c r="BX10" s="157"/>
+      <c r="BY10" s="157"/>
+      <c r="BZ10" s="158"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -5250,7 +5273,7 @@
       <c r="A37" s="134"/>
       <c r="B37" s="135"/>
       <c r="C37" s="136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="137"/>
       <c r="E37" s="137"/>
@@ -5414,7 +5437,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="85"/>
       <c r="C39" s="120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -5496,7 +5519,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="85"/>
       <c r="C40" s="120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
@@ -5578,7 +5601,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="85"/>
       <c r="C41" s="120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
@@ -5660,7 +5683,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="85"/>
       <c r="C42" s="120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -5818,175 +5841,173 @@
       <c r="BY43" s="88"/>
       <c r="BZ43" s="88"/>
     </row>
-    <row r="44" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="143" t="s">
+    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
+      <c r="AO44" s="88"/>
+      <c r="AP44" s="88"/>
+      <c r="AQ44" s="88"/>
+      <c r="AR44" s="88"/>
+      <c r="AS44" s="88"/>
+      <c r="AT44" s="88"/>
+      <c r="AU44" s="88"/>
+      <c r="AV44" s="88"/>
+      <c r="AW44" s="88"/>
+      <c r="AX44" s="88"/>
+      <c r="AY44" s="88"/>
+      <c r="AZ44" s="88"/>
+      <c r="BA44" s="88"/>
+      <c r="BB44" s="88"/>
+      <c r="BC44" s="88"/>
+      <c r="BD44" s="88"/>
+      <c r="BE44" s="88"/>
+      <c r="BF44" s="88"/>
+      <c r="BG44" s="88"/>
+      <c r="BH44" s="88"/>
+      <c r="BI44" s="88"/>
+      <c r="BJ44" s="88"/>
+      <c r="BK44" s="88"/>
+      <c r="BL44" s="88"/>
+      <c r="BM44" s="88"/>
+      <c r="BN44" s="88"/>
+      <c r="BO44" s="88"/>
+      <c r="BP44" s="88"/>
+      <c r="BQ44" s="88"/>
+      <c r="BR44" s="88"/>
+      <c r="BS44" s="88"/>
+      <c r="BT44" s="88"/>
+      <c r="BU44" s="88"/>
+      <c r="BV44" s="88"/>
+      <c r="BW44" s="88"/>
+      <c r="BX44" s="88"/>
+      <c r="BY44" s="88"/>
+      <c r="BZ44" s="88"/>
+    </row>
+    <row r="45" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="134"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="141"/>
-      <c r="N44" s="141"/>
-      <c r="O44" s="141"/>
-      <c r="P44" s="141"/>
-      <c r="Q44" s="141"/>
-      <c r="R44" s="141"/>
-      <c r="S44" s="141"/>
-      <c r="T44" s="141"/>
-      <c r="U44" s="141"/>
-      <c r="V44" s="141"/>
-      <c r="W44" s="141"/>
-      <c r="X44" s="141"/>
-      <c r="Y44" s="141"/>
-      <c r="Z44" s="141"/>
-      <c r="AA44" s="141"/>
-      <c r="AB44" s="141"/>
-      <c r="AC44" s="141"/>
-      <c r="AD44" s="141"/>
-      <c r="AE44" s="141"/>
-      <c r="AF44" s="141"/>
-      <c r="AG44" s="141"/>
-      <c r="AH44" s="141"/>
-      <c r="AI44" s="141"/>
-      <c r="AJ44" s="141"/>
-      <c r="AK44" s="141"/>
-      <c r="AL44" s="141"/>
-      <c r="AM44" s="141"/>
-      <c r="AN44" s="141"/>
-      <c r="AO44" s="141"/>
-      <c r="AP44" s="141"/>
-      <c r="AQ44" s="141"/>
-      <c r="AR44" s="141"/>
-      <c r="AS44" s="141"/>
-      <c r="AT44" s="141"/>
-      <c r="AU44" s="141"/>
-      <c r="AV44" s="141"/>
-      <c r="AW44" s="141"/>
-      <c r="AX44" s="141"/>
-      <c r="AY44" s="141"/>
-      <c r="AZ44" s="141"/>
-      <c r="BA44" s="141"/>
-      <c r="BB44" s="141"/>
-      <c r="BC44" s="141"/>
-      <c r="BD44" s="141"/>
-      <c r="BE44" s="141"/>
-      <c r="BF44" s="141"/>
-      <c r="BG44" s="141"/>
-      <c r="BH44" s="141"/>
-      <c r="BI44" s="141"/>
-      <c r="BJ44" s="141"/>
-      <c r="BK44" s="141"/>
-      <c r="BL44" s="141"/>
-      <c r="BM44" s="141"/>
-      <c r="BN44" s="141"/>
-      <c r="BO44" s="141"/>
-      <c r="BP44" s="141"/>
-      <c r="BQ44" s="141"/>
-      <c r="BR44" s="141"/>
-      <c r="BS44" s="141"/>
-      <c r="BT44" s="141"/>
-      <c r="BU44" s="141"/>
-      <c r="BV44" s="141"/>
-      <c r="BW44" s="141"/>
-      <c r="BX44" s="141"/>
-      <c r="BY44" s="141"/>
-      <c r="BZ44" s="141"/>
-    </row>
-    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="121"/>
-      <c r="AK45" s="121"/>
-      <c r="AL45" s="122"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
-      <c r="AO45" s="88"/>
-      <c r="AP45" s="88"/>
-      <c r="AQ45" s="88"/>
-      <c r="AR45" s="88"/>
-      <c r="AS45" s="88"/>
-      <c r="AT45" s="88"/>
-      <c r="AU45" s="88"/>
-      <c r="AV45" s="88"/>
-      <c r="AW45" s="88"/>
-      <c r="AX45" s="88"/>
-      <c r="AY45" s="88"/>
-      <c r="AZ45" s="88"/>
-      <c r="BA45" s="88"/>
-      <c r="BB45" s="88"/>
-      <c r="BC45" s="88"/>
-      <c r="BD45" s="88"/>
-      <c r="BE45" s="88"/>
-      <c r="BF45" s="88"/>
-      <c r="BG45" s="88"/>
-      <c r="BH45" s="88"/>
-      <c r="BI45" s="88"/>
-      <c r="BJ45" s="88"/>
-      <c r="BK45" s="88"/>
-      <c r="BL45" s="88"/>
-      <c r="BM45" s="88"/>
-      <c r="BN45" s="88"/>
-      <c r="BO45" s="88"/>
-      <c r="BP45" s="88"/>
-      <c r="BQ45" s="88"/>
-      <c r="BR45" s="88"/>
-      <c r="BS45" s="88"/>
-      <c r="BT45" s="88"/>
-      <c r="BU45" s="88"/>
-      <c r="BV45" s="88"/>
-      <c r="BW45" s="88"/>
-      <c r="BX45" s="88"/>
-      <c r="BY45" s="88"/>
-      <c r="BZ45" s="88"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
+      <c r="U45" s="141"/>
+      <c r="V45" s="141"/>
+      <c r="W45" s="141"/>
+      <c r="X45" s="141"/>
+      <c r="Y45" s="141"/>
+      <c r="Z45" s="141"/>
+      <c r="AA45" s="141"/>
+      <c r="AB45" s="141"/>
+      <c r="AC45" s="141"/>
+      <c r="AD45" s="141"/>
+      <c r="AE45" s="141"/>
+      <c r="AF45" s="141"/>
+      <c r="AG45" s="141"/>
+      <c r="AH45" s="141"/>
+      <c r="AI45" s="141"/>
+      <c r="AJ45" s="141"/>
+      <c r="AK45" s="141"/>
+      <c r="AL45" s="141"/>
+      <c r="AM45" s="141"/>
+      <c r="AN45" s="141"/>
+      <c r="AO45" s="141"/>
+      <c r="AP45" s="141"/>
+      <c r="AQ45" s="141"/>
+      <c r="AR45" s="141"/>
+      <c r="AS45" s="141"/>
+      <c r="AT45" s="141"/>
+      <c r="AU45" s="141"/>
+      <c r="AV45" s="141"/>
+      <c r="AW45" s="141"/>
+      <c r="AX45" s="141"/>
+      <c r="AY45" s="141"/>
+      <c r="AZ45" s="141"/>
+      <c r="BA45" s="141"/>
+      <c r="BB45" s="141"/>
+      <c r="BC45" s="141"/>
+      <c r="BD45" s="141"/>
+      <c r="BE45" s="141"/>
+      <c r="BF45" s="141"/>
+      <c r="BG45" s="141"/>
+      <c r="BH45" s="141"/>
+      <c r="BI45" s="141"/>
+      <c r="BJ45" s="141"/>
+      <c r="BK45" s="141"/>
+      <c r="BL45" s="141"/>
+      <c r="BM45" s="141"/>
+      <c r="BN45" s="141"/>
+      <c r="BO45" s="141"/>
+      <c r="BP45" s="141"/>
+      <c r="BQ45" s="141"/>
+      <c r="BR45" s="141"/>
+      <c r="BS45" s="141"/>
+      <c r="BT45" s="141"/>
+      <c r="BU45" s="141"/>
+      <c r="BV45" s="141"/>
+      <c r="BW45" s="141"/>
+      <c r="BX45" s="141"/>
+      <c r="BY45" s="141"/>
+      <c r="BZ45" s="141"/>
     </row>
     <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="85"/>
       <c r="C46" s="120" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -6020,15 +6041,15 @@
       <c r="AG46" s="88"/>
       <c r="AH46" s="88"/>
       <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="88"/>
+      <c r="AJ46" s="121"/>
+      <c r="AK46" s="121"/>
+      <c r="AL46" s="122"/>
       <c r="AM46" s="88"/>
       <c r="AN46" s="88"/>
-      <c r="AO46" s="121"/>
-      <c r="AP46" s="121"/>
-      <c r="AQ46" s="121"/>
-      <c r="AR46" s="122"/>
+      <c r="AO46" s="88"/>
+      <c r="AP46" s="88"/>
+      <c r="AQ46" s="88"/>
+      <c r="AR46" s="88"/>
       <c r="AS46" s="88"/>
       <c r="AT46" s="88"/>
       <c r="AU46" s="88"/>
@@ -6068,7 +6089,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="85"/>
       <c r="C47" s="120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -6109,8 +6130,8 @@
       <c r="AN47" s="88"/>
       <c r="AO47" s="121"/>
       <c r="AP47" s="121"/>
-      <c r="AQ47" s="122"/>
-      <c r="AR47" s="88"/>
+      <c r="AQ47" s="121"/>
+      <c r="AR47" s="122"/>
       <c r="AS47" s="88"/>
       <c r="AT47" s="88"/>
       <c r="AU47" s="88"/>
@@ -6150,7 +6171,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="85"/>
       <c r="C48" s="120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -6191,12 +6212,12 @@
       <c r="AN48" s="88"/>
       <c r="AO48" s="121"/>
       <c r="AP48" s="121"/>
-      <c r="AQ48" s="121"/>
-      <c r="AR48" s="121"/>
-      <c r="AS48" s="121"/>
-      <c r="AT48" s="122"/>
-      <c r="AU48" s="122"/>
-      <c r="AV48" s="122"/>
+      <c r="AQ48" s="122"/>
+      <c r="AR48" s="88"/>
+      <c r="AS48" s="88"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
+      <c r="AV48" s="88"/>
       <c r="AW48" s="88"/>
       <c r="AX48" s="88"/>
       <c r="AY48" s="88"/>
@@ -6231,7 +6252,9 @@
     <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
+      <c r="C49" s="120" t="s">
+        <v>122</v>
+      </c>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
       <c r="F49" s="87"/>
@@ -6269,14 +6292,14 @@
       <c r="AL49" s="88"/>
       <c r="AM49" s="88"/>
       <c r="AN49" s="88"/>
-      <c r="AO49" s="88"/>
-      <c r="AP49" s="88"/>
-      <c r="AQ49" s="88"/>
-      <c r="AR49" s="88"/>
-      <c r="AS49" s="88"/>
-      <c r="AT49" s="88"/>
-      <c r="AU49" s="88"/>
-      <c r="AV49" s="88"/>
+      <c r="AO49" s="121"/>
+      <c r="AP49" s="121"/>
+      <c r="AQ49" s="121"/>
+      <c r="AR49" s="121"/>
+      <c r="AS49" s="121"/>
+      <c r="AT49" s="122"/>
+      <c r="AU49" s="122"/>
+      <c r="AV49" s="122"/>
       <c r="AW49" s="88"/>
       <c r="AX49" s="88"/>
       <c r="AY49" s="88"/>
@@ -6308,257 +6331,253 @@
       <c r="BY49" s="88"/>
       <c r="BZ49" s="88"/>
     </row>
-    <row r="50" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="76" t="s">
+    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
+      <c r="AO50" s="88"/>
+      <c r="AP50" s="88"/>
+      <c r="AQ50" s="88"/>
+      <c r="AR50" s="88"/>
+      <c r="AS50" s="88"/>
+      <c r="AT50" s="88"/>
+      <c r="AU50" s="88"/>
+      <c r="AV50" s="88"/>
+      <c r="AW50" s="88"/>
+      <c r="AX50" s="88"/>
+      <c r="AY50" s="88"/>
+      <c r="AZ50" s="88"/>
+      <c r="BA50" s="88"/>
+      <c r="BB50" s="88"/>
+      <c r="BC50" s="88"/>
+      <c r="BD50" s="88"/>
+      <c r="BE50" s="88"/>
+      <c r="BF50" s="88"/>
+      <c r="BG50" s="88"/>
+      <c r="BH50" s="88"/>
+      <c r="BI50" s="88"/>
+      <c r="BJ50" s="88"/>
+      <c r="BK50" s="88"/>
+      <c r="BL50" s="88"/>
+      <c r="BM50" s="88"/>
+      <c r="BN50" s="88"/>
+      <c r="BO50" s="88"/>
+      <c r="BP50" s="88"/>
+      <c r="BQ50" s="88"/>
+      <c r="BR50" s="88"/>
+      <c r="BS50" s="88"/>
+      <c r="BT50" s="88"/>
+      <c r="BU50" s="88"/>
+      <c r="BV50" s="88"/>
+      <c r="BW50" s="88"/>
+      <c r="BX50" s="88"/>
+      <c r="BY50" s="88"/>
+      <c r="BZ50" s="88"/>
+    </row>
+    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="88"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="88"/>
+      <c r="AR51" s="88"/>
+      <c r="AS51" s="88"/>
+      <c r="AT51" s="88"/>
+      <c r="AU51" s="88"/>
+      <c r="AV51" s="88"/>
+      <c r="AW51" s="88"/>
+      <c r="AX51" s="88"/>
+      <c r="AY51" s="88"/>
+      <c r="AZ51" s="88"/>
+      <c r="BA51" s="88"/>
+      <c r="BB51" s="88"/>
+      <c r="BC51" s="88"/>
+      <c r="BD51" s="88"/>
+      <c r="BE51" s="88"/>
+      <c r="BF51" s="88"/>
+      <c r="BG51" s="88"/>
+      <c r="BH51" s="88"/>
+      <c r="BI51" s="88"/>
+      <c r="BJ51" s="88"/>
+      <c r="BK51" s="88"/>
+      <c r="BL51" s="88"/>
+      <c r="BM51" s="88"/>
+      <c r="BN51" s="88"/>
+      <c r="BO51" s="88"/>
+      <c r="BP51" s="88"/>
+      <c r="BQ51" s="88"/>
+      <c r="BR51" s="88"/>
+      <c r="BS51" s="88"/>
+      <c r="BT51" s="88"/>
+      <c r="BU51" s="88"/>
+      <c r="BV51" s="88"/>
+      <c r="BW51" s="88"/>
+      <c r="BX51" s="88"/>
+      <c r="BY51" s="88"/>
+      <c r="BZ51" s="88"/>
+    </row>
+    <row r="52" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="74"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="69"/>
-      <c r="AD50" s="69"/>
-      <c r="AE50" s="69"/>
-      <c r="AF50" s="69"/>
-      <c r="AG50" s="69"/>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="67"/>
-      <c r="AR50" s="70"/>
-      <c r="AS50" s="70"/>
-      <c r="AT50" s="70"/>
-      <c r="AU50" s="70"/>
-      <c r="AV50" s="70"/>
-      <c r="AW50" s="67"/>
-      <c r="AX50" s="67"/>
-      <c r="AY50" s="67"/>
-      <c r="AZ50" s="67"/>
-      <c r="BA50" s="67"/>
-      <c r="BB50" s="67"/>
-      <c r="BC50" s="67"/>
-      <c r="BD50" s="67"/>
-      <c r="BE50" s="67"/>
-      <c r="BF50" s="67"/>
-      <c r="BG50" s="71"/>
-      <c r="BH50" s="71"/>
-      <c r="BI50" s="71"/>
-      <c r="BJ50" s="71"/>
-      <c r="BK50" s="71"/>
-      <c r="BL50" s="67"/>
-      <c r="BM50" s="67"/>
-      <c r="BN50" s="67"/>
-      <c r="BO50" s="67"/>
-      <c r="BP50" s="67"/>
-      <c r="BQ50" s="67"/>
-      <c r="BR50" s="67"/>
-      <c r="BS50" s="67"/>
-      <c r="BT50" s="67"/>
-      <c r="BU50" s="67"/>
-      <c r="BV50" s="67"/>
-      <c r="BW50" s="67"/>
-      <c r="BX50" s="67"/>
-      <c r="BY50" s="67"/>
-      <c r="BZ50" s="67"/>
-    </row>
-    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
-      <c r="U51" s="129"/>
-      <c r="V51" s="129"/>
-      <c r="W51" s="129"/>
-      <c r="X51" s="129"/>
-      <c r="Y51" s="129"/>
-      <c r="Z51" s="129"/>
-      <c r="AA51" s="129"/>
-      <c r="AB51" s="129"/>
-      <c r="AC51" s="129"/>
-      <c r="AD51" s="129"/>
-      <c r="AE51" s="129"/>
-      <c r="AF51" s="129"/>
-      <c r="AG51" s="129"/>
-      <c r="AH51" s="38"/>
-      <c r="AI51" s="38"/>
-      <c r="AJ51" s="124"/>
-      <c r="AK51" s="124"/>
-      <c r="AL51" s="124"/>
-      <c r="AM51" s="58"/>
-      <c r="AN51" s="38"/>
-      <c r="AO51" s="38"/>
-      <c r="AP51" s="38"/>
-      <c r="AQ51" s="38"/>
-      <c r="AR51" s="40"/>
-      <c r="AS51" s="40"/>
-      <c r="AT51" s="40"/>
-      <c r="AU51" s="40"/>
-      <c r="AV51" s="40"/>
-      <c r="AW51" s="38"/>
-      <c r="AX51" s="38"/>
-      <c r="AY51" s="38"/>
-      <c r="AZ51" s="38"/>
-      <c r="BA51" s="38"/>
-      <c r="BB51" s="38"/>
-      <c r="BC51" s="38"/>
-      <c r="BD51" s="38"/>
-      <c r="BE51" s="38"/>
-      <c r="BF51" s="38"/>
-      <c r="BG51" s="41"/>
-      <c r="BH51" s="41"/>
-      <c r="BI51" s="41"/>
-      <c r="BJ51" s="41"/>
-      <c r="BK51" s="41"/>
-      <c r="BL51" s="38"/>
-      <c r="BM51" s="38"/>
-      <c r="BN51" s="38"/>
-      <c r="BO51" s="38"/>
-      <c r="BP51" s="38"/>
-      <c r="BQ51" s="38"/>
-      <c r="BR51" s="38"/>
-      <c r="BS51" s="38"/>
-      <c r="BT51" s="38"/>
-      <c r="BU51" s="38"/>
-      <c r="BV51" s="38"/>
-      <c r="BW51" s="38"/>
-      <c r="BX51" s="38"/>
-      <c r="BY51" s="38"/>
-      <c r="BZ51" s="38"/>
-    </row>
-    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
-      <c r="U52" s="129"/>
-      <c r="V52" s="129"/>
-      <c r="W52" s="129"/>
-      <c r="X52" s="129"/>
-      <c r="Y52" s="129"/>
-      <c r="Z52" s="129"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="129"/>
-      <c r="AC52" s="129"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="129"/>
-      <c r="AF52" s="129"/>
-      <c r="AG52" s="129"/>
-      <c r="AH52" s="38"/>
-      <c r="AI52" s="38"/>
-      <c r="AJ52" s="124"/>
-      <c r="AK52" s="124"/>
-      <c r="AL52" s="124"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="38"/>
-      <c r="AO52" s="38"/>
-      <c r="AP52" s="38"/>
-      <c r="AQ52" s="38"/>
-      <c r="AR52" s="40"/>
-      <c r="AS52" s="40"/>
-      <c r="AT52" s="40"/>
-      <c r="AU52" s="40"/>
-      <c r="AV52" s="40"/>
-      <c r="AW52" s="38"/>
-      <c r="AX52" s="38"/>
-      <c r="AY52" s="38"/>
-      <c r="AZ52" s="38"/>
-      <c r="BA52" s="38"/>
-      <c r="BB52" s="38"/>
-      <c r="BC52" s="38"/>
-      <c r="BD52" s="38"/>
-      <c r="BE52" s="38"/>
-      <c r="BF52" s="38"/>
-      <c r="BG52" s="41"/>
-      <c r="BH52" s="41"/>
-      <c r="BI52" s="41"/>
-      <c r="BJ52" s="41"/>
-      <c r="BK52" s="41"/>
-      <c r="BL52" s="38"/>
-      <c r="BM52" s="38"/>
-      <c r="BN52" s="38"/>
-      <c r="BO52" s="38"/>
-      <c r="BP52" s="38"/>
-      <c r="BQ52" s="38"/>
-      <c r="BR52" s="38"/>
-      <c r="BS52" s="38"/>
-      <c r="BT52" s="38"/>
-      <c r="BU52" s="38"/>
-      <c r="BV52" s="38"/>
-      <c r="BW52" s="38"/>
-      <c r="BX52" s="38"/>
-      <c r="BY52" s="38"/>
-      <c r="BZ52" s="38"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
+      <c r="Y52" s="67"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="69"/>
+      <c r="AF52" s="69"/>
+      <c r="AG52" s="69"/>
+      <c r="AH52" s="67"/>
+      <c r="AI52" s="67"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="67"/>
+      <c r="AN52" s="67"/>
+      <c r="AO52" s="67"/>
+      <c r="AP52" s="67"/>
+      <c r="AQ52" s="67"/>
+      <c r="AR52" s="70"/>
+      <c r="AS52" s="70"/>
+      <c r="AT52" s="70"/>
+      <c r="AU52" s="70"/>
+      <c r="AV52" s="70"/>
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="67"/>
+      <c r="AY52" s="67"/>
+      <c r="AZ52" s="67"/>
+      <c r="BA52" s="67"/>
+      <c r="BB52" s="67"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="67"/>
+      <c r="BE52" s="67"/>
+      <c r="BF52" s="67"/>
+      <c r="BG52" s="71"/>
+      <c r="BH52" s="71"/>
+      <c r="BI52" s="71"/>
+      <c r="BJ52" s="71"/>
+      <c r="BK52" s="71"/>
+      <c r="BL52" s="67"/>
+      <c r="BM52" s="67"/>
+      <c r="BN52" s="67"/>
+      <c r="BO52" s="67"/>
+      <c r="BP52" s="67"/>
+      <c r="BQ52" s="67"/>
+      <c r="BR52" s="67"/>
+      <c r="BS52" s="67"/>
+      <c r="BT52" s="67"/>
+      <c r="BU52" s="67"/>
+      <c r="BV52" s="67"/>
+      <c r="BW52" s="67"/>
+      <c r="BX52" s="67"/>
+      <c r="BY52" s="67"/>
+      <c r="BZ52" s="67"/>
     </row>
     <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="53"/>
       <c r="C53" s="56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" s="54"/>
       <c r="E53" s="35"/>
@@ -6596,7 +6615,7 @@
       <c r="AK53" s="124"/>
       <c r="AL53" s="124"/>
       <c r="AM53" s="58"/>
-      <c r="AN53" s="131"/>
+      <c r="AN53" s="38"/>
       <c r="AO53" s="38"/>
       <c r="AP53" s="38"/>
       <c r="AQ53" s="38"/>
@@ -6640,7 +6659,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="53"/>
       <c r="C54" s="56" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D54" s="54"/>
       <c r="E54" s="35"/>
@@ -6674,11 +6693,11 @@
       <c r="AG54" s="129"/>
       <c r="AH54" s="38"/>
       <c r="AI54" s="38"/>
-      <c r="AJ54" s="38"/>
-      <c r="AK54" s="38"/>
-      <c r="AL54" s="38"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="130"/>
+      <c r="AJ54" s="124"/>
+      <c r="AK54" s="124"/>
+      <c r="AL54" s="124"/>
+      <c r="AM54" s="58"/>
+      <c r="AN54" s="38"/>
       <c r="AO54" s="38"/>
       <c r="AP54" s="38"/>
       <c r="AQ54" s="38"/>
@@ -6722,7 +6741,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D55" s="54"/>
       <c r="E55" s="35"/>
@@ -6756,11 +6775,11 @@
       <c r="AG55" s="129"/>
       <c r="AH55" s="38"/>
       <c r="AI55" s="38"/>
-      <c r="AJ55" s="38"/>
-      <c r="AK55" s="38"/>
-      <c r="AL55" s="38"/>
-      <c r="AM55" s="38"/>
-      <c r="AN55" s="38"/>
+      <c r="AJ55" s="124"/>
+      <c r="AK55" s="124"/>
+      <c r="AL55" s="124"/>
+      <c r="AM55" s="58"/>
+      <c r="AN55" s="131"/>
       <c r="AO55" s="38"/>
       <c r="AP55" s="38"/>
       <c r="AQ55" s="38"/>
@@ -6804,7 +6823,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="35"/>
@@ -6842,7 +6861,7 @@
       <c r="AK56" s="38"/>
       <c r="AL56" s="38"/>
       <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
+      <c r="AN56" s="130"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="38"/>
       <c r="AQ56" s="38"/>
@@ -6886,7 +6905,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
@@ -6968,49 +6987,49 @@
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="36"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="38"/>
-      <c r="AB58" s="38"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="129"/>
+      <c r="T58" s="129"/>
+      <c r="U58" s="129"/>
+      <c r="V58" s="129"/>
+      <c r="W58" s="129"/>
+      <c r="X58" s="129"/>
+      <c r="Y58" s="129"/>
+      <c r="Z58" s="129"/>
+      <c r="AA58" s="129"/>
+      <c r="AB58" s="129"/>
+      <c r="AC58" s="129"/>
+      <c r="AD58" s="129"/>
+      <c r="AE58" s="129"/>
+      <c r="AF58" s="129"/>
+      <c r="AG58" s="129"/>
       <c r="AH58" s="38"/>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
       <c r="AK58" s="38"/>
       <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
-      <c r="AN58" s="38"/>
-      <c r="AO58" s="38"/>
-      <c r="AP58" s="38"/>
-      <c r="AQ58" s="38"/>
-      <c r="AR58" s="40"/>
+      <c r="AM58" s="152"/>
+      <c r="AN58" s="124"/>
+      <c r="AO58" s="124"/>
+      <c r="AP58" s="124"/>
+      <c r="AQ58" s="124"/>
+      <c r="AR58" s="148"/>
       <c r="AS58" s="40"/>
       <c r="AT58" s="40"/>
       <c r="AU58" s="40"/>
@@ -7050,38 +7069,38 @@
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D59" s="54"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="36"/>
       <c r="H59" s="37"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="129"/>
+      <c r="U59" s="129"/>
+      <c r="V59" s="129"/>
+      <c r="W59" s="129"/>
+      <c r="X59" s="129"/>
+      <c r="Y59" s="129"/>
+      <c r="Z59" s="129"/>
+      <c r="AA59" s="129"/>
+      <c r="AB59" s="129"/>
+      <c r="AC59" s="129"/>
+      <c r="AD59" s="129"/>
+      <c r="AE59" s="129"/>
+      <c r="AF59" s="129"/>
+      <c r="AG59" s="129"/>
       <c r="AH59" s="38"/>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
@@ -7132,7 +7151,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D60" s="54"/>
       <c r="E60" s="35"/>
@@ -7214,7 +7233,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="35"/>
@@ -7296,7 +7315,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" s="54"/>
       <c r="E62" s="35"/>
@@ -7377,7 +7396,9 @@
     <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
-      <c r="C63" s="56"/>
+      <c r="C63" s="56" t="s">
+        <v>77</v>
+      </c>
       <c r="D63" s="54"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -7456,91 +7477,91 @@
     </row>
     <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="69"/>
-      <c r="AD64" s="69"/>
-      <c r="AE64" s="69"/>
-      <c r="AF64" s="69"/>
-      <c r="AG64" s="69"/>
-      <c r="AH64" s="67"/>
-      <c r="AI64" s="67"/>
-      <c r="AJ64" s="67"/>
-      <c r="AK64" s="67"/>
-      <c r="AL64" s="67"/>
-      <c r="AM64" s="67"/>
-      <c r="AN64" s="67"/>
-      <c r="AO64" s="67"/>
-      <c r="AP64" s="67"/>
-      <c r="AQ64" s="67"/>
-      <c r="AR64" s="70"/>
-      <c r="AS64" s="70"/>
-      <c r="AT64" s="70"/>
-      <c r="AU64" s="70"/>
-      <c r="AV64" s="70"/>
-      <c r="AW64" s="67"/>
-      <c r="AX64" s="67"/>
-      <c r="AY64" s="67"/>
-      <c r="AZ64" s="67"/>
-      <c r="BA64" s="67"/>
-      <c r="BB64" s="67"/>
-      <c r="BC64" s="67"/>
-      <c r="BD64" s="67"/>
-      <c r="BE64" s="67"/>
-      <c r="BF64" s="67"/>
-      <c r="BG64" s="71"/>
-      <c r="BH64" s="71"/>
-      <c r="BI64" s="71"/>
-      <c r="BJ64" s="71"/>
-      <c r="BK64" s="71"/>
-      <c r="BL64" s="67"/>
-      <c r="BM64" s="67"/>
-      <c r="BN64" s="67"/>
-      <c r="BO64" s="67"/>
-      <c r="BP64" s="67"/>
-      <c r="BQ64" s="67"/>
-      <c r="BR64" s="67"/>
-      <c r="BS64" s="67"/>
-      <c r="BT64" s="67"/>
-      <c r="BU64" s="67"/>
-      <c r="BV64" s="67"/>
-      <c r="BW64" s="67"/>
-      <c r="BX64" s="67"/>
-      <c r="BY64" s="67"/>
-      <c r="BZ64" s="67"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="54"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="38"/>
+      <c r="AL64" s="38"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="38"/>
+      <c r="AO64" s="38"/>
+      <c r="AP64" s="38"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="40"/>
+      <c r="AS64" s="40"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="40"/>
+      <c r="AV64" s="40"/>
+      <c r="AW64" s="38"/>
+      <c r="AX64" s="38"/>
+      <c r="AY64" s="38"/>
+      <c r="AZ64" s="38"/>
+      <c r="BA64" s="38"/>
+      <c r="BB64" s="38"/>
+      <c r="BC64" s="38"/>
+      <c r="BD64" s="38"/>
+      <c r="BE64" s="38"/>
+      <c r="BF64" s="38"/>
+      <c r="BG64" s="41"/>
+      <c r="BH64" s="41"/>
+      <c r="BI64" s="41"/>
+      <c r="BJ64" s="41"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="38"/>
+      <c r="BM64" s="38"/>
+      <c r="BN64" s="38"/>
+      <c r="BO64" s="38"/>
+      <c r="BP64" s="38"/>
+      <c r="BQ64" s="38"/>
+      <c r="BR64" s="38"/>
+      <c r="BS64" s="38"/>
+      <c r="BT64" s="38"/>
+      <c r="BU64" s="38"/>
+      <c r="BV64" s="38"/>
+      <c r="BW64" s="38"/>
+      <c r="BX64" s="38"/>
+      <c r="BY64" s="38"/>
+      <c r="BZ64" s="38"/>
     </row>
     <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D65" s="54"/>
       <c r="E65" s="35"/>
@@ -7573,18 +7594,18 @@
       <c r="AF65" s="39"/>
       <c r="AG65" s="39"/>
       <c r="AH65" s="38"/>
-      <c r="AI65" s="124"/>
-      <c r="AJ65" s="124"/>
-      <c r="AK65" s="124"/>
-      <c r="AL65" s="124"/>
-      <c r="AM65" s="58"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="38"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="40"/>
-      <c r="AS65" s="40"/>
-      <c r="AT65" s="40"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="124"/>
+      <c r="AN65" s="124"/>
+      <c r="AO65" s="124"/>
+      <c r="AP65" s="124"/>
+      <c r="AQ65" s="124"/>
+      <c r="AR65" s="151"/>
+      <c r="AS65" s="151"/>
+      <c r="AT65" s="148"/>
       <c r="AU65" s="40"/>
       <c r="AV65" s="40"/>
       <c r="AW65" s="38"/>
@@ -7621,9 +7642,7 @@
     <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
-      <c r="C66" s="56" t="s">
-        <v>80</v>
-      </c>
+      <c r="C66" s="56"/>
       <c r="D66" s="54"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -7649,17 +7668,17 @@
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
       <c r="AH66" s="38"/>
-      <c r="AI66" s="124"/>
-      <c r="AJ66" s="124"/>
-      <c r="AK66" s="124"/>
-      <c r="AL66" s="124"/>
-      <c r="AM66" s="58"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="38"/>
+      <c r="AK66" s="38"/>
+      <c r="AL66" s="38"/>
+      <c r="AM66" s="38"/>
       <c r="AN66" s="38"/>
       <c r="AO66" s="38"/>
       <c r="AP66" s="38"/>
@@ -7703,9 +7722,7 @@
     <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
-      <c r="C67" s="56" t="s">
-        <v>82</v>
-      </c>
+      <c r="C67" s="56"/>
       <c r="D67" s="54"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -7731,17 +7748,17 @@
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
       <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="38"/>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
       <c r="AH67" s="38"/>
-      <c r="AI67" s="124"/>
-      <c r="AJ67" s="124"/>
-      <c r="AK67" s="124"/>
-      <c r="AL67" s="124"/>
-      <c r="AM67" s="58"/>
+      <c r="AI67" s="38"/>
+      <c r="AJ67" s="38"/>
+      <c r="AK67" s="38"/>
+      <c r="AL67" s="38"/>
+      <c r="AM67" s="38"/>
       <c r="AN67" s="38"/>
       <c r="AO67" s="38"/>
       <c r="AP67" s="38"/>
@@ -7784,91 +7801,91 @@
     </row>
     <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="124"/>
-      <c r="AJ68" s="124"/>
-      <c r="AK68" s="124"/>
-      <c r="AL68" s="124"/>
-      <c r="AM68" s="58"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="38"/>
-      <c r="AQ68" s="38"/>
-      <c r="AR68" s="40"/>
-      <c r="AS68" s="40"/>
-      <c r="AT68" s="40"/>
-      <c r="AU68" s="40"/>
-      <c r="AV68" s="40"/>
-      <c r="AW68" s="38"/>
-      <c r="AX68" s="38"/>
-      <c r="AY68" s="38"/>
-      <c r="AZ68" s="38"/>
-      <c r="BA68" s="38"/>
-      <c r="BB68" s="38"/>
-      <c r="BC68" s="38"/>
-      <c r="BD68" s="38"/>
-      <c r="BE68" s="38"/>
-      <c r="BF68" s="38"/>
-      <c r="BG68" s="41"/>
-      <c r="BH68" s="41"/>
-      <c r="BI68" s="41"/>
-      <c r="BJ68" s="41"/>
-      <c r="BK68" s="41"/>
-      <c r="BL68" s="38"/>
-      <c r="BM68" s="38"/>
-      <c r="BN68" s="38"/>
-      <c r="BO68" s="38"/>
-      <c r="BP68" s="38"/>
-      <c r="BQ68" s="38"/>
-      <c r="BR68" s="38"/>
-      <c r="BS68" s="38"/>
-      <c r="BT68" s="38"/>
-      <c r="BU68" s="38"/>
-      <c r="BV68" s="38"/>
-      <c r="BW68" s="38"/>
-      <c r="BX68" s="38"/>
-      <c r="BY68" s="38"/>
-      <c r="BZ68" s="38"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="67"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="67"/>
+      <c r="AC68" s="69"/>
+      <c r="AD68" s="69"/>
+      <c r="AE68" s="69"/>
+      <c r="AF68" s="69"/>
+      <c r="AG68" s="69"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="67"/>
+      <c r="AM68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AO68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="67"/>
+      <c r="AR68" s="70"/>
+      <c r="AS68" s="70"/>
+      <c r="AT68" s="70"/>
+      <c r="AU68" s="70"/>
+      <c r="AV68" s="70"/>
+      <c r="AW68" s="67"/>
+      <c r="AX68" s="67"/>
+      <c r="AY68" s="67"/>
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="67"/>
+      <c r="BG68" s="71"/>
+      <c r="BH68" s="71"/>
+      <c r="BI68" s="71"/>
+      <c r="BJ68" s="71"/>
+      <c r="BK68" s="71"/>
+      <c r="BL68" s="67"/>
+      <c r="BM68" s="67"/>
+      <c r="BN68" s="67"/>
+      <c r="BO68" s="67"/>
+      <c r="BP68" s="67"/>
+      <c r="BQ68" s="67"/>
+      <c r="BR68" s="67"/>
+      <c r="BS68" s="67"/>
+      <c r="BT68" s="67"/>
+      <c r="BU68" s="67"/>
+      <c r="BV68" s="67"/>
+      <c r="BW68" s="67"/>
+      <c r="BX68" s="67"/>
+      <c r="BY68" s="67"/>
+      <c r="BZ68" s="67"/>
     </row>
     <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D69" s="54"/>
       <c r="E69" s="35"/>
@@ -7950,7 +7967,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
@@ -7977,17 +7994,17 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="38"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="38"/>
       <c r="AH70" s="38"/>
-      <c r="AI70" s="132"/>
-      <c r="AJ70" s="132"/>
-      <c r="AK70" s="132"/>
-      <c r="AL70" s="132"/>
-      <c r="AM70" s="133"/>
+      <c r="AI70" s="124"/>
+      <c r="AJ70" s="124"/>
+      <c r="AK70" s="124"/>
+      <c r="AL70" s="124"/>
+      <c r="AM70" s="58"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
       <c r="AP70" s="38"/>
@@ -8032,7 +8049,7 @@
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
       <c r="C71" s="56" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
@@ -8059,23 +8076,23 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
       <c r="AB71" s="38"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="38"/>
+      <c r="AF71" s="38"/>
+      <c r="AG71" s="38"/>
       <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
+      <c r="AI71" s="124"/>
+      <c r="AJ71" s="124"/>
+      <c r="AK71" s="124"/>
+      <c r="AL71" s="124"/>
+      <c r="AM71" s="58"/>
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
-      <c r="AQ71" s="124"/>
-      <c r="AR71" s="173"/>
-      <c r="AS71" s="148"/>
+      <c r="AQ71" s="38"/>
+      <c r="AR71" s="40"/>
+      <c r="AS71" s="40"/>
       <c r="AT71" s="40"/>
       <c r="AU71" s="40"/>
       <c r="AV71" s="40"/>
@@ -8113,7 +8130,9 @@
     <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="53"/>
-      <c r="C72" s="56"/>
+      <c r="C72" s="56" t="s">
+        <v>81</v>
+      </c>
       <c r="D72" s="54"/>
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
@@ -8145,11 +8164,11 @@
       <c r="AF72" s="39"/>
       <c r="AG72" s="39"/>
       <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
+      <c r="AI72" s="124"/>
+      <c r="AJ72" s="124"/>
+      <c r="AK72" s="124"/>
+      <c r="AL72" s="124"/>
+      <c r="AM72" s="58"/>
       <c r="AN72" s="38"/>
       <c r="AO72" s="38"/>
       <c r="AP72" s="38"/>
@@ -8193,7 +8212,9 @@
     <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
-      <c r="C73" s="56"/>
+      <c r="C73" s="56" t="s">
+        <v>83</v>
+      </c>
       <c r="D73" s="54"/>
       <c r="E73" s="35"/>
       <c r="F73" s="35"/>
@@ -8225,11 +8246,11 @@
       <c r="AF73" s="39"/>
       <c r="AG73" s="39"/>
       <c r="AH73" s="38"/>
-      <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="38"/>
-      <c r="AL73" s="38"/>
-      <c r="AM73" s="38"/>
+      <c r="AI73" s="124"/>
+      <c r="AJ73" s="124"/>
+      <c r="AK73" s="124"/>
+      <c r="AL73" s="124"/>
+      <c r="AM73" s="58"/>
       <c r="AN73" s="38"/>
       <c r="AO73" s="38"/>
       <c r="AP73" s="38"/>
@@ -8270,175 +8291,175 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
-      <c r="Z74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="69"/>
-      <c r="AD74" s="69"/>
-      <c r="AE74" s="69"/>
-      <c r="AF74" s="69"/>
-      <c r="AG74" s="69"/>
-      <c r="AH74" s="67"/>
-      <c r="AI74" s="67"/>
-      <c r="AJ74" s="69"/>
-      <c r="AK74" s="67"/>
-      <c r="AL74" s="67"/>
-      <c r="AM74" s="67"/>
-      <c r="AN74" s="67"/>
-      <c r="AO74" s="67"/>
-      <c r="AP74" s="67"/>
-      <c r="AQ74" s="67"/>
-      <c r="AR74" s="70"/>
-      <c r="AS74" s="70"/>
-      <c r="AT74" s="70"/>
-      <c r="AU74" s="70"/>
-      <c r="AV74" s="70"/>
-      <c r="AW74" s="67"/>
-      <c r="AX74" s="67"/>
-      <c r="AY74" s="67"/>
-      <c r="AZ74" s="67"/>
-      <c r="BA74" s="67"/>
-      <c r="BB74" s="67"/>
-      <c r="BC74" s="67"/>
-      <c r="BD74" s="67"/>
-      <c r="BE74" s="67"/>
-      <c r="BF74" s="67"/>
-      <c r="BG74" s="71"/>
-      <c r="BH74" s="71"/>
-      <c r="BI74" s="71"/>
-      <c r="BJ74" s="71"/>
-      <c r="BK74" s="71"/>
-      <c r="BL74" s="67"/>
-      <c r="BM74" s="67"/>
-      <c r="BN74" s="67"/>
-      <c r="BO74" s="67"/>
-      <c r="BP74" s="67"/>
-      <c r="BQ74" s="67"/>
-      <c r="BR74" s="67"/>
-      <c r="BS74" s="67"/>
-      <c r="BT74" s="67"/>
-      <c r="BU74" s="67"/>
-      <c r="BV74" s="67"/>
-      <c r="BW74" s="67"/>
-      <c r="BX74" s="67"/>
-      <c r="BY74" s="67"/>
-      <c r="BZ74" s="67"/>
+    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="54"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="38"/>
+      <c r="AA74" s="38"/>
+      <c r="AB74" s="38"/>
+      <c r="AC74" s="39"/>
+      <c r="AD74" s="39"/>
+      <c r="AE74" s="39"/>
+      <c r="AF74" s="39"/>
+      <c r="AG74" s="39"/>
+      <c r="AH74" s="38"/>
+      <c r="AI74" s="132"/>
+      <c r="AJ74" s="132"/>
+      <c r="AK74" s="132"/>
+      <c r="AL74" s="132"/>
+      <c r="AM74" s="133"/>
+      <c r="AN74" s="38"/>
+      <c r="AO74" s="38"/>
+      <c r="AP74" s="38"/>
+      <c r="AQ74" s="38"/>
+      <c r="AR74" s="40"/>
+      <c r="AS74" s="40"/>
+      <c r="AT74" s="40"/>
+      <c r="AU74" s="40"/>
+      <c r="AV74" s="40"/>
+      <c r="AW74" s="38"/>
+      <c r="AX74" s="38"/>
+      <c r="AY74" s="38"/>
+      <c r="AZ74" s="38"/>
+      <c r="BA74" s="38"/>
+      <c r="BB74" s="38"/>
+      <c r="BC74" s="38"/>
+      <c r="BD74" s="38"/>
+      <c r="BE74" s="38"/>
+      <c r="BF74" s="38"/>
+      <c r="BG74" s="41"/>
+      <c r="BH74" s="41"/>
+      <c r="BI74" s="41"/>
+      <c r="BJ74" s="41"/>
+      <c r="BK74" s="41"/>
+      <c r="BL74" s="38"/>
+      <c r="BM74" s="38"/>
+      <c r="BN74" s="38"/>
+      <c r="BO74" s="38"/>
+      <c r="BP74" s="38"/>
+      <c r="BQ74" s="38"/>
+      <c r="BR74" s="38"/>
+      <c r="BS74" s="38"/>
+      <c r="BT74" s="38"/>
+      <c r="BU74" s="38"/>
+      <c r="BV74" s="38"/>
+      <c r="BW74" s="38"/>
+      <c r="BX74" s="38"/>
+      <c r="BY74" s="38"/>
+      <c r="BZ74" s="38"/>
     </row>
-    <row r="75" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="94"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="101"/>
-      <c r="O75" s="101"/>
-      <c r="P75" s="101"/>
-      <c r="Q75" s="101"/>
-      <c r="R75" s="101"/>
-      <c r="S75" s="100"/>
-      <c r="T75" s="100"/>
-      <c r="U75" s="100"/>
-      <c r="V75" s="100"/>
-      <c r="W75" s="100"/>
-      <c r="X75" s="100"/>
-      <c r="Y75" s="100"/>
-      <c r="Z75" s="100"/>
-      <c r="AA75" s="100"/>
-      <c r="AB75" s="100"/>
-      <c r="AC75" s="102"/>
-      <c r="AD75" s="102"/>
-      <c r="AE75" s="102"/>
-      <c r="AF75" s="102"/>
-      <c r="AG75" s="102"/>
-      <c r="AH75" s="100"/>
-      <c r="AI75" s="100"/>
-      <c r="AJ75" s="102"/>
-      <c r="AK75" s="100"/>
-      <c r="AL75" s="100"/>
-      <c r="AM75" s="100"/>
-      <c r="AN75" s="100"/>
-      <c r="AO75" s="100"/>
-      <c r="AP75" s="100"/>
-      <c r="AQ75" s="100"/>
-      <c r="AR75" s="103"/>
-      <c r="AS75" s="103"/>
-      <c r="AT75" s="103"/>
-      <c r="AU75" s="103"/>
-      <c r="AV75" s="103"/>
-      <c r="AW75" s="100"/>
-      <c r="AX75" s="100"/>
-      <c r="AY75" s="100"/>
-      <c r="AZ75" s="100"/>
-      <c r="BA75" s="100"/>
-      <c r="BB75" s="100"/>
-      <c r="BC75" s="100"/>
-      <c r="BD75" s="100"/>
-      <c r="BE75" s="100"/>
-      <c r="BF75" s="100"/>
-      <c r="BG75" s="104"/>
-      <c r="BH75" s="104"/>
-      <c r="BI75" s="104"/>
-      <c r="BJ75" s="104"/>
-      <c r="BK75" s="104"/>
-      <c r="BL75" s="100"/>
-      <c r="BM75" s="100"/>
-      <c r="BN75" s="100"/>
-      <c r="BO75" s="100"/>
-      <c r="BP75" s="100"/>
-      <c r="BQ75" s="100"/>
-      <c r="BR75" s="100"/>
-      <c r="BS75" s="100"/>
-      <c r="BT75" s="100"/>
-      <c r="BU75" s="100"/>
-      <c r="BV75" s="100"/>
-      <c r="BW75" s="100"/>
-      <c r="BX75" s="100"/>
-      <c r="BY75" s="100"/>
-      <c r="BZ75" s="100"/>
+    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="38"/>
+      <c r="AL75" s="38"/>
+      <c r="AM75" s="38"/>
+      <c r="AN75" s="38"/>
+      <c r="AO75" s="38"/>
+      <c r="AP75" s="38"/>
+      <c r="AQ75" s="124"/>
+      <c r="AR75" s="151"/>
+      <c r="AS75" s="148"/>
+      <c r="AT75" s="40"/>
+      <c r="AU75" s="40"/>
+      <c r="AV75" s="40"/>
+      <c r="AW75" s="38"/>
+      <c r="AX75" s="38"/>
+      <c r="AY75" s="38"/>
+      <c r="AZ75" s="38"/>
+      <c r="BA75" s="38"/>
+      <c r="BB75" s="38"/>
+      <c r="BC75" s="38"/>
+      <c r="BD75" s="38"/>
+      <c r="BE75" s="38"/>
+      <c r="BF75" s="38"/>
+      <c r="BG75" s="41"/>
+      <c r="BH75" s="41"/>
+      <c r="BI75" s="41"/>
+      <c r="BJ75" s="41"/>
+      <c r="BK75" s="41"/>
+      <c r="BL75" s="38"/>
+      <c r="BM75" s="38"/>
+      <c r="BN75" s="38"/>
+      <c r="BO75" s="38"/>
+      <c r="BP75" s="38"/>
+      <c r="BQ75" s="38"/>
+      <c r="BR75" s="38"/>
+      <c r="BS75" s="38"/>
+      <c r="BT75" s="38"/>
+      <c r="BU75" s="38"/>
+      <c r="BV75" s="38"/>
+      <c r="BW75" s="38"/>
+      <c r="BX75" s="38"/>
+      <c r="BY75" s="38"/>
+      <c r="BZ75" s="38"/>
     </row>
     <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D76" s="54"/>
       <c r="E76" s="35"/>
@@ -8465,22 +8486,22 @@
       <c r="Z76" s="38"/>
       <c r="AA76" s="38"/>
       <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="38"/>
-      <c r="AH76" s="123"/>
-      <c r="AI76" s="123"/>
-      <c r="AJ76" s="123"/>
-      <c r="AK76" s="123"/>
-      <c r="AL76" s="123"/>
-      <c r="AM76" s="58"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="38"/>
+      <c r="AL76" s="38"/>
+      <c r="AM76" s="38"/>
       <c r="AN76" s="38"/>
       <c r="AO76" s="38"/>
-      <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="40"/>
+      <c r="AP76" s="124"/>
+      <c r="AQ76" s="124"/>
+      <c r="AR76" s="148"/>
       <c r="AS76" s="40"/>
       <c r="AT76" s="40"/>
       <c r="AU76" s="40"/>
@@ -8519,9 +8540,7 @@
     <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
-      <c r="C77" s="56" t="s">
-        <v>91</v>
-      </c>
+      <c r="C77" s="56"/>
       <c r="D77" s="54"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
@@ -8547,11 +8566,11 @@
       <c r="Z77" s="38"/>
       <c r="AA77" s="38"/>
       <c r="AB77" s="38"/>
-      <c r="AC77" s="38"/>
-      <c r="AD77" s="38"/>
-      <c r="AE77" s="38"/>
-      <c r="AF77" s="38"/>
-      <c r="AG77" s="38"/>
+      <c r="AC77" s="39"/>
+      <c r="AD77" s="39"/>
+      <c r="AE77" s="39"/>
+      <c r="AF77" s="39"/>
+      <c r="AG77" s="39"/>
       <c r="AH77" s="38"/>
       <c r="AI77" s="38"/>
       <c r="AJ77" s="38"/>
@@ -8598,175 +8617,175 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
-      <c r="AN78" s="38"/>
-      <c r="AO78" s="38"/>
-      <c r="AP78" s="38"/>
-      <c r="AQ78" s="38"/>
-      <c r="AR78" s="40"/>
-      <c r="AS78" s="40"/>
-      <c r="AT78" s="40"/>
-      <c r="AU78" s="40"/>
-      <c r="AV78" s="40"/>
-      <c r="AW78" s="38"/>
-      <c r="AX78" s="38"/>
-      <c r="AY78" s="38"/>
-      <c r="AZ78" s="38"/>
-      <c r="BA78" s="38"/>
-      <c r="BB78" s="38"/>
-      <c r="BC78" s="38"/>
-      <c r="BD78" s="38"/>
-      <c r="BE78" s="38"/>
-      <c r="BF78" s="38"/>
-      <c r="BG78" s="41"/>
-      <c r="BH78" s="41"/>
-      <c r="BI78" s="41"/>
-      <c r="BJ78" s="41"/>
-      <c r="BK78" s="41"/>
-      <c r="BL78" s="38"/>
-      <c r="BM78" s="38"/>
-      <c r="BN78" s="38"/>
-      <c r="BO78" s="38"/>
-      <c r="BP78" s="38"/>
-      <c r="BQ78" s="38"/>
-      <c r="BR78" s="38"/>
-      <c r="BS78" s="38"/>
-      <c r="BT78" s="38"/>
-      <c r="BU78" s="38"/>
-      <c r="BV78" s="38"/>
-      <c r="BW78" s="38"/>
-      <c r="BX78" s="38"/>
-      <c r="BY78" s="38"/>
-      <c r="BZ78" s="38"/>
+    <row r="78" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="72"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+      <c r="X78" s="67"/>
+      <c r="Y78" s="67"/>
+      <c r="Z78" s="67"/>
+      <c r="AA78" s="67"/>
+      <c r="AB78" s="67"/>
+      <c r="AC78" s="69"/>
+      <c r="AD78" s="69"/>
+      <c r="AE78" s="69"/>
+      <c r="AF78" s="69"/>
+      <c r="AG78" s="69"/>
+      <c r="AH78" s="67"/>
+      <c r="AI78" s="67"/>
+      <c r="AJ78" s="69"/>
+      <c r="AK78" s="67"/>
+      <c r="AL78" s="67"/>
+      <c r="AM78" s="67"/>
+      <c r="AN78" s="67"/>
+      <c r="AO78" s="67"/>
+      <c r="AP78" s="67"/>
+      <c r="AQ78" s="67"/>
+      <c r="AR78" s="70"/>
+      <c r="AS78" s="70"/>
+      <c r="AT78" s="70"/>
+      <c r="AU78" s="70"/>
+      <c r="AV78" s="70"/>
+      <c r="AW78" s="67"/>
+      <c r="AX78" s="67"/>
+      <c r="AY78" s="67"/>
+      <c r="AZ78" s="67"/>
+      <c r="BA78" s="67"/>
+      <c r="BB78" s="67"/>
+      <c r="BC78" s="67"/>
+      <c r="BD78" s="67"/>
+      <c r="BE78" s="67"/>
+      <c r="BF78" s="67"/>
+      <c r="BG78" s="71"/>
+      <c r="BH78" s="71"/>
+      <c r="BI78" s="71"/>
+      <c r="BJ78" s="71"/>
+      <c r="BK78" s="71"/>
+      <c r="BL78" s="67"/>
+      <c r="BM78" s="67"/>
+      <c r="BN78" s="67"/>
+      <c r="BO78" s="67"/>
+      <c r="BP78" s="67"/>
+      <c r="BQ78" s="67"/>
+      <c r="BR78" s="67"/>
+      <c r="BS78" s="67"/>
+      <c r="BT78" s="67"/>
+      <c r="BU78" s="67"/>
+      <c r="BV78" s="67"/>
+      <c r="BW78" s="67"/>
+      <c r="BX78" s="67"/>
+      <c r="BY78" s="67"/>
+      <c r="BZ78" s="67"/>
     </row>
-    <row r="79" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="123"/>
-      <c r="AL79" s="123"/>
-      <c r="AM79" s="58"/>
-      <c r="AN79" s="38"/>
-      <c r="AO79" s="38"/>
-      <c r="AP79" s="38"/>
-      <c r="AQ79" s="38"/>
-      <c r="AR79" s="40"/>
-      <c r="AS79" s="40"/>
-      <c r="AT79" s="40"/>
-      <c r="AU79" s="40"/>
-      <c r="AV79" s="40"/>
-      <c r="AW79" s="38"/>
-      <c r="AX79" s="38"/>
-      <c r="AY79" s="38"/>
-      <c r="AZ79" s="38"/>
-      <c r="BA79" s="38"/>
-      <c r="BB79" s="38"/>
-      <c r="BC79" s="38"/>
-      <c r="BD79" s="38"/>
-      <c r="BE79" s="38"/>
-      <c r="BF79" s="38"/>
-      <c r="BG79" s="41"/>
-      <c r="BH79" s="41"/>
-      <c r="BI79" s="41"/>
-      <c r="BJ79" s="41"/>
-      <c r="BK79" s="41"/>
-      <c r="BL79" s="38"/>
-      <c r="BM79" s="38"/>
-      <c r="BN79" s="38"/>
-      <c r="BO79" s="38"/>
-      <c r="BP79" s="38"/>
-      <c r="BQ79" s="38"/>
-      <c r="BR79" s="38"/>
-      <c r="BS79" s="38"/>
-      <c r="BT79" s="38"/>
-      <c r="BU79" s="38"/>
-      <c r="BV79" s="38"/>
-      <c r="BW79" s="38"/>
-      <c r="BX79" s="38"/>
-      <c r="BY79" s="38"/>
-      <c r="BZ79" s="38"/>
+    <row r="79" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="91"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="100"/>
+      <c r="T79" s="100"/>
+      <c r="U79" s="100"/>
+      <c r="V79" s="100"/>
+      <c r="W79" s="100"/>
+      <c r="X79" s="100"/>
+      <c r="Y79" s="100"/>
+      <c r="Z79" s="100"/>
+      <c r="AA79" s="100"/>
+      <c r="AB79" s="100"/>
+      <c r="AC79" s="102"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="102"/>
+      <c r="AF79" s="102"/>
+      <c r="AG79" s="102"/>
+      <c r="AH79" s="100"/>
+      <c r="AI79" s="100"/>
+      <c r="AJ79" s="102"/>
+      <c r="AK79" s="100"/>
+      <c r="AL79" s="100"/>
+      <c r="AM79" s="100"/>
+      <c r="AN79" s="100"/>
+      <c r="AO79" s="100"/>
+      <c r="AP79" s="100"/>
+      <c r="AQ79" s="100"/>
+      <c r="AR79" s="103"/>
+      <c r="AS79" s="103"/>
+      <c r="AT79" s="103"/>
+      <c r="AU79" s="103"/>
+      <c r="AV79" s="103"/>
+      <c r="AW79" s="100"/>
+      <c r="AX79" s="100"/>
+      <c r="AY79" s="100"/>
+      <c r="AZ79" s="100"/>
+      <c r="BA79" s="100"/>
+      <c r="BB79" s="100"/>
+      <c r="BC79" s="100"/>
+      <c r="BD79" s="100"/>
+      <c r="BE79" s="100"/>
+      <c r="BF79" s="100"/>
+      <c r="BG79" s="104"/>
+      <c r="BH79" s="104"/>
+      <c r="BI79" s="104"/>
+      <c r="BJ79" s="104"/>
+      <c r="BK79" s="104"/>
+      <c r="BL79" s="100"/>
+      <c r="BM79" s="100"/>
+      <c r="BN79" s="100"/>
+      <c r="BO79" s="100"/>
+      <c r="BP79" s="100"/>
+      <c r="BQ79" s="100"/>
+      <c r="BR79" s="100"/>
+      <c r="BS79" s="100"/>
+      <c r="BT79" s="100"/>
+      <c r="BU79" s="100"/>
+      <c r="BV79" s="100"/>
+      <c r="BW79" s="100"/>
+      <c r="BX79" s="100"/>
+      <c r="BY79" s="100"/>
+      <c r="BZ79" s="100"/>
     </row>
     <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
       <c r="C80" s="56" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D80" s="54"/>
       <c r="E80" s="35"/>
@@ -8798,9 +8817,9 @@
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="38"/>
-      <c r="AH80" s="38"/>
-      <c r="AI80" s="38"/>
-      <c r="AJ80" s="38"/>
+      <c r="AH80" s="123"/>
+      <c r="AI80" s="123"/>
+      <c r="AJ80" s="123"/>
       <c r="AK80" s="123"/>
       <c r="AL80" s="123"/>
       <c r="AM80" s="58"/>
@@ -8848,7 +8867,7 @@
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="35"/>
@@ -8883,9 +8902,9 @@
       <c r="AH81" s="38"/>
       <c r="AI81" s="38"/>
       <c r="AJ81" s="38"/>
-      <c r="AK81" s="123"/>
-      <c r="AL81" s="123"/>
-      <c r="AM81" s="58"/>
+      <c r="AK81" s="38"/>
+      <c r="AL81" s="38"/>
+      <c r="AM81" s="38"/>
       <c r="AN81" s="38"/>
       <c r="AO81" s="38"/>
       <c r="AP81" s="38"/>
@@ -8930,7 +8949,7 @@
       <c r="A82" s="32"/>
       <c r="B82" s="53"/>
       <c r="C82" s="56" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="D82" s="54"/>
       <c r="E82" s="35"/>
@@ -8969,10 +8988,10 @@
       <c r="AL82" s="38"/>
       <c r="AM82" s="38"/>
       <c r="AN82" s="38"/>
-      <c r="AO82" s="124"/>
-      <c r="AP82" s="124"/>
-      <c r="AQ82" s="124"/>
-      <c r="AR82" s="148"/>
+      <c r="AO82" s="38"/>
+      <c r="AP82" s="38"/>
+      <c r="AQ82" s="38"/>
+      <c r="AR82" s="40"/>
       <c r="AS82" s="40"/>
       <c r="AT82" s="40"/>
       <c r="AU82" s="40"/>
@@ -9008,7 +9027,7 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
       <c r="C83" s="56" t="s">
@@ -9047,14 +9066,14 @@
       <c r="AH83" s="38"/>
       <c r="AI83" s="38"/>
       <c r="AJ83" s="38"/>
-      <c r="AK83" s="38"/>
-      <c r="AL83" s="38"/>
-      <c r="AM83" s="38"/>
+      <c r="AK83" s="123"/>
+      <c r="AL83" s="123"/>
+      <c r="AM83" s="58"/>
       <c r="AN83" s="38"/>
-      <c r="AO83" s="124"/>
-      <c r="AP83" s="124"/>
-      <c r="AQ83" s="124"/>
-      <c r="AR83" s="148"/>
+      <c r="AO83" s="38"/>
+      <c r="AP83" s="38"/>
+      <c r="AQ83" s="38"/>
+      <c r="AR83" s="40"/>
       <c r="AS83" s="40"/>
       <c r="AT83" s="40"/>
       <c r="AU83" s="40"/>
@@ -9093,7 +9112,9 @@
     <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
-      <c r="C84" s="56"/>
+      <c r="C84" s="56" t="s">
+        <v>93</v>
+      </c>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -9127,9 +9148,9 @@
       <c r="AH84" s="38"/>
       <c r="AI84" s="38"/>
       <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38"/>
-      <c r="AM84" s="38"/>
+      <c r="AK84" s="123"/>
+      <c r="AL84" s="123"/>
+      <c r="AM84" s="58"/>
       <c r="AN84" s="38"/>
       <c r="AO84" s="38"/>
       <c r="AP84" s="38"/>
@@ -9173,7 +9194,9 @@
     <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
-      <c r="C85" s="56"/>
+      <c r="C85" s="56" t="s">
+        <v>94</v>
+      </c>
       <c r="D85" s="54"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
@@ -9199,17 +9222,17 @@
       <c r="Z85" s="38"/>
       <c r="AA85" s="38"/>
       <c r="AB85" s="38"/>
-      <c r="AC85" s="39"/>
-      <c r="AD85" s="39"/>
-      <c r="AE85" s="39"/>
-      <c r="AF85" s="39"/>
-      <c r="AG85" s="39"/>
+      <c r="AC85" s="38"/>
+      <c r="AD85" s="38"/>
+      <c r="AE85" s="38"/>
+      <c r="AF85" s="38"/>
+      <c r="AG85" s="38"/>
       <c r="AH85" s="38"/>
       <c r="AI85" s="38"/>
       <c r="AJ85" s="38"/>
-      <c r="AK85" s="38"/>
-      <c r="AL85" s="38"/>
-      <c r="AM85" s="38"/>
+      <c r="AK85" s="123"/>
+      <c r="AL85" s="123"/>
+      <c r="AM85" s="58"/>
       <c r="AN85" s="38"/>
       <c r="AO85" s="38"/>
       <c r="AP85" s="38"/>
@@ -9250,93 +9273,93 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="94"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="98"/>
-      <c r="J86" s="99"/>
-      <c r="K86" s="100"/>
-      <c r="L86" s="100"/>
-      <c r="M86" s="100"/>
-      <c r="N86" s="101"/>
-      <c r="O86" s="101"/>
-      <c r="P86" s="101"/>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="101"/>
-      <c r="S86" s="100"/>
-      <c r="T86" s="100"/>
-      <c r="U86" s="100"/>
-      <c r="V86" s="100"/>
-      <c r="W86" s="100"/>
-      <c r="X86" s="100"/>
-      <c r="Y86" s="100"/>
-      <c r="Z86" s="100"/>
-      <c r="AA86" s="100"/>
-      <c r="AB86" s="100"/>
-      <c r="AC86" s="102"/>
-      <c r="AD86" s="102"/>
-      <c r="AE86" s="102"/>
-      <c r="AF86" s="102"/>
-      <c r="AG86" s="102"/>
-      <c r="AH86" s="100"/>
-      <c r="AI86" s="100"/>
-      <c r="AJ86" s="100"/>
-      <c r="AK86" s="100"/>
-      <c r="AL86" s="100"/>
-      <c r="AM86" s="100"/>
-      <c r="AN86" s="100"/>
-      <c r="AO86" s="100"/>
-      <c r="AP86" s="100"/>
-      <c r="AQ86" s="100"/>
-      <c r="AR86" s="103"/>
-      <c r="AS86" s="103"/>
-      <c r="AT86" s="103"/>
-      <c r="AU86" s="103"/>
-      <c r="AV86" s="103"/>
-      <c r="AW86" s="100"/>
-      <c r="AX86" s="100"/>
-      <c r="AY86" s="100"/>
-      <c r="AZ86" s="100"/>
-      <c r="BA86" s="100"/>
-      <c r="BB86" s="100"/>
-      <c r="BC86" s="100"/>
-      <c r="BD86" s="100"/>
-      <c r="BE86" s="100"/>
-      <c r="BF86" s="100"/>
-      <c r="BG86" s="104"/>
-      <c r="BH86" s="104"/>
-      <c r="BI86" s="104"/>
-      <c r="BJ86" s="104"/>
-      <c r="BK86" s="104"/>
-      <c r="BL86" s="100"/>
-      <c r="BM86" s="100"/>
-      <c r="BN86" s="100"/>
-      <c r="BO86" s="100"/>
-      <c r="BP86" s="100"/>
-      <c r="BQ86" s="100"/>
-      <c r="BR86" s="100"/>
-      <c r="BS86" s="100"/>
-      <c r="BT86" s="100"/>
-      <c r="BU86" s="100"/>
-      <c r="BV86" s="100"/>
-      <c r="BW86" s="100"/>
-      <c r="BX86" s="100"/>
-      <c r="BY86" s="100"/>
-      <c r="BZ86" s="100"/>
+    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="32"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="54"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
+      <c r="AA86" s="38"/>
+      <c r="AB86" s="38"/>
+      <c r="AC86" s="38"/>
+      <c r="AD86" s="38"/>
+      <c r="AE86" s="38"/>
+      <c r="AF86" s="38"/>
+      <c r="AG86" s="38"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="38"/>
+      <c r="AL86" s="38"/>
+      <c r="AM86" s="38"/>
+      <c r="AN86" s="38"/>
+      <c r="AO86" s="124"/>
+      <c r="AP86" s="124"/>
+      <c r="AQ86" s="124"/>
+      <c r="AR86" s="151"/>
+      <c r="AS86" s="151"/>
+      <c r="AT86" s="151"/>
+      <c r="AU86" s="151"/>
+      <c r="AV86" s="151"/>
+      <c r="AW86" s="58"/>
+      <c r="AX86" s="38"/>
+      <c r="AY86" s="38"/>
+      <c r="AZ86" s="38"/>
+      <c r="BA86" s="38"/>
+      <c r="BB86" s="38"/>
+      <c r="BC86" s="38"/>
+      <c r="BD86" s="38"/>
+      <c r="BE86" s="38"/>
+      <c r="BF86" s="38"/>
+      <c r="BG86" s="41"/>
+      <c r="BH86" s="41"/>
+      <c r="BI86" s="41"/>
+      <c r="BJ86" s="41"/>
+      <c r="BK86" s="41"/>
+      <c r="BL86" s="38"/>
+      <c r="BM86" s="38"/>
+      <c r="BN86" s="38"/>
+      <c r="BO86" s="38"/>
+      <c r="BP86" s="38"/>
+      <c r="BQ86" s="38"/>
+      <c r="BR86" s="38"/>
+      <c r="BS86" s="38"/>
+      <c r="BT86" s="38"/>
+      <c r="BU86" s="38"/>
+      <c r="BV86" s="38"/>
+      <c r="BW86" s="38"/>
+      <c r="BX86" s="38"/>
+      <c r="BY86" s="38"/>
+      <c r="BZ86" s="38"/>
     </row>
     <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="53"/>
       <c r="C87" s="56" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D87" s="54"/>
       <c r="E87" s="35"/>
@@ -9348,11 +9371,11 @@
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
       <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
       <c r="U87" s="38"/>
@@ -9369,20 +9392,20 @@
       <c r="AF87" s="38"/>
       <c r="AG87" s="38"/>
       <c r="AH87" s="38"/>
-      <c r="AI87" s="124"/>
-      <c r="AJ87" s="124"/>
-      <c r="AK87" s="124"/>
-      <c r="AL87" s="124"/>
-      <c r="AM87" s="58"/>
+      <c r="AI87" s="38"/>
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="38"/>
+      <c r="AL87" s="38"/>
+      <c r="AM87" s="38"/>
       <c r="AN87" s="38"/>
-      <c r="AO87" s="38"/>
-      <c r="AP87" s="38"/>
-      <c r="AQ87" s="38"/>
-      <c r="AR87" s="38"/>
-      <c r="AS87" s="38"/>
-      <c r="AT87" s="38"/>
-      <c r="AU87" s="38"/>
-      <c r="AV87" s="38"/>
+      <c r="AO87" s="124"/>
+      <c r="AP87" s="124"/>
+      <c r="AQ87" s="124"/>
+      <c r="AR87" s="148"/>
+      <c r="AS87" s="40"/>
+      <c r="AT87" s="40"/>
+      <c r="AU87" s="40"/>
+      <c r="AV87" s="40"/>
       <c r="AW87" s="38"/>
       <c r="AX87" s="38"/>
       <c r="AY87" s="38"/>
@@ -9393,11 +9416,11 @@
       <c r="BD87" s="38"/>
       <c r="BE87" s="38"/>
       <c r="BF87" s="38"/>
-      <c r="BG87" s="38"/>
-      <c r="BH87" s="38"/>
-      <c r="BI87" s="38"/>
-      <c r="BJ87" s="38"/>
-      <c r="BK87" s="38"/>
+      <c r="BG87" s="41"/>
+      <c r="BH87" s="41"/>
+      <c r="BI87" s="41"/>
+      <c r="BJ87" s="41"/>
+      <c r="BK87" s="41"/>
       <c r="BL87" s="38"/>
       <c r="BM87" s="38"/>
       <c r="BN87" s="38"/>
@@ -9417,8 +9440,8 @@
     <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
-      <c r="C88" s="56" t="s">
-        <v>96</v>
+      <c r="C88" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="35"/>
@@ -9430,11 +9453,11 @@
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
       <c r="S88" s="38"/>
       <c r="T88" s="38"/>
       <c r="U88" s="38"/>
@@ -9455,16 +9478,16 @@
       <c r="AJ88" s="38"/>
       <c r="AK88" s="38"/>
       <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
+      <c r="AM88" s="175"/>
       <c r="AN88" s="38"/>
       <c r="AO88" s="38"/>
       <c r="AP88" s="38"/>
       <c r="AQ88" s="38"/>
-      <c r="AR88" s="38"/>
-      <c r="AS88" s="38"/>
-      <c r="AT88" s="38"/>
-      <c r="AU88" s="38"/>
-      <c r="AV88" s="38"/>
+      <c r="AR88" s="148"/>
+      <c r="AS88" s="40"/>
+      <c r="AT88" s="40"/>
+      <c r="AU88" s="40"/>
+      <c r="AV88" s="40"/>
       <c r="AW88" s="38"/>
       <c r="AX88" s="38"/>
       <c r="AY88" s="38"/>
@@ -9475,11 +9498,11 @@
       <c r="BD88" s="38"/>
       <c r="BE88" s="38"/>
       <c r="BF88" s="38"/>
-      <c r="BG88" s="38"/>
-      <c r="BH88" s="38"/>
-      <c r="BI88" s="38"/>
-      <c r="BJ88" s="38"/>
-      <c r="BK88" s="38"/>
+      <c r="BG88" s="41"/>
+      <c r="BH88" s="41"/>
+      <c r="BI88" s="41"/>
+      <c r="BJ88" s="41"/>
+      <c r="BK88" s="41"/>
       <c r="BL88" s="38"/>
       <c r="BM88" s="38"/>
       <c r="BN88" s="38"/>
@@ -9499,7 +9522,9 @@
     <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="56"/>
+      <c r="C89" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="D89" s="54"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
@@ -9510,11 +9535,11 @@
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
       <c r="S89" s="38"/>
       <c r="T89" s="38"/>
       <c r="U89" s="38"/>
@@ -9525,11 +9550,11 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
       <c r="AB89" s="38"/>
-      <c r="AC89" s="38"/>
-      <c r="AD89" s="38"/>
-      <c r="AE89" s="38"/>
-      <c r="AF89" s="38"/>
-      <c r="AG89" s="38"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
       <c r="AJ89" s="38"/>
@@ -9540,11 +9565,11 @@
       <c r="AO89" s="38"/>
       <c r="AP89" s="38"/>
       <c r="AQ89" s="38"/>
-      <c r="AR89" s="38"/>
-      <c r="AS89" s="38"/>
-      <c r="AT89" s="38"/>
-      <c r="AU89" s="38"/>
-      <c r="AV89" s="38"/>
+      <c r="AR89" s="151"/>
+      <c r="AS89" s="151"/>
+      <c r="AT89" s="151"/>
+      <c r="AU89" s="151"/>
+      <c r="AV89" s="148"/>
       <c r="AW89" s="38"/>
       <c r="AX89" s="38"/>
       <c r="AY89" s="38"/>
@@ -9555,11 +9580,11 @@
       <c r="BD89" s="38"/>
       <c r="BE89" s="38"/>
       <c r="BF89" s="38"/>
-      <c r="BG89" s="38"/>
-      <c r="BH89" s="38"/>
-      <c r="BI89" s="38"/>
-      <c r="BJ89" s="38"/>
-      <c r="BK89" s="38"/>
+      <c r="BG89" s="41"/>
+      <c r="BH89" s="41"/>
+      <c r="BI89" s="41"/>
+      <c r="BJ89" s="41"/>
+      <c r="BK89" s="41"/>
       <c r="BL89" s="38"/>
       <c r="BM89" s="38"/>
       <c r="BN89" s="38"/>
@@ -9576,93 +9601,93 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="61"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="68"/>
-      <c r="P90" s="68"/>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="67"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="67"/>
-      <c r="V90" s="67"/>
-      <c r="W90" s="67"/>
-      <c r="X90" s="67"/>
-      <c r="Y90" s="67"/>
-      <c r="Z90" s="67"/>
-      <c r="AA90" s="67"/>
-      <c r="AB90" s="67"/>
-      <c r="AC90" s="69"/>
-      <c r="AD90" s="69"/>
-      <c r="AE90" s="69"/>
-      <c r="AF90" s="69"/>
-      <c r="AG90" s="69"/>
-      <c r="AH90" s="67"/>
-      <c r="AI90" s="67"/>
-      <c r="AJ90" s="67"/>
-      <c r="AK90" s="67"/>
-      <c r="AL90" s="67"/>
-      <c r="AM90" s="67"/>
-      <c r="AN90" s="67"/>
-      <c r="AO90" s="67"/>
-      <c r="AP90" s="67"/>
-      <c r="AQ90" s="67"/>
-      <c r="AR90" s="70"/>
-      <c r="AS90" s="70"/>
-      <c r="AT90" s="70"/>
-      <c r="AU90" s="70"/>
-      <c r="AV90" s="70"/>
-      <c r="AW90" s="67"/>
-      <c r="AX90" s="67"/>
-      <c r="AY90" s="67"/>
-      <c r="AZ90" s="67"/>
-      <c r="BA90" s="67"/>
-      <c r="BB90" s="67"/>
-      <c r="BC90" s="67"/>
-      <c r="BD90" s="67"/>
-      <c r="BE90" s="67"/>
-      <c r="BF90" s="67"/>
-      <c r="BG90" s="71"/>
-      <c r="BH90" s="71"/>
-      <c r="BI90" s="71"/>
-      <c r="BJ90" s="71"/>
-      <c r="BK90" s="71"/>
-      <c r="BL90" s="67"/>
-      <c r="BM90" s="67"/>
-      <c r="BN90" s="67"/>
-      <c r="BO90" s="67"/>
-      <c r="BP90" s="67"/>
-      <c r="BQ90" s="67"/>
-      <c r="BR90" s="67"/>
-      <c r="BS90" s="67"/>
-      <c r="BT90" s="67"/>
-      <c r="BU90" s="67"/>
-      <c r="BV90" s="67"/>
-      <c r="BW90" s="67"/>
-      <c r="BX90" s="67"/>
-      <c r="BY90" s="67"/>
-      <c r="BZ90" s="67"/>
+    <row r="90" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="91"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="94"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="99"/>
+      <c r="K90" s="100"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="100"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
+      <c r="P90" s="101"/>
+      <c r="Q90" s="101"/>
+      <c r="R90" s="101"/>
+      <c r="S90" s="100"/>
+      <c r="T90" s="100"/>
+      <c r="U90" s="100"/>
+      <c r="V90" s="100"/>
+      <c r="W90" s="100"/>
+      <c r="X90" s="100"/>
+      <c r="Y90" s="100"/>
+      <c r="Z90" s="100"/>
+      <c r="AA90" s="100"/>
+      <c r="AB90" s="100"/>
+      <c r="AC90" s="102"/>
+      <c r="AD90" s="102"/>
+      <c r="AE90" s="102"/>
+      <c r="AF90" s="102"/>
+      <c r="AG90" s="102"/>
+      <c r="AH90" s="100"/>
+      <c r="AI90" s="100"/>
+      <c r="AJ90" s="100"/>
+      <c r="AK90" s="100"/>
+      <c r="AL90" s="100"/>
+      <c r="AM90" s="100"/>
+      <c r="AN90" s="100"/>
+      <c r="AO90" s="100"/>
+      <c r="AP90" s="100"/>
+      <c r="AQ90" s="100"/>
+      <c r="AR90" s="103"/>
+      <c r="AS90" s="103"/>
+      <c r="AT90" s="103"/>
+      <c r="AU90" s="103"/>
+      <c r="AV90" s="103"/>
+      <c r="AW90" s="100"/>
+      <c r="AX90" s="100"/>
+      <c r="AY90" s="100"/>
+      <c r="AZ90" s="100"/>
+      <c r="BA90" s="100"/>
+      <c r="BB90" s="100"/>
+      <c r="BC90" s="100"/>
+      <c r="BD90" s="100"/>
+      <c r="BE90" s="100"/>
+      <c r="BF90" s="100"/>
+      <c r="BG90" s="104"/>
+      <c r="BH90" s="104"/>
+      <c r="BI90" s="104"/>
+      <c r="BJ90" s="104"/>
+      <c r="BK90" s="104"/>
+      <c r="BL90" s="100"/>
+      <c r="BM90" s="100"/>
+      <c r="BN90" s="100"/>
+      <c r="BO90" s="100"/>
+      <c r="BP90" s="100"/>
+      <c r="BQ90" s="100"/>
+      <c r="BR90" s="100"/>
+      <c r="BS90" s="100"/>
+      <c r="BT90" s="100"/>
+      <c r="BU90" s="100"/>
+      <c r="BV90" s="100"/>
+      <c r="BW90" s="100"/>
+      <c r="BX90" s="100"/>
+      <c r="BY90" s="100"/>
+      <c r="BZ90" s="100"/>
     </row>
     <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="35"/>
@@ -9674,11 +9699,11 @@
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
       <c r="M91" s="38"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
       <c r="U91" s="38"/>
@@ -9689,12 +9714,12 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
       <c r="AB91" s="38"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="124"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="38"/>
+      <c r="AF91" s="38"/>
+      <c r="AG91" s="38"/>
+      <c r="AH91" s="38"/>
       <c r="AI91" s="124"/>
       <c r="AJ91" s="124"/>
       <c r="AK91" s="124"/>
@@ -9704,11 +9729,11 @@
       <c r="AO91" s="38"/>
       <c r="AP91" s="38"/>
       <c r="AQ91" s="38"/>
-      <c r="AR91" s="40"/>
-      <c r="AS91" s="40"/>
-      <c r="AT91" s="40"/>
-      <c r="AU91" s="40"/>
-      <c r="AV91" s="40"/>
+      <c r="AR91" s="38"/>
+      <c r="AS91" s="38"/>
+      <c r="AT91" s="38"/>
+      <c r="AU91" s="38"/>
+      <c r="AV91" s="38"/>
       <c r="AW91" s="38"/>
       <c r="AX91" s="38"/>
       <c r="AY91" s="38"/>
@@ -9719,11 +9744,11 @@
       <c r="BD91" s="38"/>
       <c r="BE91" s="38"/>
       <c r="BF91" s="38"/>
-      <c r="BG91" s="41"/>
-      <c r="BH91" s="41"/>
-      <c r="BI91" s="41"/>
-      <c r="BJ91" s="41"/>
-      <c r="BK91" s="41"/>
+      <c r="BG91" s="38"/>
+      <c r="BH91" s="38"/>
+      <c r="BI91" s="38"/>
+      <c r="BJ91" s="38"/>
+      <c r="BK91" s="38"/>
       <c r="BL91" s="38"/>
       <c r="BM91" s="38"/>
       <c r="BN91" s="38"/>
@@ -9744,7 +9769,7 @@
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
       <c r="C92" s="56" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D92" s="54"/>
       <c r="E92" s="35"/>
@@ -9756,11 +9781,11 @@
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38"/>
       <c r="U92" s="38"/>
@@ -9771,26 +9796,26 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
       <c r="AB92" s="38"/>
-      <c r="AC92" s="39"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
-      <c r="AH92" s="124"/>
-      <c r="AI92" s="124"/>
-      <c r="AJ92" s="124"/>
-      <c r="AK92" s="124"/>
-      <c r="AL92" s="124"/>
-      <c r="AM92" s="58"/>
+      <c r="AC92" s="38"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="38"/>
       <c r="AN92" s="38"/>
       <c r="AO92" s="38"/>
       <c r="AP92" s="38"/>
       <c r="AQ92" s="38"/>
-      <c r="AR92" s="40"/>
-      <c r="AS92" s="40"/>
-      <c r="AT92" s="40"/>
-      <c r="AU92" s="40"/>
-      <c r="AV92" s="40"/>
+      <c r="AR92" s="38"/>
+      <c r="AS92" s="38"/>
+      <c r="AT92" s="38"/>
+      <c r="AU92" s="38"/>
+      <c r="AV92" s="38"/>
       <c r="AW92" s="38"/>
       <c r="AX92" s="38"/>
       <c r="AY92" s="38"/>
@@ -9801,11 +9826,11 @@
       <c r="BD92" s="38"/>
       <c r="BE92" s="38"/>
       <c r="BF92" s="38"/>
-      <c r="BG92" s="41"/>
-      <c r="BH92" s="41"/>
-      <c r="BI92" s="41"/>
-      <c r="BJ92" s="41"/>
-      <c r="BK92" s="41"/>
+      <c r="BG92" s="38"/>
+      <c r="BH92" s="38"/>
+      <c r="BI92" s="38"/>
+      <c r="BJ92" s="38"/>
+      <c r="BK92" s="38"/>
       <c r="BL92" s="38"/>
       <c r="BM92" s="38"/>
       <c r="BN92" s="38"/>
@@ -9826,7 +9851,7 @@
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D93" s="54"/>
       <c r="E93" s="35"/>
@@ -9838,11 +9863,11 @@
       <c r="K93" s="38"/>
       <c r="L93" s="38"/>
       <c r="M93" s="38"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38"/>
       <c r="U93" s="38"/>
@@ -9853,11 +9878,11 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
       <c r="AB93" s="38"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="38"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="38"/>
+      <c r="AG93" s="38"/>
       <c r="AH93" s="38"/>
       <c r="AI93" s="38"/>
       <c r="AJ93" s="38"/>
@@ -9865,15 +9890,15 @@
       <c r="AL93" s="38"/>
       <c r="AM93" s="38"/>
       <c r="AN93" s="38"/>
-      <c r="AO93" s="150"/>
-      <c r="AP93" s="150"/>
-      <c r="AQ93" s="150"/>
-      <c r="AR93" s="148"/>
-      <c r="AS93" s="40"/>
-      <c r="AT93" s="40"/>
-      <c r="AU93" s="40"/>
-      <c r="AV93" s="40"/>
-      <c r="AW93" s="38"/>
+      <c r="AO93" s="38"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="38"/>
+      <c r="AR93" s="124"/>
+      <c r="AS93" s="124"/>
+      <c r="AT93" s="124"/>
+      <c r="AU93" s="124"/>
+      <c r="AV93" s="124"/>
+      <c r="AW93" s="58"/>
       <c r="AX93" s="38"/>
       <c r="AY93" s="38"/>
       <c r="AZ93" s="38"/>
@@ -9883,11 +9908,11 @@
       <c r="BD93" s="38"/>
       <c r="BE93" s="38"/>
       <c r="BF93" s="38"/>
-      <c r="BG93" s="41"/>
-      <c r="BH93" s="41"/>
-      <c r="BI93" s="41"/>
-      <c r="BJ93" s="41"/>
-      <c r="BK93" s="41"/>
+      <c r="BG93" s="38"/>
+      <c r="BH93" s="38"/>
+      <c r="BI93" s="38"/>
+      <c r="BJ93" s="38"/>
+      <c r="BK93" s="38"/>
       <c r="BL93" s="38"/>
       <c r="BM93" s="38"/>
       <c r="BN93" s="38"/>
@@ -9907,9 +9932,7 @@
     <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="53"/>
-      <c r="C94" s="56" t="s">
-        <v>132</v>
-      </c>
+      <c r="C94" s="56"/>
       <c r="D94" s="54"/>
       <c r="E94" s="35"/>
       <c r="F94" s="35"/>
@@ -9920,11 +9943,11 @@
       <c r="K94" s="38"/>
       <c r="L94" s="38"/>
       <c r="M94" s="38"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38"/>
       <c r="U94" s="38"/>
@@ -9935,11 +9958,11 @@
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
       <c r="AB94" s="38"/>
-      <c r="AC94" s="39"/>
-      <c r="AD94" s="39"/>
-      <c r="AE94" s="39"/>
-      <c r="AF94" s="39"/>
-      <c r="AG94" s="39"/>
+      <c r="AC94" s="38"/>
+      <c r="AD94" s="38"/>
+      <c r="AE94" s="38"/>
+      <c r="AF94" s="38"/>
+      <c r="AG94" s="38"/>
       <c r="AH94" s="38"/>
       <c r="AI94" s="38"/>
       <c r="AJ94" s="38"/>
@@ -9947,15 +9970,15 @@
       <c r="AL94" s="38"/>
       <c r="AM94" s="38"/>
       <c r="AN94" s="38"/>
-      <c r="AO94" s="150"/>
-      <c r="AP94" s="150"/>
-      <c r="AQ94" s="150"/>
-      <c r="AR94" s="150"/>
-      <c r="AS94" s="150"/>
-      <c r="AT94" s="150"/>
-      <c r="AU94" s="150"/>
-      <c r="AV94" s="150"/>
-      <c r="AW94" s="58"/>
+      <c r="AO94" s="38"/>
+      <c r="AP94" s="38"/>
+      <c r="AQ94" s="38"/>
+      <c r="AR94" s="38"/>
+      <c r="AS94" s="38"/>
+      <c r="AT94" s="38"/>
+      <c r="AU94" s="38"/>
+      <c r="AV94" s="38"/>
+      <c r="AW94" s="38"/>
       <c r="AX94" s="38"/>
       <c r="AY94" s="38"/>
       <c r="AZ94" s="38"/>
@@ -9965,11 +9988,11 @@
       <c r="BD94" s="38"/>
       <c r="BE94" s="38"/>
       <c r="BF94" s="38"/>
-      <c r="BG94" s="41"/>
-      <c r="BH94" s="41"/>
-      <c r="BI94" s="41"/>
-      <c r="BJ94" s="41"/>
-      <c r="BK94" s="41"/>
+      <c r="BG94" s="38"/>
+      <c r="BH94" s="38"/>
+      <c r="BI94" s="38"/>
+      <c r="BJ94" s="38"/>
+      <c r="BK94" s="38"/>
       <c r="BL94" s="38"/>
       <c r="BM94" s="38"/>
       <c r="BN94" s="38"/>
@@ -9986,90 +10009,94 @@
       <c r="BY94" s="38"/>
       <c r="BZ94" s="38"/>
     </row>
-    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
-      <c r="AN95" s="38"/>
-      <c r="AO95" s="38"/>
-      <c r="AP95" s="38"/>
-      <c r="AQ95" s="38"/>
-      <c r="AR95" s="40"/>
-      <c r="AS95" s="40"/>
-      <c r="AT95" s="40"/>
-      <c r="AU95" s="40"/>
-      <c r="AV95" s="40"/>
-      <c r="AW95" s="38"/>
-      <c r="AX95" s="38"/>
-      <c r="AY95" s="38"/>
-      <c r="AZ95" s="38"/>
-      <c r="BA95" s="38"/>
-      <c r="BB95" s="38"/>
-      <c r="BC95" s="38"/>
-      <c r="BD95" s="38"/>
-      <c r="BE95" s="38"/>
-      <c r="BF95" s="38"/>
-      <c r="BG95" s="41"/>
-      <c r="BH95" s="41"/>
-      <c r="BI95" s="41"/>
-      <c r="BJ95" s="41"/>
-      <c r="BK95" s="41"/>
-      <c r="BL95" s="38"/>
-      <c r="BM95" s="38"/>
-      <c r="BN95" s="38"/>
-      <c r="BO95" s="38"/>
-      <c r="BP95" s="38"/>
-      <c r="BQ95" s="38"/>
-      <c r="BR95" s="38"/>
-      <c r="BS95" s="38"/>
-      <c r="BT95" s="38"/>
-      <c r="BU95" s="38"/>
-      <c r="BV95" s="38"/>
-      <c r="BW95" s="38"/>
-      <c r="BX95" s="38"/>
-      <c r="BY95" s="38"/>
-      <c r="BZ95" s="38"/>
+    <row r="95" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="72"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="61"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="68"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="67"/>
+      <c r="X95" s="67"/>
+      <c r="Y95" s="67"/>
+      <c r="Z95" s="67"/>
+      <c r="AA95" s="67"/>
+      <c r="AB95" s="67"/>
+      <c r="AC95" s="69"/>
+      <c r="AD95" s="69"/>
+      <c r="AE95" s="69"/>
+      <c r="AF95" s="69"/>
+      <c r="AG95" s="69"/>
+      <c r="AH95" s="67"/>
+      <c r="AI95" s="67"/>
+      <c r="AJ95" s="67"/>
+      <c r="AK95" s="67"/>
+      <c r="AL95" s="67"/>
+      <c r="AM95" s="67"/>
+      <c r="AN95" s="67"/>
+      <c r="AO95" s="67"/>
+      <c r="AP95" s="67"/>
+      <c r="AQ95" s="67"/>
+      <c r="AR95" s="70"/>
+      <c r="AS95" s="70"/>
+      <c r="AT95" s="70"/>
+      <c r="AU95" s="70"/>
+      <c r="AV95" s="70"/>
+      <c r="AW95" s="67"/>
+      <c r="AX95" s="67"/>
+      <c r="AY95" s="67"/>
+      <c r="AZ95" s="67"/>
+      <c r="BA95" s="67"/>
+      <c r="BB95" s="67"/>
+      <c r="BC95" s="67"/>
+      <c r="BD95" s="67"/>
+      <c r="BE95" s="67"/>
+      <c r="BF95" s="67"/>
+      <c r="BG95" s="71"/>
+      <c r="BH95" s="71"/>
+      <c r="BI95" s="71"/>
+      <c r="BJ95" s="71"/>
+      <c r="BK95" s="71"/>
+      <c r="BL95" s="67"/>
+      <c r="BM95" s="67"/>
+      <c r="BN95" s="67"/>
+      <c r="BO95" s="67"/>
+      <c r="BP95" s="67"/>
+      <c r="BQ95" s="67"/>
+      <c r="BR95" s="67"/>
+      <c r="BS95" s="67"/>
+      <c r="BT95" s="67"/>
+      <c r="BU95" s="67"/>
+      <c r="BV95" s="67"/>
+      <c r="BW95" s="67"/>
+      <c r="BX95" s="67"/>
+      <c r="BY95" s="67"/>
+      <c r="BZ95" s="67"/>
     </row>
     <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
-      <c r="C96" s="56"/>
+      <c r="C96" s="56" t="s">
+        <v>84</v>
+      </c>
       <c r="D96" s="54"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -10100,12 +10127,12 @@
       <c r="AE96" s="39"/>
       <c r="AF96" s="39"/>
       <c r="AG96" s="39"/>
-      <c r="AH96" s="38"/>
-      <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="38"/>
-      <c r="AL96" s="38"/>
-      <c r="AM96" s="38"/>
+      <c r="AH96" s="124"/>
+      <c r="AI96" s="124"/>
+      <c r="AJ96" s="124"/>
+      <c r="AK96" s="124"/>
+      <c r="AL96" s="124"/>
+      <c r="AM96" s="58"/>
       <c r="AN96" s="38"/>
       <c r="AO96" s="38"/>
       <c r="AP96" s="38"/>
@@ -10149,7 +10176,9 @@
     <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="53"/>
-      <c r="C97" s="57"/>
+      <c r="C97" s="56" t="s">
+        <v>85</v>
+      </c>
       <c r="D97" s="54"/>
       <c r="E97" s="35"/>
       <c r="F97" s="35"/>
@@ -10180,12 +10209,12 @@
       <c r="AE97" s="39"/>
       <c r="AF97" s="39"/>
       <c r="AG97" s="39"/>
-      <c r="AH97" s="38"/>
-      <c r="AI97" s="38"/>
-      <c r="AJ97" s="38"/>
-      <c r="AK97" s="38"/>
-      <c r="AL97" s="38"/>
-      <c r="AM97" s="38"/>
+      <c r="AH97" s="124"/>
+      <c r="AI97" s="124"/>
+      <c r="AJ97" s="124"/>
+      <c r="AK97" s="124"/>
+      <c r="AL97" s="124"/>
+      <c r="AM97" s="58"/>
       <c r="AN97" s="38"/>
       <c r="AO97" s="38"/>
       <c r="AP97" s="38"/>
@@ -10226,112 +10255,99 @@
       <c r="BY97" s="38"/>
       <c r="BZ97" s="38"/>
     </row>
-    <row r="98" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="26">
-        <v>4</v>
-      </c>
-      <c r="C98" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="29"/>
-      <c r="AE98" s="29"/>
-      <c r="AF98" s="29"/>
-      <c r="AG98" s="29"/>
-      <c r="AH98" s="29"/>
-      <c r="AI98" s="29"/>
-      <c r="AJ98" s="29"/>
-      <c r="AK98" s="29"/>
-      <c r="AL98" s="29"/>
-      <c r="AM98" s="29"/>
-      <c r="AN98" s="29"/>
-      <c r="AO98" s="29"/>
-      <c r="AP98" s="29"/>
-      <c r="AQ98" s="29"/>
-      <c r="AR98" s="29"/>
-      <c r="AS98" s="29"/>
-      <c r="AT98" s="29"/>
-      <c r="AU98" s="29"/>
-      <c r="AV98" s="29"/>
-      <c r="AW98" s="29"/>
-      <c r="AX98" s="29"/>
-      <c r="AY98" s="29"/>
-      <c r="AZ98" s="29"/>
-      <c r="BA98" s="29"/>
-      <c r="BB98" s="29"/>
-      <c r="BC98" s="29"/>
-      <c r="BD98" s="29"/>
-      <c r="BE98" s="29"/>
-      <c r="BF98" s="29"/>
-      <c r="BG98" s="29"/>
-      <c r="BH98" s="29"/>
-      <c r="BI98" s="29"/>
-      <c r="BJ98" s="29"/>
-      <c r="BK98" s="29"/>
-      <c r="BL98" s="29"/>
-      <c r="BM98" s="29"/>
-      <c r="BN98" s="29"/>
-      <c r="BO98" s="29"/>
-      <c r="BP98" s="29"/>
-      <c r="BQ98" s="29"/>
-      <c r="BR98" s="29"/>
-      <c r="BS98" s="29"/>
-      <c r="BT98" s="29"/>
-      <c r="BU98" s="29"/>
-      <c r="BV98" s="29"/>
-      <c r="BW98" s="29"/>
-      <c r="BX98" s="29"/>
-      <c r="BY98" s="29"/>
-      <c r="BZ98" s="29"/>
+    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="54"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
+      <c r="AA98" s="38"/>
+      <c r="AB98" s="38"/>
+      <c r="AC98" s="39"/>
+      <c r="AD98" s="39"/>
+      <c r="AE98" s="39"/>
+      <c r="AF98" s="39"/>
+      <c r="AG98" s="39"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="38"/>
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="38"/>
+      <c r="AL98" s="38"/>
+      <c r="AM98" s="38"/>
+      <c r="AN98" s="38"/>
+      <c r="AO98" s="150"/>
+      <c r="AP98" s="150"/>
+      <c r="AQ98" s="150"/>
+      <c r="AR98" s="148"/>
+      <c r="AS98" s="40"/>
+      <c r="AT98" s="40"/>
+      <c r="AU98" s="40"/>
+      <c r="AV98" s="40"/>
+      <c r="AW98" s="38"/>
+      <c r="AX98" s="38"/>
+      <c r="AY98" s="38"/>
+      <c r="AZ98" s="38"/>
+      <c r="BA98" s="38"/>
+      <c r="BB98" s="38"/>
+      <c r="BC98" s="38"/>
+      <c r="BD98" s="38"/>
+      <c r="BE98" s="38"/>
+      <c r="BF98" s="38"/>
+      <c r="BG98" s="41"/>
+      <c r="BH98" s="41"/>
+      <c r="BI98" s="41"/>
+      <c r="BJ98" s="41"/>
+      <c r="BK98" s="41"/>
+      <c r="BL98" s="38"/>
+      <c r="BM98" s="38"/>
+      <c r="BN98" s="38"/>
+      <c r="BO98" s="38"/>
+      <c r="BP98" s="38"/>
+      <c r="BQ98" s="38"/>
+      <c r="BR98" s="38"/>
+      <c r="BS98" s="38"/>
+      <c r="BT98" s="38"/>
+      <c r="BU98" s="38"/>
+      <c r="BV98" s="38"/>
+      <c r="BW98" s="38"/>
+      <c r="BX98" s="38"/>
+      <c r="BY98" s="38"/>
+      <c r="BZ98" s="38"/>
     </row>
-    <row r="99" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G99" s="36" t="e">
-        <f>DAYS360(E99,F99)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H99" s="37">
-        <v>1</v>
-      </c>
+    <row r="99" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="54"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
       <c r="I99" s="42"/>
       <c r="J99" s="43"/>
       <c r="K99" s="38"/>
@@ -10364,15 +10380,15 @@
       <c r="AL99" s="38"/>
       <c r="AM99" s="38"/>
       <c r="AN99" s="38"/>
-      <c r="AO99" s="38"/>
-      <c r="AP99" s="38"/>
-      <c r="AQ99" s="38"/>
-      <c r="AR99" s="40"/>
-      <c r="AS99" s="40"/>
-      <c r="AT99" s="40"/>
-      <c r="AU99" s="40"/>
-      <c r="AV99" s="40"/>
-      <c r="AW99" s="38"/>
+      <c r="AO99" s="150"/>
+      <c r="AP99" s="150"/>
+      <c r="AQ99" s="150"/>
+      <c r="AR99" s="150"/>
+      <c r="AS99" s="150"/>
+      <c r="AT99" s="150"/>
+      <c r="AU99" s="150"/>
+      <c r="AV99" s="150"/>
+      <c r="AW99" s="58"/>
       <c r="AX99" s="38"/>
       <c r="AY99" s="38"/>
       <c r="AZ99" s="38"/>
@@ -10403,28 +10419,17 @@
       <c r="BY99" s="38"/>
       <c r="BZ99" s="38"/>
     </row>
-    <row r="100" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G100" s="36">
-        <v>0</v>
-      </c>
-      <c r="H100" s="37">
-        <v>1</v>
-      </c>
+    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="54"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
       <c r="I100" s="42"/>
       <c r="J100" s="43"/>
       <c r="K100" s="38"/>
@@ -10457,10 +10462,10 @@
       <c r="AL100" s="38"/>
       <c r="AM100" s="38"/>
       <c r="AN100" s="38"/>
-      <c r="AO100" s="38"/>
-      <c r="AP100" s="38"/>
-      <c r="AQ100" s="38"/>
-      <c r="AR100" s="40"/>
+      <c r="AO100" s="124"/>
+      <c r="AP100" s="124"/>
+      <c r="AQ100" s="151"/>
+      <c r="AR100" s="148"/>
       <c r="AS100" s="40"/>
       <c r="AT100" s="40"/>
       <c r="AU100" s="40"/>
@@ -10496,29 +10501,15 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F101" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G101" s="36">
-        <f t="shared" ref="G101:G105" si="4">DAYS360(E101,F101)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="37">
-        <v>1</v>
-      </c>
+    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="37"/>
       <c r="I101" s="42"/>
       <c r="J101" s="43"/>
       <c r="K101" s="38"/>
@@ -10590,29 +10581,15 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F102" s="35">
-        <v>44829</v>
-      </c>
-      <c r="G102" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="52">
-        <v>1</v>
-      </c>
+    <row r="102" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="37"/>
       <c r="I102" s="42"/>
       <c r="J102" s="43"/>
       <c r="K102" s="38"/>
@@ -10685,118 +10662,107 @@
       <c r="BZ102" s="38"/>
     </row>
     <row r="103" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="35">
-        <v>44830</v>
-      </c>
-      <c r="F103" s="35">
-        <v>44830</v>
-      </c>
-      <c r="G103" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="37">
-        <v>1</v>
-      </c>
-      <c r="I103" s="42"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="44"/>
-      <c r="S103" s="38"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38"/>
-      <c r="V103" s="38"/>
-      <c r="W103" s="38"/>
-      <c r="X103" s="38"/>
-      <c r="Y103" s="38"/>
-      <c r="Z103" s="38"/>
-      <c r="AA103" s="38"/>
-      <c r="AB103" s="38"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="38"/>
-      <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="38"/>
-      <c r="AL103" s="38"/>
-      <c r="AM103" s="38"/>
-      <c r="AN103" s="38"/>
-      <c r="AO103" s="38"/>
-      <c r="AP103" s="38"/>
-      <c r="AQ103" s="38"/>
-      <c r="AR103" s="40"/>
-      <c r="AS103" s="40"/>
-      <c r="AT103" s="40"/>
-      <c r="AU103" s="40"/>
-      <c r="AV103" s="40"/>
-      <c r="AW103" s="38"/>
-      <c r="AX103" s="38"/>
-      <c r="AY103" s="38"/>
-      <c r="AZ103" s="38"/>
-      <c r="BA103" s="38"/>
-      <c r="BB103" s="38"/>
-      <c r="BC103" s="38"/>
-      <c r="BD103" s="38"/>
-      <c r="BE103" s="38"/>
-      <c r="BF103" s="38"/>
-      <c r="BG103" s="41"/>
-      <c r="BH103" s="41"/>
-      <c r="BI103" s="41"/>
-      <c r="BJ103" s="41"/>
-      <c r="BK103" s="41"/>
-      <c r="BL103" s="38"/>
-      <c r="BM103" s="38"/>
-      <c r="BN103" s="38"/>
-      <c r="BO103" s="38"/>
-      <c r="BP103" s="38"/>
-      <c r="BQ103" s="38"/>
-      <c r="BR103" s="38"/>
-      <c r="BS103" s="38"/>
-      <c r="BT103" s="38"/>
-      <c r="BU103" s="38"/>
-      <c r="BV103" s="38"/>
-      <c r="BW103" s="38"/>
-      <c r="BX103" s="38"/>
-      <c r="BY103" s="38"/>
-      <c r="BZ103" s="38"/>
+      <c r="B103" s="26">
+        <v>4</v>
+      </c>
+      <c r="C103" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="29"/>
+      <c r="AI103" s="29"/>
+      <c r="AJ103" s="29"/>
+      <c r="AK103" s="29"/>
+      <c r="AL103" s="29"/>
+      <c r="AM103" s="29"/>
+      <c r="AN103" s="29"/>
+      <c r="AO103" s="29"/>
+      <c r="AP103" s="29"/>
+      <c r="AQ103" s="29"/>
+      <c r="AR103" s="29"/>
+      <c r="AS103" s="29"/>
+      <c r="AT103" s="29"/>
+      <c r="AU103" s="29"/>
+      <c r="AV103" s="29"/>
+      <c r="AW103" s="29"/>
+      <c r="AX103" s="29"/>
+      <c r="AY103" s="29"/>
+      <c r="AZ103" s="29"/>
+      <c r="BA103" s="29"/>
+      <c r="BB103" s="29"/>
+      <c r="BC103" s="29"/>
+      <c r="BD103" s="29"/>
+      <c r="BE103" s="29"/>
+      <c r="BF103" s="29"/>
+      <c r="BG103" s="29"/>
+      <c r="BH103" s="29"/>
+      <c r="BI103" s="29"/>
+      <c r="BJ103" s="29"/>
+      <c r="BK103" s="29"/>
+      <c r="BL103" s="29"/>
+      <c r="BM103" s="29"/>
+      <c r="BN103" s="29"/>
+      <c r="BO103" s="29"/>
+      <c r="BP103" s="29"/>
+      <c r="BQ103" s="29"/>
+      <c r="BR103" s="29"/>
+      <c r="BS103" s="29"/>
+      <c r="BT103" s="29"/>
+      <c r="BU103" s="29"/>
+      <c r="BV103" s="29"/>
+      <c r="BW103" s="29"/>
+      <c r="BX103" s="29"/>
+      <c r="BY103" s="29"/>
+      <c r="BZ103" s="29"/>
     </row>
     <row r="104" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="33" t="s">
-        <v>67</v>
+      <c r="B104" s="33">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="35">
-        <v>44837</v>
-      </c>
-      <c r="F104" s="35">
-        <v>44837</v>
-      </c>
-      <c r="G104" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="E104" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" s="36" t="e">
+        <f>DAYS360(E104,F104)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H104" s="37">
         <v>1</v>
@@ -10873,21 +10839,22 @@
       <c r="BZ104" s="38"/>
     </row>
     <row r="105" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
+      <c r="B105" s="33">
+        <v>4.2</v>
+      </c>
       <c r="C105" s="47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="35">
-        <v>44844</v>
-      </c>
-      <c r="F105" s="35">
-        <v>44844</v>
+      <c r="E105" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="G105" s="36">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105" s="37">
@@ -10966,22 +10933,22 @@
     </row>
     <row r="106" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="106" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E106" s="35">
-        <v>44844</v>
+        <v>44823</v>
       </c>
       <c r="F106" s="35">
-        <v>44844</v>
+        <v>44823</v>
       </c>
       <c r="G106" s="36">
-        <f t="shared" ref="G106" si="5">DAYS360(E106,F106)</f>
+        <f t="shared" ref="G106:G110" si="4">DAYS360(E106,F106)</f>
         <v>0</v>
       </c>
       <c r="H106" s="37">
@@ -11059,83 +11026,551 @@
       <c r="BZ106" s="38"/>
     </row>
     <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="107"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="113"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="115"/>
-      <c r="L107" s="115"/>
-      <c r="M107" s="115"/>
-      <c r="N107" s="116"/>
-      <c r="O107" s="116"/>
-      <c r="P107" s="116"/>
-      <c r="Q107" s="116"/>
-      <c r="R107" s="116"/>
-      <c r="S107" s="115"/>
-      <c r="T107" s="115"/>
-      <c r="U107" s="115"/>
-      <c r="V107" s="115"/>
-      <c r="W107" s="115"/>
-      <c r="X107" s="115"/>
-      <c r="Y107" s="115"/>
-      <c r="Z107" s="115"/>
-      <c r="AA107" s="115"/>
-      <c r="AB107" s="115"/>
-      <c r="AC107" s="117"/>
-      <c r="AD107" s="117"/>
-      <c r="AE107" s="117"/>
-      <c r="AF107" s="117"/>
-      <c r="AG107" s="117"/>
-      <c r="AH107" s="115"/>
-      <c r="AI107" s="115"/>
-      <c r="AJ107" s="115"/>
-      <c r="AK107" s="115"/>
-      <c r="AL107" s="115"/>
-      <c r="AM107" s="115"/>
-      <c r="AN107" s="115"/>
-      <c r="AO107" s="115"/>
-      <c r="AP107" s="115"/>
-      <c r="AQ107" s="115"/>
-      <c r="AR107" s="118"/>
-      <c r="AS107" s="118"/>
-      <c r="AT107" s="118"/>
-      <c r="AU107" s="118"/>
-      <c r="AV107" s="118"/>
-      <c r="AW107" s="115"/>
-      <c r="AX107" s="115"/>
-      <c r="AY107" s="115"/>
-      <c r="AZ107" s="115"/>
-      <c r="BA107" s="115"/>
-      <c r="BB107" s="115"/>
-      <c r="BC107" s="115"/>
-      <c r="BD107" s="115"/>
-      <c r="BE107" s="115"/>
-      <c r="BF107" s="115"/>
-      <c r="BG107" s="119"/>
-      <c r="BH107" s="119"/>
-      <c r="BI107" s="119"/>
-      <c r="BJ107" s="119"/>
-      <c r="BK107" s="119"/>
-      <c r="BL107" s="115"/>
-      <c r="BM107" s="115"/>
-      <c r="BN107" s="115"/>
-      <c r="BO107" s="115"/>
-      <c r="BP107" s="115"/>
-      <c r="BQ107" s="115"/>
-      <c r="BR107" s="115"/>
-      <c r="BS107" s="115"/>
-      <c r="BT107" s="115"/>
-      <c r="BU107" s="115"/>
-      <c r="BV107" s="115"/>
-      <c r="BW107" s="115"/>
-      <c r="BX107" s="115"/>
-      <c r="BY107" s="115"/>
-      <c r="BZ107" s="115"/>
+      <c r="B107" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="35">
+        <v>44829</v>
+      </c>
+      <c r="F107" s="35">
+        <v>44829</v>
+      </c>
+      <c r="G107" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="52">
+        <v>1</v>
+      </c>
+      <c r="I107" s="42"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="38"/>
+      <c r="AP107" s="38"/>
+      <c r="AQ107" s="38"/>
+      <c r="AR107" s="40"/>
+      <c r="AS107" s="40"/>
+      <c r="AT107" s="40"/>
+      <c r="AU107" s="40"/>
+      <c r="AV107" s="40"/>
+      <c r="AW107" s="38"/>
+      <c r="AX107" s="38"/>
+      <c r="AY107" s="38"/>
+      <c r="AZ107" s="38"/>
+      <c r="BA107" s="38"/>
+      <c r="BB107" s="38"/>
+      <c r="BC107" s="38"/>
+      <c r="BD107" s="38"/>
+      <c r="BE107" s="38"/>
+      <c r="BF107" s="38"/>
+      <c r="BG107" s="41"/>
+      <c r="BH107" s="41"/>
+      <c r="BI107" s="41"/>
+      <c r="BJ107" s="41"/>
+      <c r="BK107" s="41"/>
+      <c r="BL107" s="38"/>
+      <c r="BM107" s="38"/>
+      <c r="BN107" s="38"/>
+      <c r="BO107" s="38"/>
+      <c r="BP107" s="38"/>
+      <c r="BQ107" s="38"/>
+      <c r="BR107" s="38"/>
+      <c r="BS107" s="38"/>
+      <c r="BT107" s="38"/>
+      <c r="BU107" s="38"/>
+      <c r="BV107" s="38"/>
+      <c r="BW107" s="38"/>
+      <c r="BX107" s="38"/>
+      <c r="BY107" s="38"/>
+      <c r="BZ107" s="38"/>
+    </row>
+    <row r="108" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="35">
+        <v>44830</v>
+      </c>
+      <c r="F108" s="35">
+        <v>44830</v>
+      </c>
+      <c r="G108" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="37">
+        <v>1</v>
+      </c>
+      <c r="I108" s="42"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="44"/>
+      <c r="O108" s="44"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="38"/>
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38"/>
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="39"/>
+      <c r="AD108" s="39"/>
+      <c r="AE108" s="39"/>
+      <c r="AF108" s="39"/>
+      <c r="AG108" s="39"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="38"/>
+      <c r="AL108" s="38"/>
+      <c r="AM108" s="38"/>
+      <c r="AN108" s="38"/>
+      <c r="AO108" s="38"/>
+      <c r="AP108" s="38"/>
+      <c r="AQ108" s="38"/>
+      <c r="AR108" s="40"/>
+      <c r="AS108" s="40"/>
+      <c r="AT108" s="40"/>
+      <c r="AU108" s="40"/>
+      <c r="AV108" s="40"/>
+      <c r="AW108" s="38"/>
+      <c r="AX108" s="38"/>
+      <c r="AY108" s="38"/>
+      <c r="AZ108" s="38"/>
+      <c r="BA108" s="38"/>
+      <c r="BB108" s="38"/>
+      <c r="BC108" s="38"/>
+      <c r="BD108" s="38"/>
+      <c r="BE108" s="38"/>
+      <c r="BF108" s="38"/>
+      <c r="BG108" s="41"/>
+      <c r="BH108" s="41"/>
+      <c r="BI108" s="41"/>
+      <c r="BJ108" s="41"/>
+      <c r="BK108" s="41"/>
+      <c r="BL108" s="38"/>
+      <c r="BM108" s="38"/>
+      <c r="BN108" s="38"/>
+      <c r="BO108" s="38"/>
+      <c r="BP108" s="38"/>
+      <c r="BQ108" s="38"/>
+      <c r="BR108" s="38"/>
+      <c r="BS108" s="38"/>
+      <c r="BT108" s="38"/>
+      <c r="BU108" s="38"/>
+      <c r="BV108" s="38"/>
+      <c r="BW108" s="38"/>
+      <c r="BX108" s="38"/>
+      <c r="BY108" s="38"/>
+      <c r="BZ108" s="38"/>
+    </row>
+    <row r="109" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F109" s="35">
+        <v>44837</v>
+      </c>
+      <c r="G109" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="37">
+        <v>1</v>
+      </c>
+      <c r="I109" s="42"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
+      <c r="V109" s="38"/>
+      <c r="W109" s="38"/>
+      <c r="X109" s="38"/>
+      <c r="Y109" s="38"/>
+      <c r="Z109" s="38"/>
+      <c r="AA109" s="38"/>
+      <c r="AB109" s="38"/>
+      <c r="AC109" s="39"/>
+      <c r="AD109" s="39"/>
+      <c r="AE109" s="39"/>
+      <c r="AF109" s="39"/>
+      <c r="AG109" s="39"/>
+      <c r="AH109" s="38"/>
+      <c r="AI109" s="38"/>
+      <c r="AJ109" s="38"/>
+      <c r="AK109" s="38"/>
+      <c r="AL109" s="38"/>
+      <c r="AM109" s="38"/>
+      <c r="AN109" s="38"/>
+      <c r="AO109" s="38"/>
+      <c r="AP109" s="38"/>
+      <c r="AQ109" s="38"/>
+      <c r="AR109" s="40"/>
+      <c r="AS109" s="40"/>
+      <c r="AT109" s="40"/>
+      <c r="AU109" s="40"/>
+      <c r="AV109" s="40"/>
+      <c r="AW109" s="38"/>
+      <c r="AX109" s="38"/>
+      <c r="AY109" s="38"/>
+      <c r="AZ109" s="38"/>
+      <c r="BA109" s="38"/>
+      <c r="BB109" s="38"/>
+      <c r="BC109" s="38"/>
+      <c r="BD109" s="38"/>
+      <c r="BE109" s="38"/>
+      <c r="BF109" s="38"/>
+      <c r="BG109" s="41"/>
+      <c r="BH109" s="41"/>
+      <c r="BI109" s="41"/>
+      <c r="BJ109" s="41"/>
+      <c r="BK109" s="41"/>
+      <c r="BL109" s="38"/>
+      <c r="BM109" s="38"/>
+      <c r="BN109" s="38"/>
+      <c r="BO109" s="38"/>
+      <c r="BP109" s="38"/>
+      <c r="BQ109" s="38"/>
+      <c r="BR109" s="38"/>
+      <c r="BS109" s="38"/>
+      <c r="BT109" s="38"/>
+      <c r="BU109" s="38"/>
+      <c r="BV109" s="38"/>
+      <c r="BW109" s="38"/>
+      <c r="BX109" s="38"/>
+      <c r="BY109" s="38"/>
+      <c r="BZ109" s="38"/>
+    </row>
+    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="33"/>
+      <c r="C110" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F110" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G110" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="37">
+        <v>1</v>
+      </c>
+      <c r="I110" s="42"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="38"/>
+      <c r="AA110" s="38"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="39"/>
+      <c r="AD110" s="39"/>
+      <c r="AE110" s="39"/>
+      <c r="AF110" s="39"/>
+      <c r="AG110" s="39"/>
+      <c r="AH110" s="38"/>
+      <c r="AI110" s="38"/>
+      <c r="AJ110" s="38"/>
+      <c r="AK110" s="38"/>
+      <c r="AL110" s="38"/>
+      <c r="AM110" s="38"/>
+      <c r="AN110" s="38"/>
+      <c r="AO110" s="38"/>
+      <c r="AP110" s="38"/>
+      <c r="AQ110" s="38"/>
+      <c r="AR110" s="40"/>
+      <c r="AS110" s="40"/>
+      <c r="AT110" s="40"/>
+      <c r="AU110" s="40"/>
+      <c r="AV110" s="40"/>
+      <c r="AW110" s="38"/>
+      <c r="AX110" s="38"/>
+      <c r="AY110" s="38"/>
+      <c r="AZ110" s="38"/>
+      <c r="BA110" s="38"/>
+      <c r="BB110" s="38"/>
+      <c r="BC110" s="38"/>
+      <c r="BD110" s="38"/>
+      <c r="BE110" s="38"/>
+      <c r="BF110" s="38"/>
+      <c r="BG110" s="41"/>
+      <c r="BH110" s="41"/>
+      <c r="BI110" s="41"/>
+      <c r="BJ110" s="41"/>
+      <c r="BK110" s="41"/>
+      <c r="BL110" s="38"/>
+      <c r="BM110" s="38"/>
+      <c r="BN110" s="38"/>
+      <c r="BO110" s="38"/>
+      <c r="BP110" s="38"/>
+      <c r="BQ110" s="38"/>
+      <c r="BR110" s="38"/>
+      <c r="BS110" s="38"/>
+      <c r="BT110" s="38"/>
+      <c r="BU110" s="38"/>
+      <c r="BV110" s="38"/>
+      <c r="BW110" s="38"/>
+      <c r="BX110" s="38"/>
+      <c r="BY110" s="38"/>
+      <c r="BZ110" s="38"/>
+    </row>
+    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F111" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G111" s="36">
+        <f t="shared" ref="G111" si="5">DAYS360(E111,F111)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="37">
+        <v>1</v>
+      </c>
+      <c r="I111" s="42"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+      <c r="U111" s="38"/>
+      <c r="V111" s="38"/>
+      <c r="W111" s="38"/>
+      <c r="X111" s="38"/>
+      <c r="Y111" s="38"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="38"/>
+      <c r="AB111" s="38"/>
+      <c r="AC111" s="39"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
+      <c r="AG111" s="39"/>
+      <c r="AH111" s="38"/>
+      <c r="AI111" s="38"/>
+      <c r="AJ111" s="38"/>
+      <c r="AK111" s="38"/>
+      <c r="AL111" s="38"/>
+      <c r="AM111" s="38"/>
+      <c r="AN111" s="38"/>
+      <c r="AO111" s="38"/>
+      <c r="AP111" s="38"/>
+      <c r="AQ111" s="38"/>
+      <c r="AR111" s="40"/>
+      <c r="AS111" s="40"/>
+      <c r="AT111" s="40"/>
+      <c r="AU111" s="40"/>
+      <c r="AV111" s="40"/>
+      <c r="AW111" s="38"/>
+      <c r="AX111" s="38"/>
+      <c r="AY111" s="38"/>
+      <c r="AZ111" s="38"/>
+      <c r="BA111" s="38"/>
+      <c r="BB111" s="38"/>
+      <c r="BC111" s="38"/>
+      <c r="BD111" s="38"/>
+      <c r="BE111" s="38"/>
+      <c r="BF111" s="38"/>
+      <c r="BG111" s="41"/>
+      <c r="BH111" s="41"/>
+      <c r="BI111" s="41"/>
+      <c r="BJ111" s="41"/>
+      <c r="BK111" s="41"/>
+      <c r="BL111" s="38"/>
+      <c r="BM111" s="38"/>
+      <c r="BN111" s="38"/>
+      <c r="BO111" s="38"/>
+      <c r="BP111" s="38"/>
+      <c r="BQ111" s="38"/>
+      <c r="BR111" s="38"/>
+      <c r="BS111" s="38"/>
+      <c r="BT111" s="38"/>
+      <c r="BU111" s="38"/>
+      <c r="BV111" s="38"/>
+      <c r="BW111" s="38"/>
+      <c r="BX111" s="38"/>
+      <c r="BY111" s="38"/>
+      <c r="BZ111" s="38"/>
+    </row>
+    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="107"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="110"/>
+      <c r="F112" s="110"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="113"/>
+      <c r="J112" s="114"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="115"/>
+      <c r="M112" s="115"/>
+      <c r="N112" s="116"/>
+      <c r="O112" s="116"/>
+      <c r="P112" s="116"/>
+      <c r="Q112" s="116"/>
+      <c r="R112" s="116"/>
+      <c r="S112" s="115"/>
+      <c r="T112" s="115"/>
+      <c r="U112" s="115"/>
+      <c r="V112" s="115"/>
+      <c r="W112" s="115"/>
+      <c r="X112" s="115"/>
+      <c r="Y112" s="115"/>
+      <c r="Z112" s="115"/>
+      <c r="AA112" s="115"/>
+      <c r="AB112" s="115"/>
+      <c r="AC112" s="117"/>
+      <c r="AD112" s="117"/>
+      <c r="AE112" s="117"/>
+      <c r="AF112" s="117"/>
+      <c r="AG112" s="117"/>
+      <c r="AH112" s="115"/>
+      <c r="AI112" s="115"/>
+      <c r="AJ112" s="115"/>
+      <c r="AK112" s="115"/>
+      <c r="AL112" s="115"/>
+      <c r="AM112" s="115"/>
+      <c r="AN112" s="115"/>
+      <c r="AO112" s="115"/>
+      <c r="AP112" s="115"/>
+      <c r="AQ112" s="115"/>
+      <c r="AR112" s="118"/>
+      <c r="AS112" s="118"/>
+      <c r="AT112" s="118"/>
+      <c r="AU112" s="118"/>
+      <c r="AV112" s="118"/>
+      <c r="AW112" s="115"/>
+      <c r="AX112" s="115"/>
+      <c r="AY112" s="115"/>
+      <c r="AZ112" s="115"/>
+      <c r="BA112" s="115"/>
+      <c r="BB112" s="115"/>
+      <c r="BC112" s="115"/>
+      <c r="BD112" s="115"/>
+      <c r="BE112" s="115"/>
+      <c r="BF112" s="115"/>
+      <c r="BG112" s="119"/>
+      <c r="BH112" s="119"/>
+      <c r="BI112" s="119"/>
+      <c r="BJ112" s="119"/>
+      <c r="BK112" s="119"/>
+      <c r="BL112" s="115"/>
+      <c r="BM112" s="115"/>
+      <c r="BN112" s="115"/>
+      <c r="BO112" s="115"/>
+      <c r="BP112" s="115"/>
+      <c r="BQ112" s="115"/>
+      <c r="BR112" s="115"/>
+      <c r="BS112" s="115"/>
+      <c r="BT112" s="115"/>
+      <c r="BU112" s="115"/>
+      <c r="BV112" s="115"/>
+      <c r="BW112" s="115"/>
+      <c r="BX112" s="115"/>
+      <c r="BY112" s="115"/>
+      <c r="BZ112" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -11177,7 +11612,7 @@
     <mergeCell ref="S10:W10"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H107">
+  <conditionalFormatting sqref="H12:H21 H23:H112">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -11187,7 +11622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H107">
+  <conditionalFormatting sqref="H12:H21 H23:H112">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
